--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ20234198" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ20365715" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ20486233" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ20608260" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20736775" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20884036" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ21013281" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21144826" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21268652" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21420624" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ21565672" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ21697726" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ21825338" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ21951853" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ22079416" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ22210449" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ22343192" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ22473718" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ22605778" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ22744011" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ22905177" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ23050322" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ23190934" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ23325737" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ23463127" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ23594379" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ23718894" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ23838444" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ23964978" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ24105885" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ24260943" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ24394476" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ24527898" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ24664774" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ24793234" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ24931744" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ25065264" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ25196567" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ25334897" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ25466769" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ25601115" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ25730632" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ25865147" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ25994501" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ26132872" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ26271513" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ26418567" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ26550087" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ26694462" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ26831714" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ51765454" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51877840" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51982766" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52099960" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52227726" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52358925" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52503424" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52652597" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52798656" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52949496" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ53108541" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ53268746" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ53419849" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ53574511" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ53726436" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ53876632" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ54026091" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ54185258" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ54332280" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ54487671" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ54647412" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ54805441" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ54963012" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ55115658" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ55275010" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ55540699" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ55694621" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ55841371" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ55996625" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ56153370" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ56307496" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ56460094" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ56612312" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ56762540" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ56913540" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ57065461" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ57220765" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ57375202" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ57525526" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ57675558" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ57824596" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ57980105" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ58138437" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ58291951" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ58447973" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ58595244" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ58754300" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ58909770" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ59059453" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ59206638" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51765454" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51877840" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51982766" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52099960" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52227726" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ52358925" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52503424" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52652597" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52798656" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52949496" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ53108541" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53268746" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53419849" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53574511" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ53726436" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ53876632" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ54026091" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ54185258" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54332280" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54487671" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54647412" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ54805441" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ54963012" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ55115658" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ55275010" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ55540699" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ55694621" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55841371" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55996625" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ56153370" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ56307496" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ56460094" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ56612312" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ56762540" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ56913540" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ57065461" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ57220765" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ57375202" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ57525526" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ57675558" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ57824596" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ57980105" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ58138437" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ58291951" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ58447973" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ58595244" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ58754300" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ58909770" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ59059453" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ59206638" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ49275388" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49375146" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ49477838" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49581347" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49690858" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49805366" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ49927878" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50053908" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50182960" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50312473" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ50439875" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ50567378" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ50700793" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ50830306" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ50958441" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ51088961" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ51221474" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ51357509" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ51484077" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ51614119" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51742654" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51874690" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ52005783" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ52137793" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ52263828" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ52482873" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ52608581" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ52731091" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ52861116" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ52987787" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ53116447" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ53244979" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ53374063" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ53501575" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ53629088" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ53763173" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53891679" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ54024195" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ54157767" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ54285281" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ54419814" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ54564840" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ54698434" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ54831952" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54977778" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ55131797" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ55284372" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ55432885" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ55573926" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ55705961" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4497.706724209953</v>
+        <v>4390.454109850636</v>
       </c>
       <c r="C2" t="n">
-        <v>3.325471683182436e-07</v>
+        <v>6.507122457674794e-07</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.070669952821859</v>
+        <v>4.438872395372712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8255945988526731</v>
+        <v>0.9130994643030348</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9783832295369</v>
+        <v>166.2344196827681</v>
       </c>
       <c r="C4" t="n">
-        <v>1.699121810243708e-08</v>
+        <v>2.730558155267846e-08</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0121425879373484</v>
+        <v>0.008852225303063219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6590896845546916</v>
+        <v>0.7488917209117691</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.725345724238383e-06</v>
+        <v>2.378214546921954e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6816566527605841</v>
+        <v>0.7222168524402626</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.036377201595876</v>
+        <v>-11.07061015761401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3603358604671482</v>
+        <v>0.1338587821689052</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.345362598206556</v>
+        <v>-7.468132886204049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05442129555256614</v>
+        <v>0.08474652228992716</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1638.660869362387</v>
+        <v>-1672.914540437397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003920337362595793</v>
+        <v>0.003456928280197248</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1195.891070271509</v>
+        <v>-1009.142328700225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07213141327017052</v>
+        <v>0.1258420835711841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1127.039830792985</v>
+        <v>2557.448260515905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0937681353773293</v>
+        <v>0.003829863082010506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2622.09891764656</v>
+        <v>9.602790504073141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002877351954056016</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.751057192392622</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3076556206026557</v>
+        <v>0.3186044128123572</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3621.877541665592</v>
+        <v>3405.920005785675</v>
       </c>
       <c r="C2" t="n">
-        <v>8.538514306885986e-05</v>
+        <v>0.000166421454211302</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.57552667252141</v>
+        <v>53.39684142540096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4271107641825753</v>
+        <v>0.2278471617345847</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.456048228148</v>
+        <v>182.6824678310358</v>
       </c>
       <c r="C4" t="n">
-        <v>9.963481370357962e-08</v>
+        <v>1.01495089792915e-07</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04107444783605776</v>
+        <v>0.03587008654471018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1659050602198575</v>
+        <v>0.2224942836338041</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.127641098490129e-07</v>
+        <v>-4.949237540777565e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.929723942829272</v>
+        <v>0.9433463732413743</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.442355414363516</v>
+        <v>-7.651974592827896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6004395994574272</v>
+        <v>0.3462472612730962</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.460008522549023</v>
+        <v>-4.370353738939045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2870780375144123</v>
+        <v>0.2979327303497471</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1228.252155207972</v>
+        <v>-1221.137803364626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04821525739679855</v>
+        <v>0.05003356671394375</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1703.777226355915</v>
+        <v>-1433.358465791302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0120674960569287</v>
+        <v>0.02584267403772433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-803.9311945952313</v>
+        <v>3318.192047861757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2065043335876811</v>
+        <v>0.000429770381553755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3296.961190297708</v>
+        <v>12.68654436145763</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000453925568888657</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.798239244354498</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3023427366658839</v>
+        <v>0.1706193556297117</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3260.970008962132</v>
+        <v>3046.997105560032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001179380732809026</v>
+        <v>0.0002315734256669663</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.82013894192787</v>
+        <v>87.75266875894398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09805007058374507</v>
+        <v>0.03918634738232308</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3880251164728</v>
+        <v>183.382851464138</v>
       </c>
       <c r="C4" t="n">
-        <v>7.899170035535106e-09</v>
+        <v>5.699862246593026e-09</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03440765139272804</v>
+        <v>0.03050117255779938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2014530022280911</v>
+        <v>0.2549126590020818</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.241006955072395e-05</v>
+        <v>3.991934591648157e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2258374080446616</v>
+        <v>0.1271464477949802</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.459078573421245</v>
+        <v>-6.182540025149201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6644782171711366</v>
+        <v>0.4215649782210116</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.714078387294173</v>
+        <v>-2.093813783436633</v>
       </c>
       <c r="C8" t="n">
-        <v>0.491831832461734</v>
+        <v>0.5936095422572555</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1443.778062877231</v>
+        <v>-1538.683160586054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01576157009212405</v>
+        <v>0.009744082852582802</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1712.144984129487</v>
+        <v>-1523.521910417424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006681332471686233</v>
+        <v>0.0127957734094932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-771.5314197716036</v>
+        <v>2892.966735347549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2150593352422601</v>
+        <v>0.004145776578493655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2845.492958569318</v>
+        <v>10.82882420920544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004728071368448232</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.684437102490961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2512201839779136</v>
+        <v>0.1981035817068886</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4281.25198489182</v>
+        <v>4111.343276849238</v>
       </c>
       <c r="C2" t="n">
-        <v>9.049599675303132e-07</v>
+        <v>2.50773717029341e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.66225437906178</v>
+        <v>45.87588676949439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6289840692448629</v>
+        <v>0.2940819209901727</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.4377269758809</v>
+        <v>173.5579150036793</v>
       </c>
       <c r="C4" t="n">
-        <v>1.829310516942393e-08</v>
+        <v>3.359112697618594e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0362970077562516</v>
+        <v>0.02962598204459622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1932310814726765</v>
+        <v>0.2898048672213473</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.430727818149517e-06</v>
+        <v>2.395437285595192e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8366973846329935</v>
+        <v>0.7324675477709925</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.54586319027079</v>
+        <v>-10.3748903739735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4717796823436979</v>
+        <v>0.161987095279466</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.403933683995017</v>
+        <v>-7.845893072116894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1108386947777108</v>
+        <v>0.09472957270916003</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1344.547758074148</v>
+        <v>-1394.065578010307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02214454902824708</v>
+        <v>0.01900627160340445</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1747.927962688884</v>
+        <v>-1425.322783553188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006949772909349076</v>
+        <v>0.02381156685736758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1081.340497675689</v>
+        <v>2810.14025029323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04936192531630297</v>
+        <v>0.002370207972548596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2779.061291293245</v>
+        <v>11.90199529166297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002361760002139245</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.31608232333719</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.338047049024652</v>
+        <v>0.1667149129916264</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4502.556524463973</v>
+        <v>4229.040273171591</v>
       </c>
       <c r="C2" t="n">
-        <v>5.011263505954394e-06</v>
+        <v>1.64667078560224e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.93387735152785</v>
+        <v>42.67864316149765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6237846200534596</v>
+        <v>0.3558823552435868</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.4109767630464</v>
+        <v>170.1184931363885</v>
       </c>
       <c r="C4" t="n">
-        <v>7.047770261753005e-07</v>
+        <v>5.214048562886856e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01885790869659174</v>
+        <v>0.01054230870478865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5401962753207247</v>
+        <v>0.7323265793751551</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.665406631978715e-06</v>
+        <v>1.740490009621211e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8197114721916363</v>
+        <v>0.8138159009949085</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.679466058471663</v>
+        <v>-10.69907313560544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4298286832191603</v>
+        <v>0.1982768148917907</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.433046337758358</v>
+        <v>-6.161773774622096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1711789567777132</v>
+        <v>0.19461390305907</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1179.835130221821</v>
+        <v>-1167.418589939572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05287164365271697</v>
+        <v>0.05811626903567076</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1500.788985086484</v>
+        <v>-1171.504165288588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03768719346274754</v>
+        <v>0.0977418323421736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1196.850940599042</v>
+        <v>3049.428530297659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05271606983261978</v>
+        <v>0.001840123901782042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3113.54699793234</v>
+        <v>4.571883638661847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001326498625972507</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.465807106070597</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8871351762959359</v>
+        <v>0.6578968717399769</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3198.277491900577</v>
+        <v>2991.208836159903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002374996799350297</v>
+        <v>0.0005748294148915434</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.14714522586013</v>
+        <v>42.86013029360197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.622155421256848</v>
+        <v>0.3057587541487611</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.0127584135894</v>
+        <v>155.3024710342191</v>
       </c>
       <c r="C4" t="n">
-        <v>5.742336856450664e-07</v>
+        <v>9.204918177774409e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02132719334603738</v>
+        <v>0.01641335437925604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4680502979435317</v>
+        <v>0.578806258079238</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.037129057874952e-06</v>
+        <v>-7.618841831716167e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8774137514416719</v>
+        <v>0.9106858880718105</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.954121353229205</v>
+        <v>-9.007491744876742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5396395131737879</v>
+        <v>0.25322211488981</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.818915655498138</v>
+        <v>-4.835991121782503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2392706949956912</v>
+        <v>0.2424500601481776</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1420.291104376834</v>
+        <v>-1404.885677397049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01357297038914923</v>
+        <v>0.01560015155050984</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1637.042523100033</v>
+        <v>-1407.41602475928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0113491252761695</v>
+        <v>0.02770612596471846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1155.23880312316</v>
+        <v>5152.489849536506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0601259177361623</v>
+        <v>1.754029599028313e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5308.640592479618</v>
+        <v>23.39660103353546</v>
       </c>
       <c r="C12" t="n">
-        <v>7.753465586874588e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.56492884775675</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03270658878815356</v>
+        <v>0.009823888727896427</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3842.36585755684</v>
+        <v>3639.981708541264</v>
       </c>
       <c r="C2" t="n">
-        <v>7.520978429848919e-06</v>
+        <v>1.686430483984456e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.62079041713589</v>
+        <v>45.69130376887318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4359299422887327</v>
+        <v>0.2487102973390749</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.9240370104715</v>
+        <v>145.1197624324896</v>
       </c>
       <c r="C4" t="n">
-        <v>7.920996426992717e-06</v>
+        <v>1.064227407995127e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03928829491160771</v>
+        <v>0.03075873383863611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212095196045492</v>
+        <v>0.3212929158501946</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.966527348461199e-06</v>
+        <v>-2.2305095615791e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7688886391341671</v>
+        <v>0.7399229405691429</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.26864943320283</v>
+        <v>-14.79833568645936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1981072631754735</v>
+        <v>0.0803146603539477</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.582349949566582</v>
+        <v>-5.359264689425499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1643548515440547</v>
+        <v>0.1832630445768112</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2002.125141504542</v>
+        <v>-2000.050803107402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009981567633660727</v>
+        <v>0.001057052233556175</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1532.008875988481</v>
+        <v>-1231.934003673231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02236161702711625</v>
+        <v>0.05325518118903515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-826.8988572878372</v>
+        <v>3248.665172035727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1525489012207722</v>
+        <v>0.0004256209966161629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3238.670002250523</v>
+        <v>23.69822346758683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004204368302385669</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.62298583913319</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01885907831924696</v>
+        <v>0.005765120285413654</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3805.786087901409</v>
+        <v>3630.013963827629</v>
       </c>
       <c r="C2" t="n">
-        <v>3.700942028922235e-05</v>
+        <v>7.791911274468395e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.20664890062363</v>
+        <v>41.22721999343312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6683546803568379</v>
+        <v>0.3671740764572524</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.2645489454418</v>
+        <v>158.7458864171689</v>
       </c>
       <c r="C4" t="n">
-        <v>4.593993815119757e-06</v>
+        <v>6.243432992801178e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03593874083884956</v>
+        <v>0.0265728396870558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2905645768509323</v>
+        <v>0.4303813451012117</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.283346387622924e-07</v>
+        <v>1.157022550719392e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9334611909692625</v>
+        <v>0.9987797630653248</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.156473351032545</v>
+        <v>-11.53135309852999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3585185881351751</v>
+        <v>0.1855154361612376</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.838598004625586</v>
+        <v>-5.049345440035323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2979165029905043</v>
+        <v>0.2804481773021055</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1283.643885005434</v>
+        <v>-1336.102250232203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03504763641181795</v>
+        <v>0.02916223038758283</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1634.265505923312</v>
+        <v>-1401.256965944706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01825310760708024</v>
+        <v>0.03921700502128546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1011.989608510809</v>
+        <v>3539.401860522737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1060833404056358</v>
+        <v>0.0004714954800540625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3614.442017579481</v>
+        <v>15.36448945765073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003371216988326817</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.8758237543461</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2145356019828795</v>
+        <v>0.1023723412023768</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4087.576151881455</v>
+        <v>3845.075909210896</v>
       </c>
       <c r="C2" t="n">
-        <v>3.390744391779206e-06</v>
+        <v>1.038459654344284e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.35605836518717</v>
+        <v>53.42107200765115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4832873044484757</v>
+        <v>0.2531294626226188</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.5129268134617</v>
+        <v>157.9991420396795</v>
       </c>
       <c r="C4" t="n">
-        <v>6.031354971997666e-07</v>
+        <v>7.924722128092909e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02151611383524428</v>
+        <v>0.01529946967347072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4383678201250802</v>
+        <v>0.5818124848800639</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.992209078496362e-07</v>
+        <v>1.028277793852951e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8943938695350502</v>
+        <v>0.8804152507294689</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.28487689441933</v>
+        <v>-13.11245147340935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2395788303749081</v>
+        <v>0.08829993108485763</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.21709223709404</v>
+        <v>-6.906211157648272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09406852903137074</v>
+        <v>0.1118172807347254</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1114.562510020282</v>
+        <v>-1147.990960761513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0555259811810035</v>
+        <v>0.05058609430152346</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1337.415355237573</v>
+        <v>-1026.238025149899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0368919935267171</v>
+        <v>0.09790389252697304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-997.8416476170256</v>
+        <v>3566.189090228019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0742303265742254</v>
+        <v>0.000485716050763494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3519.007213570024</v>
+        <v>15.30574610579304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005158203498051949</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.5947881217912</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1393949827427368</v>
+        <v>0.07107477183609998</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3287.123452082419</v>
+        <v>3117.346372722726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003336456463282925</v>
+        <v>0.0005616839007610664</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.67870172009098</v>
+        <v>85.29434951860136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09649331774592847</v>
+        <v>0.0492691199108704</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5490447194268</v>
+        <v>170.4230865623534</v>
       </c>
       <c r="C4" t="n">
-        <v>1.167996150619731e-07</v>
+        <v>1.225714388809434e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01428898762516556</v>
+        <v>0.009552117478740796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6215792430038686</v>
+        <v>0.739329166838171</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.28234977473892e-07</v>
+        <v>1.700785479753073e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9734983959172423</v>
+        <v>0.9802810577186705</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.573987582261395</v>
+        <v>-5.123194220583992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7630877017555037</v>
+        <v>0.5361196912768049</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.633826891764867</v>
+        <v>-2.279146539100628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5395225449234791</v>
+        <v>0.5950984757633166</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1282.278310192796</v>
+        <v>-1321.016320781494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04000116743129599</v>
+        <v>0.03448290533395093</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1150.961642420627</v>
+        <v>-966.7003416270536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.087401356007209</v>
+        <v>0.1399054022183578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-723.3121696566325</v>
+        <v>3187.943101278727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2385190041540025</v>
+        <v>0.0007046642258321782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3190.644914799291</v>
+        <v>9.886852893660034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006860463568084566</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.884719727672078</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4052448122355939</v>
+        <v>0.2899893583791093</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4202.331367918237</v>
+        <v>4045.445210200086</v>
       </c>
       <c r="C2" t="n">
-        <v>4.440250911169549e-07</v>
+        <v>1.240723257407046e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.90381285154182</v>
+        <v>32.57584693700207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7108455886837481</v>
+        <v>0.4122290908004964</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.613388323039</v>
+        <v>171.1679277892273</v>
       </c>
       <c r="C4" t="n">
-        <v>6.617864886208155e-09</v>
+        <v>1.374195870879356e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01503848082673079</v>
+        <v>0.009396970213329997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5578261182848726</v>
+        <v>0.7156721879621076</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.191664455900294e-06</v>
+        <v>2.464825436171646e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7277981078857113</v>
+        <v>0.698856737625029</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1728134897639375</v>
+        <v>-4.966378728351987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9817313342353738</v>
+        <v>0.4931669773934315</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.268509014829192</v>
+        <v>-8.144092598443276</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03605900629156431</v>
+        <v>0.04119312640046813</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1609.498495847982</v>
+        <v>-1578.642396456399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003578367428140606</v>
+        <v>0.004687416332521704</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1743.00665995531</v>
+        <v>-1445.52228678597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003952060320614298</v>
+        <v>0.01422717894460666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1143.081452837809</v>
+        <v>2174.244045046995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04774641048141132</v>
+        <v>0.01511492451388499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2217.169146916132</v>
+        <v>16.5553185995025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01226562772810104</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.23475697229077</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1019870219205487</v>
+        <v>0.05834485530871436</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3589.103146345658</v>
+        <v>3372.233728233808</v>
       </c>
       <c r="C2" t="n">
-        <v>1.022920629532198e-05</v>
+        <v>3.244617532619987e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.44205654353971</v>
+        <v>46.36532579442735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.438425000335519</v>
+        <v>0.2346471497066222</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.7584520528188</v>
+        <v>147.5658448044419</v>
       </c>
       <c r="C4" t="n">
-        <v>2.814025247978337e-07</v>
+        <v>4.517790124292269e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03357399263969099</v>
+        <v>0.02522709742473594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2046006003631846</v>
+        <v>0.3396155850786395</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.600518790371912e-07</v>
+        <v>-2.825277288180577e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9420225371863042</v>
+        <v>0.9648034701154791</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.844710796847732</v>
+        <v>-10.38215519287912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4517675671876218</v>
+        <v>0.168631176063869</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.056804974699808</v>
+        <v>-4.194533583610291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2910596110904574</v>
+        <v>0.280816298238446</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1825.953585606541</v>
+        <v>-1894.077146275834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001291644750815239</v>
+        <v>0.0009652427728738044</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2017.480804375</v>
+        <v>-1658.29471208765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00105485222496035</v>
+        <v>0.005070169705859529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1087.556178088423</v>
+        <v>5709.24555211508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04653918308736821</v>
+        <v>1.186437395087735e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5665.169829633483</v>
+        <v>15.42624859195338</v>
       </c>
       <c r="C12" t="n">
-        <v>1.076992305323173e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.34972756635309</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1827640850865976</v>
+        <v>0.06629400648467251</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3641.03104801687</v>
+        <v>3188.59847502096</v>
       </c>
       <c r="C2" t="n">
-        <v>3.137450300131933e-05</v>
+        <v>0.0002241935957917305</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.40104007771836</v>
+        <v>40.90111814018086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8016045742641092</v>
+        <v>0.3111580576957608</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7573473416896</v>
+        <v>165.3096274879465</v>
       </c>
       <c r="C4" t="n">
-        <v>4.320571463729522e-07</v>
+        <v>2.841838469253721e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07475121016362116</v>
+        <v>0.06592054002852413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01894246775780896</v>
+        <v>0.04065225715172344</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.499932955611642e-05</v>
+        <v>-5.293821505396317e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6144584322885951</v>
+        <v>0.8604049597778488</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.685224298319282</v>
+        <v>-12.15705825334827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4159010721806331</v>
+        <v>0.1333014848015617</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.927223772281344</v>
+        <v>-2.449183786210785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.47501046896236</v>
+        <v>0.5574542725691582</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1505.790849518279</v>
+        <v>-1492.078968875503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01694330427491408</v>
+        <v>0.02029816095839538</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2478.869385387499</v>
+        <v>-2015.979971158701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004755150235807381</v>
+        <v>0.003542720087858393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1440.598154542545</v>
+        <v>4521.719736150299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0148559561573453</v>
+        <v>1.654868815198086e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4528.784650680622</v>
+        <v>16.43354464688747</v>
       </c>
       <c r="C12" t="n">
-        <v>1.116737271313258e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.73365106755258</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1882914664673064</v>
+        <v>0.06537069989238958</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5221.045852140438</v>
+        <v>4792.539959540823</v>
       </c>
       <c r="C2" t="n">
-        <v>1.077333196655552e-08</v>
+        <v>9.081173043586294e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-29.89299180612667</v>
+        <v>2.00405263052113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4952952521646496</v>
+        <v>0.962090691105626</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8736907271494</v>
+        <v>162.7231110974704</v>
       </c>
       <c r="C4" t="n">
-        <v>1.986352323905041e-07</v>
+        <v>1.291149432559835e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01430505466305055</v>
+        <v>0.008183224381060492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6158174191208818</v>
+        <v>0.7766367369515759</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.352640053646173e-06</v>
+        <v>1.440633161049329e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8769187151281475</v>
+        <v>0.6098150765411525</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.463260380706924</v>
+        <v>-10.47858130211394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4232915377644049</v>
+        <v>0.1915444025409489</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.54969853571303</v>
+        <v>-12.96241599271683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002329716843537988</v>
+        <v>0.004025230694584722</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1466.564574419026</v>
+        <v>-1509.218315617283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0173968099192091</v>
+        <v>0.01604895834995973</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1906.92350594254</v>
+        <v>-1557.504247475064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00336725253354306</v>
+        <v>0.0146555350475879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1309.836547472989</v>
+        <v>2395.230003238074</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02496163676477707</v>
+        <v>0.01073763350338509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2534.079606343665</v>
+        <v>17.22066929673534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006290723027191769</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.07169643801142</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1235739103248031</v>
+        <v>0.04168696979651179</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3278.784283592217</v>
+        <v>3159.756715141678</v>
       </c>
       <c r="C2" t="n">
-        <v>8.299956514930848e-05</v>
+        <v>0.0001500790530937679</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.74982967037199</v>
+        <v>58.67226997761392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2728201776350221</v>
+        <v>0.1557873264620445</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.7695914575233</v>
+        <v>171.3063647212088</v>
       </c>
       <c r="C4" t="n">
-        <v>2.165584837952966e-08</v>
+        <v>3.261736278572835e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03842005435576061</v>
+        <v>0.03467344063838551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1714589532073747</v>
+        <v>0.2185202280055252</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.77579130406137e-06</v>
+        <v>-2.605960727340872e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6764446910979744</v>
+        <v>0.697200905539034</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.204771558507185</v>
+        <v>-10.78703116931684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.459484504153388</v>
+        <v>0.1771911320985553</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.325354731442971</v>
+        <v>-3.169701696967755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4151146613617344</v>
+        <v>0.4403218985746342</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-881.5657983259296</v>
+        <v>-924.1976659797206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12617483488235</v>
+        <v>0.1111409429277</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1518.570276016254</v>
+        <v>-1227.403109162289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01692343052322233</v>
+        <v>0.0450830612338278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-941.3901515517678</v>
+        <v>3320.081724460459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09984714778884513</v>
+        <v>0.0002943756400527935</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3266.004999231513</v>
+        <v>16.62989037693935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000336980403557649</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.07405908133394</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1250528287289087</v>
+        <v>0.0916933368001886</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2647.347075773947</v>
+        <v>2302.09705183713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002974863195346901</v>
+        <v>0.009075023773021782</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.21210928017636</v>
+        <v>49.1159208601481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5149702589359109</v>
+        <v>0.231156486123558</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0097527363437</v>
+        <v>174.8110873440414</v>
       </c>
       <c r="C4" t="n">
-        <v>1.017340196166902e-08</v>
+        <v>1.512648970788779e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02869495019250932</v>
+        <v>0.01784822086840043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3060204015692939</v>
+        <v>0.5216369578337765</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.612730364394616e-06</v>
+        <v>-2.472804644623751e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6945383035732873</v>
+        <v>0.7136814580096863</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.71605891792331</v>
+        <v>-5.88745904281001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8219308542742579</v>
+        <v>0.4296275361195632</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.582704104201882</v>
+        <v>-1.293646045993272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.703586499780319</v>
+        <v>0.7586963359220712</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1340.941326133753</v>
+        <v>-1350.210670019363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01700009680250128</v>
+        <v>0.01765121768854898</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1687.239901743767</v>
+        <v>-1346.472083463399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01171635143760455</v>
+        <v>0.03935994631183741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1229.177082338974</v>
+        <v>6518.650429621651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04166788947333791</v>
+        <v>3.48623228867256e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6303.906466708854</v>
+        <v>18.28376267343328</v>
       </c>
       <c r="C12" t="n">
-        <v>6.27995886420769e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.99119016887564</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1078017573515754</v>
+        <v>0.03323102662530755</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3656.642552978429</v>
+        <v>3444.204194838609</v>
       </c>
       <c r="C2" t="n">
-        <v>3.88957671597929e-05</v>
+        <v>8.189875167153618e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.74342458002374</v>
+        <v>64.45831805925432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2545437399734677</v>
+        <v>0.1490492565988028</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.8961056029999</v>
+        <v>170.5744004851632</v>
       </c>
       <c r="C4" t="n">
-        <v>1.443087506852729e-06</v>
+        <v>1.412335584850912e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04600180279204881</v>
+        <v>0.03990742999981674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1586041065767303</v>
+        <v>0.2181122705823158</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.543301078498179e-06</v>
+        <v>-1.656537670968731e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280455967250265</v>
+        <v>0.8162726222409288</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.260212206200901</v>
+        <v>-8.26726811675119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5401384398852853</v>
+        <v>0.3215083130264448</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.168338753035349</v>
+        <v>-3.877316288638765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3253335282211196</v>
+        <v>0.3611907492787862</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1250.439095171912</v>
+        <v>-1244.021669583527</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04127159301770657</v>
+        <v>0.04300228836640043</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1870.157532671353</v>
+        <v>-1634.08600519155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006884426983072647</v>
+        <v>0.01471734684634931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-857.3071621672002</v>
+        <v>2886.636131783314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1730686326904007</v>
+        <v>0.003186440739598194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2915.716738111933</v>
+        <v>14.45377303047375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002819181282801544</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.84331777955689</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1949284937488081</v>
+        <v>0.107579196755665</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4291.981223792403</v>
+        <v>4149.179503728683</v>
       </c>
       <c r="C2" t="n">
-        <v>1.996021636381911e-06</v>
+        <v>3.756906301581816e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.75548154291008</v>
+        <v>68.99613798390885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2666487854357419</v>
+        <v>0.1172113321908134</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6791795076117</v>
+        <v>148.4082368603083</v>
       </c>
       <c r="C4" t="n">
-        <v>5.207974038948283e-06</v>
+        <v>7.32181123356694e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02931962989497398</v>
+        <v>0.02464508248763192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3018242020561314</v>
+        <v>0.3835926638818875</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.761977367405283e-07</v>
+        <v>1.143916989160574e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8973130849369086</v>
+        <v>0.8666515381747648</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.891332096657777</v>
+        <v>-12.93884058176647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2270361208517784</v>
+        <v>0.1031002301142639</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.976750958926751</v>
+        <v>-4.829855400471748</v>
       </c>
       <c r="C8" t="n">
-        <v>0.249073114635969</v>
+        <v>0.2648970320932943</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1956.849722240685</v>
+        <v>-1985.138456086512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009665329376119482</v>
+        <v>0.0008495803807458659</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1425.505188373113</v>
+        <v>-1245.488762692833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02651061088631492</v>
+        <v>0.04810336837948893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-789.4934495203237</v>
+        <v>3442.968553453637</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1650733071936922</v>
+        <v>0.0001522488685080057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3472.364474721662</v>
+        <v>6.623411481584704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001283199597519632</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.511712018720374</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6150761122975685</v>
+        <v>0.4558687105228246</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3480.75004217367</v>
+        <v>3320.308121163784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002041976605923663</v>
+        <v>0.0003052961518826572</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.68627120479501</v>
+        <v>54.41700896452924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3537037472809581</v>
+        <v>0.2206379170071545</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.130927701949</v>
+        <v>158.4441064912795</v>
       </c>
       <c r="C4" t="n">
-        <v>1.39907892745636e-06</v>
+        <v>1.12081956694078e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03601021678168445</v>
+        <v>0.03128493766879127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242802516968195</v>
+        <v>0.3035510164261639</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.031881426353051e-05</v>
+        <v>2.831591251645372e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4761419681310831</v>
+        <v>0.2997231603560895</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.073142941360292</v>
+        <v>-7.305489605118298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5535997107928654</v>
+        <v>0.3758557402125123</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.483072648808978</v>
+        <v>-1.987505163271972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5871047496730191</v>
+        <v>0.6616373447076369</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1478.931376821045</v>
+        <v>-1569.890078875731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0223853734575855</v>
+        <v>0.01436719462643411</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1945.236427531478</v>
+        <v>-1799.115599243274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005483284875390434</v>
+        <v>0.00833557044590558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-667.2302066747923</v>
+        <v>3067.327897904855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3358715578711485</v>
+        <v>0.001213891473620642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3156.485106327128</v>
+        <v>13.3552679242525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009382788741319993</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.10699303403871</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2183594222584866</v>
+        <v>0.1709284533212781</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3368.054332777593</v>
+        <v>3226.606218153702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000131407796194493</v>
+        <v>0.0002670029270766756</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.56492257220449</v>
+        <v>41.00426607312158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6024739737740032</v>
+        <v>0.313984310733548</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.014982143407</v>
+        <v>168.9569971557687</v>
       </c>
       <c r="C4" t="n">
-        <v>2.071956639155099e-07</v>
+        <v>2.74653769281445e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01510718199327286</v>
+        <v>0.008488539351240179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6113353443914853</v>
+        <v>0.7762432786083229</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.95087060182221e-07</v>
+        <v>1.131569609266774e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9283676966008625</v>
+        <v>0.865693860503061</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.321073939266412</v>
+        <v>-5.881504225029296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737872721114679</v>
+        <v>0.4669515255122813</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.854915637349003</v>
+        <v>-5.010027630166174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248615095661121</v>
+        <v>0.2391568565354802</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1998.371708542801</v>
+        <v>-1974.389679188726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007303969170889666</v>
+        <v>0.0009530358500698616</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1506.355854990598</v>
+        <v>-1198.24121948595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02472420888227621</v>
+        <v>0.06812555494608892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1139.205566204159</v>
+        <v>4340.284447845792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05170576397988246</v>
+        <v>6.978043544982033e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4412.737473534825</v>
+        <v>18.88542948103374</v>
       </c>
       <c r="C12" t="n">
-        <v>4.515937682093973e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.50978813248508</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06065214945086001</v>
+        <v>0.03254170098989042</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4091.628789395533</v>
+        <v>3866.407539336265</v>
       </c>
       <c r="C2" t="n">
-        <v>4.013632293207036e-06</v>
+        <v>1.169296051561791e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.60476418759978</v>
+        <v>49.78052709703725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5100869023902084</v>
+        <v>0.2765016510993749</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.1085532810354</v>
+        <v>136.1785783622129</v>
       </c>
       <c r="C4" t="n">
-        <v>2.528462610336825e-05</v>
+        <v>3.310788103962179e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03311559686136945</v>
+        <v>0.02436191548001009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2530846861009008</v>
+        <v>0.3976830516423459</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.362318690826215e-08</v>
+        <v>4.191957871765481e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9927820677830825</v>
+        <v>0.9528948142335466</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.81696546354568</v>
+        <v>-15.16660672835729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1923994632007173</v>
+        <v>0.05953457276524647</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.256086786392707</v>
+        <v>-5.313375440509297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2257856825658125</v>
+        <v>0.2250778125789046</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1407.096097670493</v>
+        <v>-1444.872381083842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02088726840033562</v>
+        <v>0.01874139808433103</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1548.025184260314</v>
+        <v>-1201.934637054847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02559066949551124</v>
+        <v>0.07286153338259663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1040.090243013045</v>
+        <v>3612.150252005482</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07057495222504974</v>
+        <v>0.0001970758193180548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3604.730828416487</v>
+        <v>15.30111304396033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001785144135517152</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.40713154813788</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2216703840746917</v>
+        <v>0.09603482079846003</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4359.143989741881</v>
+        <v>4052.199176478909</v>
       </c>
       <c r="C2" t="n">
-        <v>3.110346933915986e-07</v>
+        <v>1.653686259020505e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.1124991863569</v>
+        <v>35.86293413180121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7948284415189384</v>
+        <v>0.391956956014166</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.3314782323991</v>
+        <v>175.4371576380774</v>
       </c>
       <c r="C4" t="n">
-        <v>1.156366500784177e-08</v>
+        <v>1.464579395736843e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04182526062029603</v>
+        <v>0.03339667368736556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1706153314170918</v>
+        <v>0.2765918587442985</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.10462905531657e-07</v>
+        <v>7.319114366954514e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9164134828625652</v>
+        <v>0.9151859575577269</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.924052045421359</v>
+        <v>-12.98690446282426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3108399049878055</v>
+        <v>0.08789578779454432</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.165967450199568</v>
+        <v>-8.077549329918224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05312756932679753</v>
+        <v>0.05940647265408095</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1492.67481062042</v>
+        <v>-1535.611061458005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01277172492718298</v>
+        <v>0.01160107457146071</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1646.048222128926</v>
+        <v>-1265.912295439419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01098651019961978</v>
+        <v>0.04421483070215344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1294.331975879391</v>
+        <v>3137.105378216763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03019813209475803</v>
+        <v>0.002438425928552741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2998.534832877504</v>
+        <v>14.06446151382093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00330186903828826</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.893595547801311</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2611500979534873</v>
+        <v>0.107929972033865</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3584.861442348615</v>
+        <v>3261.748711436301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001112095529537881</v>
+        <v>0.0003901504743058516</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.79998977004567</v>
+        <v>62.60710648104833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4738027915004339</v>
+        <v>0.1705735538716617</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4733063497379</v>
+        <v>164.2893009964823</v>
       </c>
       <c r="C4" t="n">
-        <v>1.786644897692883e-06</v>
+        <v>2.081389923407162e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04157288148514429</v>
+        <v>0.03268705501355769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211976363347447</v>
+        <v>0.3276197941852249</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.60363120476762e-07</v>
+        <v>-5.55846416446148e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8934128254344561</v>
+        <v>0.9389295655918324</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.882968667015163</v>
+        <v>-8.714540958297167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5847888537480161</v>
+        <v>0.3251287604366352</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.477359957909947</v>
+        <v>-4.189505545179522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3133325019190845</v>
+        <v>0.3511035097972701</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1054.262453163145</v>
+        <v>-1086.819003254851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08016180767258137</v>
+        <v>0.07481001874829095</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1752.080394287891</v>
+        <v>-1403.378840464847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01186898359002485</v>
+        <v>0.03896810295891111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1245.29269872025</v>
+        <v>3410.322721468858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04435635268116078</v>
+        <v>0.0004877596096352255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3457.038477004053</v>
+        <v>16.43190504392479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003523578770972667</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.95682957979493</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1529004160999386</v>
+        <v>0.06896444537620672</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3421.369188907212</v>
+        <v>3121.592574301108</v>
       </c>
       <c r="C2" t="n">
-        <v>9.000693971602418e-05</v>
+        <v>0.000257704286933481</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.30390600978511</v>
+        <v>78.17237103163606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1826258617966807</v>
+        <v>0.05903760447375432</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.897984270137</v>
+        <v>187.3812531297371</v>
       </c>
       <c r="C4" t="n">
-        <v>7.399116733741522e-09</v>
+        <v>9.56391964308915e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02891107998634944</v>
+        <v>0.02605207170496562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2744515928115163</v>
+        <v>0.3265177763196264</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.257604873744174e-07</v>
+        <v>-1.047332031619611e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8865640938725687</v>
+        <v>0.8725995010929061</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.302931360116506</v>
+        <v>-6.509140800499253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6825937944901469</v>
+        <v>0.4092382329377705</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.146559965223452</v>
+        <v>-3.61554492467234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3036468522872131</v>
+        <v>0.3709880583213424</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-848.9610133519388</v>
+        <v>-806.8616861849152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1258971300215841</v>
+        <v>0.147721179038615</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1585.625581268391</v>
+        <v>-1329.550515676928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01057186824447983</v>
+        <v>0.02690336571308133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-891.4266103644479</v>
+        <v>2963.583338608724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1084209593686338</v>
+        <v>0.001007292137194614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2952.403816196916</v>
+        <v>14.11520106745766</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009798855746378943</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.17225050691372</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.193753508329168</v>
+        <v>0.09572394978632394</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3660.413260537437</v>
+        <v>3405.817606187817</v>
       </c>
       <c r="C2" t="n">
-        <v>4.834444437394961e-05</v>
+        <v>0.000130590267654099</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.26131114882691</v>
+        <v>66.21216206872899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3070932151647929</v>
+        <v>0.133908073061296</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.725871481377</v>
+        <v>166.1299539412496</v>
       </c>
       <c r="C4" t="n">
-        <v>1.072513750377192e-06</v>
+        <v>7.534696184780162e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04021526192611997</v>
+        <v>0.03057461716305533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2170481392995291</v>
+        <v>0.3435212581787414</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.793215205063587e-06</v>
+        <v>-2.743511031720268e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6918522003990784</v>
+        <v>0.6992348781037557</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.499291637898351</v>
+        <v>-9.204418656686521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5063093882939127</v>
+        <v>0.2531926591974693</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.837929319874668</v>
+        <v>-2.744266974793966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5032339090343823</v>
+        <v>0.5205340178465789</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1163.271957327344</v>
+        <v>-1134.526112422057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05573322600506275</v>
+        <v>0.06382293888851551</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1916.52698013037</v>
+        <v>-1550.121452296672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006021318523704824</v>
+        <v>0.01965275142551975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1053.482337639302</v>
+        <v>3465.140396074079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09180196258267039</v>
+        <v>0.001164019922247959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3507.433021911224</v>
+        <v>11.64480120307642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009397271477670658</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.576425489637387</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3660884872861031</v>
+        <v>0.2153700113255049</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3531.217564706188</v>
+        <v>3461.194041604158</v>
       </c>
       <c r="C2" t="n">
-        <v>9.781391892923966e-05</v>
+        <v>0.0001251909530975825</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.0400022106705</v>
+        <v>47.55965007212089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4581225674272696</v>
+        <v>0.2966903206058387</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9040565429975</v>
+        <v>197.2897950145164</v>
       </c>
       <c r="C4" t="n">
-        <v>9.332663734624945e-09</v>
+        <v>1.228388967390065e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006816903154410747</v>
+        <v>0.002151787256900017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8111106677670892</v>
+        <v>0.9390341934758836</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.80857961211922e-05</v>
+        <v>4.40967100880936e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.161799785153294</v>
+        <v>0.09716073928663196</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.644875744317789</v>
+        <v>-6.342861983706112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6644872049955327</v>
+        <v>0.4257363577078225</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.78195332979999</v>
+        <v>-3.455844630932035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3763364803299118</v>
+        <v>0.4173668348632769</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1513.888349963311</v>
+        <v>-1622.590776575807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01761974761825672</v>
+        <v>0.009945051429952662</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1036.896683711455</v>
+        <v>-920.876388335101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117878710687272</v>
+        <v>0.157877222971312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-750.1818714955443</v>
+        <v>2523.338723696701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3194316121364477</v>
+        <v>0.007255009157300779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2635.131552709131</v>
+        <v>7.286764952732796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005433325419056995</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.425047951379913</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5070515726269604</v>
+        <v>0.4500991519788093</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4366.265023361479</v>
+        <v>3882.011436599403</v>
       </c>
       <c r="C2" t="n">
-        <v>1.957039910850254e-07</v>
+        <v>2.701380692248413e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.76432581216105</v>
+        <v>46.02741196486141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7600557285314324</v>
+        <v>0.2609495433828862</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.34817727929</v>
+        <v>152.9770324199954</v>
       </c>
       <c r="C4" t="n">
-        <v>1.124310940515029e-07</v>
+        <v>1.557580690598792e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05415177614339345</v>
+        <v>0.04647137598183382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03679547546087014</v>
+        <v>0.07756715176721662</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.527509548076201e-06</v>
+        <v>4.34711818606289e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4684129202759576</v>
+        <v>0.4966827080721127</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.2820352874867</v>
+        <v>-13.96287871303735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1954151703511265</v>
+        <v>0.0507797751922104</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.20588037402698</v>
+        <v>-10.39422260203139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006463904418017609</v>
+        <v>0.01315169302482014</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1484.0947353601</v>
+        <v>-1369.855910392755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007961836770194613</v>
+        <v>0.01617862984893985</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2088.592926923379</v>
+        <v>-1686.573986177667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004529095465246472</v>
+        <v>0.003879338569205693</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1390.873387286636</v>
+        <v>4657.754529308715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008828222176275284</v>
+        <v>1.62094566516316e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4614.052526737676</v>
+        <v>21.57579942006421</v>
       </c>
       <c r="C12" t="n">
-        <v>1.18709011600998e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.0137314864885</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03372538694116823</v>
+        <v>0.007410546305420897</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3389.612669816662</v>
+        <v>3182.58869180664</v>
       </c>
       <c r="C2" t="n">
-        <v>7.628238164523504e-05</v>
+        <v>0.0001878137757011419</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.43975587487431</v>
+        <v>72.67815412978905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1737714855086535</v>
+        <v>0.0818654363398279</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.7249474360788</v>
+        <v>154.5304970828483</v>
       </c>
       <c r="C4" t="n">
-        <v>4.980216559773406e-07</v>
+        <v>6.185480538261193e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02293191163197242</v>
+        <v>0.01882419139822789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4065220677890143</v>
+        <v>0.4975098354738391</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.844180339642449e-06</v>
+        <v>-2.640754023421536e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6748595098829927</v>
+        <v>0.699268564139316</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.147222062492423</v>
+        <v>-10.5706205537767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4550691807507595</v>
+        <v>0.1819736587266646</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.877158884212099</v>
+        <v>-2.845631926670336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4886881415424971</v>
+        <v>0.4970596356160064</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1905.802335182726</v>
+        <v>-1945.020360691853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001992199650208607</v>
+        <v>0.001749590739375293</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1182.750665738811</v>
+        <v>-898.3200774555812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06694891263321578</v>
+        <v>0.1527603495683336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-964.6155035225202</v>
+        <v>3029.695170665529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08063357689561353</v>
+        <v>0.0017283733298759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2956.232470052848</v>
+        <v>19.95582361878208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002058818464977429</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.6006379902173</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06587411725634232</v>
+        <v>0.02530308540923067</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4093.722858386213</v>
+        <v>3885.086942432798</v>
       </c>
       <c r="C2" t="n">
-        <v>7.539650798898257e-06</v>
+        <v>1.855270564616292e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.51479594539344</v>
+        <v>29.40950755019142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7671677922804218</v>
+        <v>0.476696477477251</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.3204445101587</v>
+        <v>155.2200764523872</v>
       </c>
       <c r="C4" t="n">
-        <v>2.795072668258334e-06</v>
+        <v>3.246774460417894e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0160021123115026</v>
+        <v>0.01068067216351909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6127949612192259</v>
+        <v>0.7358737369744663</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.863923016059124e-07</v>
+        <v>7.408673382104215e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9444783543086887</v>
+        <v>0.9160809426133191</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.823492371545933</v>
+        <v>-9.20684371427307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5096787227900075</v>
+        <v>0.2878339388457805</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.66846251592083</v>
+        <v>-5.537350397712178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1998245709593967</v>
+        <v>0.2134104751842705</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1388.545091007274</v>
+        <v>-1412.328596281581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0135429136096914</v>
+        <v>0.01261001119127831</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1818.415837416863</v>
+        <v>-1564.956709003166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01005251111321172</v>
+        <v>0.02365600885889402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-923.0259486417867</v>
+        <v>3233.769847200695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1009439906903452</v>
+        <v>0.0006309990012282781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3238.131239390876</v>
+        <v>14.46067862050836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005725172276520526</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.67327997475153</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1921345869969166</v>
+        <v>0.1028749351474177</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4893.978474628484</v>
+        <v>4745.560182326874</v>
       </c>
       <c r="C2" t="n">
-        <v>4.004395186678682e-07</v>
+        <v>7.559489291132672e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.88595090666489</v>
+        <v>-0.003601018442552117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8021042466655876</v>
+        <v>0.999932964829063</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1968631751581</v>
+        <v>161.0945441671634</v>
       </c>
       <c r="C4" t="n">
-        <v>4.312969418856995e-07</v>
+        <v>4.050782212829559e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01871893467520487</v>
+        <v>0.01205401052200404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5116744662504007</v>
+        <v>0.6690422635785083</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.733575049337465e-06</v>
+        <v>6.672377719666271e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3506241454296027</v>
+        <v>0.3567371675302924</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.52397143079933</v>
+        <v>-11.57687738442085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2709687218025515</v>
+        <v>0.1208298255261555</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.8613868594669</v>
+        <v>-12.52043476068913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007041520120848191</v>
+        <v>0.008793530377197151</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1449.267765284012</v>
+        <v>-1446.04575836502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01018174054163309</v>
+        <v>0.0106114632694101</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1437.092319737596</v>
+        <v>-1185.677420811153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02779272379511422</v>
+        <v>0.05870518884348325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-918.2811929364887</v>
+        <v>2634.250096694252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.170048522245232</v>
+        <v>0.005679700394359035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2689.608454261627</v>
+        <v>15.48681858544396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004668011294255425</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.0710858352201</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1459844381211738</v>
+        <v>0.1091485516270617</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3699.252748515492</v>
+        <v>3472.077443772419</v>
       </c>
       <c r="C2" t="n">
-        <v>2.088973377273397e-06</v>
+        <v>6.781281917107094e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.92018457626898</v>
+        <v>70.01497985292215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2007022483059092</v>
+        <v>0.07844967414814077</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.9731566145462</v>
+        <v>178.3137693345198</v>
       </c>
       <c r="C4" t="n">
-        <v>1.245435228040358e-09</v>
+        <v>1.540418954467798e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05076338570314258</v>
+        <v>0.04538548422485367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05804782237312071</v>
+        <v>0.09056253509674789</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.512321773733728e-06</v>
+        <v>-2.314426700183842e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6830993819328434</v>
+        <v>0.7093363414063345</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.421897223461045</v>
+        <v>-11.8502262422191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2477263679724955</v>
+        <v>0.09593123230777013</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.365823773817156</v>
+        <v>-4.179693785600154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2405351575084787</v>
+        <v>0.2652026114377262</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1243.913853469782</v>
+        <v>-1284.930681242545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01737890681544701</v>
+        <v>0.01485375669327262</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1885.986978031396</v>
+        <v>-1607.135856425203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003116021965702863</v>
+        <v>0.009682234578062054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-923.1317311258388</v>
+        <v>2632.762838126121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07308985750866411</v>
+        <v>0.002099993726312852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2690.691206646808</v>
+        <v>16.35170824856614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001547548880965258</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.28868974030237</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1088261189063551</v>
+        <v>0.04632914624311877</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3903.305136440997</v>
+        <v>3730.33445080974</v>
       </c>
       <c r="C2" t="n">
-        <v>1.439987513016167e-05</v>
+        <v>2.734479472432485e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.47836670160673</v>
+        <v>63.13592507054928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2844928818305781</v>
+        <v>0.1521588794675049</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.0991096389532</v>
+        <v>162.7623145275614</v>
       </c>
       <c r="C4" t="n">
-        <v>3.544406133625763e-06</v>
+        <v>3.892478599940614e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03331599315279035</v>
+        <v>0.0289211882212689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3053056934264535</v>
+        <v>0.3720793519331652</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.352555130005019e-05</v>
+        <v>2.066083754025976e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6527528940227558</v>
+        <v>0.4861344370957384</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.141982304311338</v>
+        <v>-8.870278298839118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5649218572574951</v>
+        <v>0.2969769177665374</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.735053078938304</v>
+        <v>-2.356256519397371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5250623093742161</v>
+        <v>0.5841655681392058</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1480.337160348233</v>
+        <v>-1617.8288091009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03047813002209506</v>
+        <v>0.01721380232038996</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1968.506621233986</v>
+        <v>-1736.988218933279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00485556859480077</v>
+        <v>0.01012291792940432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-805.4204036450569</v>
+        <v>2992.907544746909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1920411732931711</v>
+        <v>0.001676303602593645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2976.568158336199</v>
+        <v>6.734337686713666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001725750670484643</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.812196254289397</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6049265343446119</v>
+        <v>0.4649951012945185</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3795.119045926759</v>
+        <v>3557.708845234702</v>
       </c>
       <c r="C2" t="n">
-        <v>2.622059439106749e-05</v>
+        <v>7.856689854018003e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.94434788534903</v>
+        <v>53.32141629836988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.514015805036881</v>
+        <v>0.2176895858246355</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.8679927688239</v>
+        <v>161.3826190929697</v>
       </c>
       <c r="C4" t="n">
-        <v>5.753184356934868e-07</v>
+        <v>8.06782549863943e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0177004584359478</v>
+        <v>0.01182357068771938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312949196591394</v>
+        <v>0.6776922127308815</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.241390051853031e-07</v>
+        <v>-2.97104101070582e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9044679428674951</v>
+        <v>0.9658748565215495</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.411048511990345</v>
+        <v>-11.12943796557776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4444886796161107</v>
+        <v>0.1727943560701895</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.18124747303381</v>
+        <v>-4.299018662052004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3243524734623948</v>
+        <v>0.3167062535907542</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1322.769297024302</v>
+        <v>-1320.972662653293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02454982665544476</v>
+        <v>0.02646657024731364</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1265.882259686585</v>
+        <v>-1002.666589573901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05091489841411772</v>
+        <v>0.1175456410313066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1163.820434048331</v>
+        <v>4226.040884903564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04708663135951659</v>
+        <v>6.299020923563541e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4075.419927661007</v>
+        <v>10.65121666139545</v>
       </c>
       <c r="C12" t="n">
-        <v>9.617728348911362e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.076795351439028</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4381500617640358</v>
+        <v>0.2404268832076582</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3534.300745044396</v>
+        <v>3298.630800237111</v>
       </c>
       <c r="C2" t="n">
-        <v>5.666186932046706e-05</v>
+        <v>0.0001093356242443696</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.25177974374277</v>
+        <v>66.60305750725765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2420945561280146</v>
+        <v>0.1031283929108901</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.7893500216612</v>
+        <v>185.5010460684299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.294045778431447e-08</v>
+        <v>1.188063579608622e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05575814357622491</v>
+        <v>0.05271205703577421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04806946159327244</v>
+        <v>0.06078087513009045</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.686657059201415e-06</v>
+        <v>-2.792554933494762e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6871435647713044</v>
+        <v>0.6759965428975354</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.003531276050616</v>
+        <v>-10.32147898148284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2935684934081012</v>
+        <v>0.1625522283478326</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.429373681360968</v>
+        <v>-4.040315392043013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2834659639065515</v>
+        <v>0.3269902247904286</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1324.642624002845</v>
+        <v>-1283.64667476768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0192527332592052</v>
+        <v>0.02318617433216336</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1711.234124439669</v>
+        <v>-1540.603908982026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008972284934896635</v>
+        <v>0.01578263333569328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-657.0795278942844</v>
+        <v>2731.779889042628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2353232023427393</v>
+        <v>0.006959984742994418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2697.269209276721</v>
+        <v>17.62360686370701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007617175954140611</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.1695172553462</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0934170491484051</v>
+        <v>0.04610512148382297</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2899.909938750385</v>
+        <v>2524.284533776659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009943230447107536</v>
+        <v>0.003637506803839195</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.19176402664921</v>
+        <v>67.0299473892007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4111233662998676</v>
+        <v>0.1241915638022397</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.6988117483489</v>
+        <v>165.1867256230662</v>
       </c>
       <c r="C4" t="n">
-        <v>1.419491035377068e-07</v>
+        <v>1.814927457923241e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04367172000477774</v>
+        <v>0.03491776458671477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1382831828583971</v>
+        <v>0.2364240875930698</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.738715260724395e-07</v>
+        <v>-8.61354602424041e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8838635990793122</v>
+        <v>0.8985298434240663</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9485874310084359</v>
+        <v>-4.594407711654558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9113738492010488</v>
+        <v>0.5867766241465128</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.087207811440141</v>
+        <v>-2.739972873486842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4688371224231707</v>
+        <v>0.5253133878958534</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1752.186206898887</v>
+        <v>-1642.044914119201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004598258220978813</v>
+        <v>0.008354392836969945</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1966.535818043148</v>
+        <v>-1612.926545842839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003091561749953076</v>
+        <v>0.01260951136316408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1217.770601750994</v>
+        <v>4925.006668460126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04020373510376662</v>
+        <v>2.869147964399783e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5052.031208914246</v>
+        <v>22.75718845095926</v>
       </c>
       <c r="C12" t="n">
-        <v>1.313557862877579e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.38906302232169</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03262277354781379</v>
+        <v>0.007372676852609671</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3276.77296280204</v>
+        <v>3056.046600127119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002292867544900101</v>
+        <v>0.0004303073786252617</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.68843806757805</v>
+        <v>96.10830475807546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08450914130282125</v>
+        <v>0.03329377624151898</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.9880594667586</v>
+        <v>174.5584433680708</v>
       </c>
       <c r="C4" t="n">
-        <v>2.291480930498026e-07</v>
+        <v>2.509820571413895e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05117960399667217</v>
+        <v>0.04866469860803726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09012962012286482</v>
+        <v>0.1066192795155877</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.548564621434436e-06</v>
+        <v>-2.809717936323553e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7125424112498273</v>
+        <v>0.6849827331085059</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.47395823729353</v>
+        <v>-8.570377091558793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4289356120110819</v>
+        <v>0.2849808036252516</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.597270725676582</v>
+        <v>-3.147735636789138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3807980977340568</v>
+        <v>0.441828552651613</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-780.1798938233037</v>
+        <v>-775.7263429313989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1778329291173068</v>
+        <v>0.1810329877701524</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1678.088142404692</v>
+        <v>-1540.35446066531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01720524511471127</v>
+        <v>0.02660871450908261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-709.2763963330872</v>
+        <v>2688.216169999922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233713687521938</v>
+        <v>0.004113523371721898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2742.21561473841</v>
+        <v>15.6703360257816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003432404026547229</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.2371324165113</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1545544332999928</v>
+        <v>0.08517685648085396</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2520.143751648121</v>
+        <v>2310.987132152593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003753962190607456</v>
+        <v>0.006795977761261498</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.35431009931628</v>
+        <v>26.87956335710364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7184630723217564</v>
+        <v>0.4876354375555076</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.2444043978246</v>
+        <v>182.3463361297379</v>
       </c>
       <c r="C4" t="n">
-        <v>8.259272382342889e-09</v>
+        <v>4.695758520237354e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04130725529398861</v>
+        <v>0.03634887195792944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168630440141813</v>
+        <v>0.2226529295774575</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.074167136868043e-06</v>
+        <v>-1.060957010098928e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8671279656809792</v>
+        <v>0.8690869265371364</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.373893359080114</v>
+        <v>-4.937051143245505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7547031014605439</v>
+        <v>0.5020272809885615</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.581643194936358</v>
+        <v>-2.421727388982504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5205875765504848</v>
+        <v>0.5475565844190992</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1801.613705426345</v>
+        <v>-1799.224762790905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00077807000621763</v>
+        <v>0.0008125941304907438</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1769.726664405162</v>
+        <v>-1546.500716302759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003760639588638266</v>
+        <v>0.008123725110743408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-748.1234526969574</v>
+        <v>6848.498213316566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2013664368344615</v>
+        <v>8.064344054007648e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6717.910488386521</v>
+        <v>20.92440466337474</v>
       </c>
       <c r="C12" t="n">
-        <v>1.267046760732671e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.85132434854914</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03197283975635843</v>
+        <v>0.01592583219568672</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3824.808722804954</v>
+        <v>3515.790132701592</v>
       </c>
       <c r="C2" t="n">
-        <v>2.550948750434442e-05</v>
+        <v>0.0001138362581002095</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.79948798340364</v>
+        <v>47.29360338360296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6735510726206888</v>
+        <v>0.2824894323220711</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.4169799127306</v>
+        <v>162.9818593070065</v>
       </c>
       <c r="C4" t="n">
-        <v>1.273031363615766e-06</v>
+        <v>9.965990979223508e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04484796390747316</v>
+        <v>0.03216185725100929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1266789178268053</v>
+        <v>0.2739487087832537</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.185164757405525e-05</v>
+        <v>3.714105336194779e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4318120094429077</v>
+        <v>0.1796891040722229</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.008969056077748</v>
+        <v>-11.24801864609856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.557908956801927</v>
+        <v>0.177526925461421</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.62293051342475</v>
+        <v>-4.838593763218622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2964049918624156</v>
+        <v>0.2838663264319732</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1948.064507199823</v>
+        <v>-2097.814889632066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003564348638263427</v>
+        <v>0.002037708811458234</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1924.126208130476</v>
+        <v>-1446.486225631627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003296723506696628</v>
+        <v>0.02197560931555975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1485.200087534706</v>
+        <v>3319.87940438857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01618124317304663</v>
+        <v>0.0005266874727296025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3364.387657008105</v>
+        <v>17.01776374639026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003489232814300837</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.45107571932613</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1571382026900028</v>
+        <v>0.05310007767224952</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4673.09838061262</v>
+        <v>4470.149602631745</v>
       </c>
       <c r="C2" t="n">
-        <v>1.608657580974227e-07</v>
+        <v>4.627505806177174e-07</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.453896161698367</v>
+        <v>21.55302935503204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9350213545161703</v>
+        <v>0.6032287410918915</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2936296690496</v>
+        <v>161.7666001728667</v>
       </c>
       <c r="C4" t="n">
-        <v>2.117697030311626e-07</v>
+        <v>4.136315358131503e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02048419612336293</v>
+        <v>0.01460370639159742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4466124210037938</v>
+        <v>0.5874332682103326</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.014249130745965e-06</v>
+        <v>1.955502353800735e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7692616393836662</v>
+        <v>0.7776339180160324</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.455907923051962</v>
+        <v>-13.35039699260546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2175241522023929</v>
+        <v>0.07227155332122062</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.356721573568576</v>
+        <v>-7.861645893160693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06441230304917789</v>
+        <v>0.08360206482401732</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1357.834345744097</v>
+        <v>-1409.359562913283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01631388664574267</v>
+        <v>0.01336438244665703</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1489.689074034395</v>
+        <v>-1246.398272546644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02187374765759957</v>
+        <v>0.05076193196242811</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-985.4743526960378</v>
+        <v>3049.983141213808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08024958404322985</v>
+        <v>0.0005829195961867116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3023.011894220573</v>
+        <v>9.50089879568414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005887063950818598</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.930035429945534</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4445920422632624</v>
+        <v>0.2928210003963598</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3771.405596309236</v>
+        <v>3585.061785982064</v>
       </c>
       <c r="C2" t="n">
-        <v>1.779135086649438e-05</v>
+        <v>3.989963092764837e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.91593142557372</v>
+        <v>64.59524607981319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295907650333033</v>
+        <v>0.1405849466035978</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.4017777048856</v>
+        <v>157.8810000916214</v>
       </c>
       <c r="C4" t="n">
-        <v>3.673533767283334e-07</v>
+        <v>5.223473242441648e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01100217059474942</v>
+        <v>0.006094054538321098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7117568074092187</v>
+        <v>0.8379123017568153</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.975745823477739e-07</v>
+        <v>1.136661337432013e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9771996818457267</v>
+        <v>0.9869561794174313</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.752521650329578</v>
+        <v>-8.648334291657292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5924402759476659</v>
+        <v>0.3143882127914067</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.75853915099581</v>
+        <v>-4.540338816442192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2660144109986987</v>
+        <v>0.2911246748118027</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1507.771187935742</v>
+        <v>-1502.177689897645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01859817418246259</v>
+        <v>0.01974107955695922</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1506.417355324463</v>
+        <v>-1236.186597929644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0295880056785741</v>
+        <v>0.06620306619325524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-952.098180064385</v>
+        <v>3294.335754844506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1144517074529869</v>
+        <v>0.0005426943398124228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3346.731998201901</v>
+        <v>14.24062896829161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004175584142393939</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.81580108765401</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.193811441996273</v>
+        <v>0.1148815232398343</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3774.527045884848</v>
+        <v>3560.157211144174</v>
       </c>
       <c r="C2" t="n">
-        <v>1.557380507872014e-05</v>
+        <v>4.134709950387612e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.22235947653004</v>
+        <v>79.06076830922393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1975673216002617</v>
+        <v>0.07946764597345017</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.2336272900362</v>
+        <v>169.0874846497333</v>
       </c>
       <c r="C4" t="n">
-        <v>4.639640514610706e-07</v>
+        <v>4.983482287134567e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02914258291992222</v>
+        <v>0.02237357202782285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.29058217199442</v>
+        <v>0.4161875135703186</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.235797071834287e-06</v>
+        <v>1.54444525665804e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8534588494969756</v>
+        <v>0.8189278638832755</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.807748602367646</v>
+        <v>-9.887162877680355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4779903161249681</v>
+        <v>0.2129519790592607</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.525947228277595</v>
+        <v>-5.598486097266908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1867067947745376</v>
+        <v>0.1847468869964258</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1210.030142457554</v>
+        <v>-1205.356424319564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0401961950571135</v>
+        <v>0.04268047813286443</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1896.947190640652</v>
+        <v>-1591.820086674357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003817061319909353</v>
+        <v>0.01211541901247936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1044.133967555054</v>
+        <v>4747.572424744521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07860765047726828</v>
+        <v>8.66890970722978e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4763.942151881676</v>
+        <v>11.29730932218778</v>
       </c>
       <c r="C12" t="n">
-        <v>6.91874089559198e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.903167570676111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3907984035423302</v>
+        <v>0.2144238149363545</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3999.57584468913</v>
+        <v>3852.228982240404</v>
       </c>
       <c r="C2" t="n">
-        <v>2.636758747064036e-06</v>
+        <v>4.887553896256218e-06</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.39969769203756</v>
+        <v>28.93993589456797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.683062453337227</v>
+        <v>0.4888950824458352</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.0326773360215</v>
+        <v>165.4962969076595</v>
       </c>
       <c r="C4" t="n">
-        <v>1.670445604834299e-08</v>
+        <v>1.947218048308811e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04266350324335878</v>
+        <v>0.03599404853769844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1629560107966872</v>
+        <v>0.2331486576842527</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.570458778593346e-06</v>
+        <v>1.508534975778871e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8121652932405511</v>
+        <v>0.8199248080895418</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.701218699055641</v>
+        <v>-11.67371035881612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2714949540906821</v>
+        <v>0.1250291337014569</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.266411412557879</v>
+        <v>-8.031708631906927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05107012678551291</v>
+        <v>0.05835691178951048</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1100.656394057791</v>
+        <v>-1072.628880141674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04519247220233855</v>
+        <v>0.05129725377082187</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1362.289100370089</v>
+        <v>-1131.645711631443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04336365133391588</v>
+        <v>0.08185396812370914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-824.8772376910615</v>
+        <v>2643.818469963638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1965569690534565</v>
+        <v>0.003209106245975506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2687.387746321084</v>
+        <v>17.38001149699095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002706507613592496</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.57776986922725</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07008377769442095</v>
+        <v>0.04144478910644517</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3924.869084123397</v>
+        <v>3646.040282101187</v>
       </c>
       <c r="C2" t="n">
-        <v>1.347640238215697e-05</v>
+        <v>4.992647082609719e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.160050157506923</v>
+        <v>32.16695938546813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8881256748674742</v>
+        <v>0.4509439314363264</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.6066549114051</v>
+        <v>171.8105585336326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.506483992565047e-07</v>
+        <v>2.720072376333036e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02022618688969879</v>
+        <v>0.01236449729737334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4965480285411752</v>
+        <v>0.679347424056161</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.287033449968554e-06</v>
+        <v>-1.24843080795543e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8507410981730235</v>
+        <v>0.8571594193984187</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.083475727767144</v>
+        <v>-6.898856816481917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8035517596804449</v>
+        <v>0.3993223395141472</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.971419969532331</v>
+        <v>-3.896237205258025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3339213213392069</v>
+        <v>0.3498253951145041</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1601.977852648893</v>
+        <v>-1539.774105034096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006862857120922708</v>
+        <v>0.01018151408754582</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1470.813228655089</v>
+        <v>-1159.325661599754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02877263332948636</v>
+        <v>0.08030878983631735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1205.756101752718</v>
+        <v>2653.68463658923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03592637614181136</v>
+        <v>0.004715605713326518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2640.738283618329</v>
+        <v>10.98447668555652</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004365646078852613</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.78905481677451</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.458153543111796</v>
+        <v>0.2261836975006617</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3344.036366642801</v>
+        <v>3052.251928408271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001944919113798417</v>
+        <v>0.0005531814435265787</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56562230346753</v>
+        <v>39.81587853459669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6396125891344</v>
+        <v>0.325445800510055</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.5978517378233</v>
+        <v>149.2477315352612</v>
       </c>
       <c r="C4" t="n">
-        <v>4.213378572356861e-06</v>
+        <v>2.814303868856156e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02823748195177685</v>
+        <v>0.02308105865463891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3148222924370704</v>
+        <v>0.4120470121725757</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.152819299350532e-05</v>
+        <v>4.144754722937854e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2212389608352944</v>
+        <v>0.1025121607668605</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.95483129057817</v>
+        <v>-15.32636424158909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1301864953531683</v>
+        <v>0.04766572163554723</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.638339012682295</v>
+        <v>-2.038314613439663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5487103271954166</v>
+        <v>0.6446533579029374</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2184.492080046483</v>
+        <v>-2280.400913126316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002021156204457888</v>
+        <v>0.0001137508567036637</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1459.251050514998</v>
+        <v>-1210.71798537667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01734913000319128</v>
+        <v>0.04312968758357669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-932.7930765220955</v>
+        <v>3530.052977870678</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08574668420467368</v>
+        <v>6.750834579206125e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3587.638707464622</v>
+        <v>26.4949429706594</v>
       </c>
       <c r="C12" t="n">
-        <v>4.657396224046147e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.8843541204119</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.006541248380647851</v>
+        <v>0.002457044334570229</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3542.336616745516</v>
+        <v>3309.429652532791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001084588211939627</v>
+        <v>0.0002621154007636942</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.61958007744227</v>
+        <v>86.22910314256384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1702301067230227</v>
+        <v>0.06461757526402659</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3483552675919</v>
+        <v>171.871141462055</v>
       </c>
       <c r="C4" t="n">
-        <v>1.318250632616009e-06</v>
+        <v>1.243618217994088e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01344615470968651</v>
+        <v>0.005834987686972923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6590367534687305</v>
+        <v>0.8474375150579143</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.821270829453939e-05</v>
+        <v>3.906264926112799e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3013673089818917</v>
+        <v>0.1441278326422968</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.256647292311698</v>
+        <v>-7.411675140185736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7138070800242025</v>
+        <v>0.3882342745247771</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.063215836788778</v>
+        <v>-5.020191343563315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2623516722104776</v>
+        <v>0.2697459726396328</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1281.7352321182</v>
+        <v>-1406.059790569765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06519371069992995</v>
+        <v>0.04360464455927199</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1605.448824616011</v>
+        <v>-1316.060647265636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01756450155950624</v>
+        <v>0.04452880527356735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1010.661748954722</v>
+        <v>2904.279765661209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09893357295847471</v>
+        <v>0.002600401586480964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2991.2252150736</v>
+        <v>16.44614697292735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001844864621566024</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.97205968067309</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1528038570903795</v>
+        <v>0.06501147990816314</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3528.445068660319</v>
+        <v>3271.196168915063</v>
       </c>
       <c r="C2" t="n">
-        <v>6.453939771886983e-05</v>
+        <v>0.0001709420991540946</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.24028893363527</v>
+        <v>73.54327138270102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2006130964892193</v>
+        <v>0.08753021126872236</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.3391923280567</v>
+        <v>169.9289859454197</v>
       </c>
       <c r="C4" t="n">
-        <v>1.524373062754793e-07</v>
+        <v>1.898608678553087e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03246520389708507</v>
+        <v>0.02722258526813617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.262564811296251</v>
+        <v>0.3474085071861891</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.813647544207487e-07</v>
+        <v>-7.212453422830516e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8882668891291154</v>
+        <v>0.9182870633623617</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.255688368459161</v>
+        <v>-5.760130005350414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7860087596257428</v>
+        <v>0.4764017042351975</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.20011970703306</v>
+        <v>-2.706417740073391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4579892680779456</v>
+        <v>0.5318483254532389</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1117.282221607338</v>
+        <v>-1232.69314727202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08333215857497021</v>
+        <v>0.05653285034097117</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1922.90294046744</v>
+        <v>-1647.178552954714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004456807061309487</v>
+        <v>0.01204576474658622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1012.005735824015</v>
+        <v>3850.124670017163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1036231084392559</v>
+        <v>0.0005463904545016506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3788.315899036292</v>
+        <v>10.04242556217456</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006186396939449883</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.397426268021135</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4246640537047351</v>
+        <v>0.2747818793952421</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3897.51868911086</v>
+        <v>3725.682597721297</v>
       </c>
       <c r="C2" t="n">
-        <v>1.276829634159015e-06</v>
+        <v>3.239448612763084e-06</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.151094723724924</v>
+        <v>20.06437497285538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9553357168972967</v>
+        <v>0.5898847994892331</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.6596293092526</v>
+        <v>149.0321392847586</v>
       </c>
       <c r="C4" t="n">
-        <v>7.095520917195722e-08</v>
+        <v>1.118026182624062e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03114748646850055</v>
+        <v>0.02763085655527443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2069847966538365</v>
+        <v>0.2645152636884008</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.550839217571702e-06</v>
+        <v>6.724636508657717e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2919706325257731</v>
+        <v>0.2829658599454987</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.149470157926306</v>
+        <v>-11.96402691084755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2757341441127731</v>
+        <v>0.09681454828195442</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.875974962082587</v>
+        <v>-9.517687323645871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01379048625401567</v>
+        <v>0.01820569145926631</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2314.837467774834</v>
+        <v>-2355.083474095459</v>
       </c>
       <c r="C9" t="n">
-        <v>4.259600460435115e-05</v>
+        <v>3.552518729744486e-05</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1899.635190334267</v>
+        <v>-1692.172612708542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001101161468241993</v>
+        <v>0.003016951227375456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-900.1412198136551</v>
+        <v>7111.994422200889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09217744809128203</v>
+        <v>1.022709924395246e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6939.63607949016</v>
+        <v>18.94838203439097</v>
       </c>
       <c r="C12" t="n">
-        <v>1.908373532470049e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.41822374572862</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03055177548061579</v>
+        <v>0.01895407569414645</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3304.756687353698</v>
+        <v>3000.559577131642</v>
       </c>
       <c r="C2" t="n">
-        <v>7.446749598695984e-05</v>
+        <v>0.000341211500628274</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.09536820915565</v>
+        <v>42.96727554442248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5716277054838075</v>
+        <v>0.2947331869008429</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2062655215124</v>
+        <v>163.6719153816648</v>
       </c>
       <c r="C4" t="n">
-        <v>2.147446289851805e-08</v>
+        <v>4.975616900828997e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02401912049670481</v>
+        <v>0.01887961066671924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3781254396798049</v>
+        <v>0.4963193262589941</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.624732538217766e-06</v>
+        <v>-3.538043731849961e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5790749711267444</v>
+        <v>0.5961602188054278</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2249395572467421</v>
+        <v>-5.609284482068727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9769612741073528</v>
+        <v>0.4611541212658353</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.93448236034553</v>
+        <v>-1.739705755246021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.629481661128739</v>
+        <v>0.6710354793941159</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1095.204521867587</v>
+        <v>-1140.372082835899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04235863731448403</v>
+        <v>0.03853527371343454</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1781.039794470499</v>
+        <v>-1396.217495354952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00424339029523411</v>
+        <v>0.02267850117250261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1342.190588680242</v>
+        <v>2801.92058769507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01243034303974804</v>
+        <v>0.002350627971957387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2782.543083978861</v>
+        <v>19.03493963862496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002038103808329712</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.09085876633923</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1132489781462316</v>
+        <v>0.0325470458022589</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3613.119517413049</v>
+        <v>3395.386826406085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001016271057320851</v>
+        <v>0.0001725351334996468</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.54484577161131</v>
+        <v>48.62104559434434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4567519045811202</v>
+        <v>0.2930646461726044</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.334416131602</v>
+        <v>175.2549440938714</v>
       </c>
       <c r="C4" t="n">
-        <v>1.290010777542119e-07</v>
+        <v>7.508225771810298e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009990513559101355</v>
+        <v>-0.0008810782345981261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7731377949098502</v>
+        <v>0.97879142663829</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.685675837821002e-05</v>
+        <v>2.24652974110264e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5864225639461976</v>
+        <v>0.4624084102986924</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.569137701123154</v>
+        <v>-9.275582112948548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3722235656810897</v>
+        <v>0.2662131771332983</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.921528794995128</v>
+        <v>-3.562405085008782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3985338367077911</v>
+        <v>0.4420690582658205</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1616.82970112634</v>
+        <v>-1653.643255218285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01664996683982016</v>
+        <v>0.01430148223302969</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1130.839305428521</v>
+        <v>-911.9237331261533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1035556577726034</v>
+        <v>0.1688482446134206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-737.1330634174556</v>
+        <v>2964.175634565779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286312666962784</v>
+        <v>0.002253317806962558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3093.002575340908</v>
+        <v>13.52177311035837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001582162218260018</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.22791803344384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2403664856819145</v>
+        <v>0.1475530919773001</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3850.350732794414</v>
+        <v>3615.330567741109</v>
       </c>
       <c r="C2" t="n">
-        <v>2.782891571978753e-05</v>
+        <v>7.911462373216625e-05</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.64211071911626</v>
+        <v>73.79940321578026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307701019364195</v>
+        <v>0.09430526331332444</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.4683093980815</v>
+        <v>161.4708436015842</v>
       </c>
       <c r="C4" t="n">
-        <v>1.110545943679768e-05</v>
+        <v>1.349677712968614e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04276226307245973</v>
+        <v>0.03876131895696838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1660168992271333</v>
+        <v>0.2128426929881155</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.979086308092071e-06</v>
+        <v>-1.811954247753203e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7751455402388019</v>
+        <v>0.7958397312240812</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.870407385308011</v>
+        <v>-11.78571767430838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3463211040257881</v>
+        <v>0.1512831645841845</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.65031272647729</v>
+        <v>-4.371805299380462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2772230061060821</v>
+        <v>0.3118216454661363</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1074.327724287355</v>
+        <v>-1082.704378755642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06679324659788398</v>
+        <v>0.06760162372576607</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1706.695113948556</v>
+        <v>-1466.3328892915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02021115802026447</v>
+        <v>0.04450635566356734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1100.328556951134</v>
+        <v>2891.466892137136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05595785792999447</v>
+        <v>0.00212914164291719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2932.747838924023</v>
+        <v>14.37985515475395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001660330262852434</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.42979184820382</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2018421650319308</v>
+        <v>0.107561332572454</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49275388" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49375146" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ49477838" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49581347" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49690858" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49805366" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ49927878" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50053908" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50182960" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ50312473" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ50439875" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ50567378" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ50700793" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ50830306" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50958441" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ51088961" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ51221474" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ51357509" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ51484077" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51614119" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51742654" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51874690" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ52005783" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ52137793" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ52263828" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52482873" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ52608581" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ52731091" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ52861116" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ52987787" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ53116447" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ53244979" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ53374063" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ53501575" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ53629088" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53763173" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53891679" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ54024195" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ54157767" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ54285281" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ54419814" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ54564840" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ54698434" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ54831952" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ54977778" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ55131797" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ55284372" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ55432885" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ55573926" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ55705961" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ41866441" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ41966510" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42065146" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ42165055" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42268301" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42368319" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42468129" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ42669931" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ42775797" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42875367" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ42972025" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ43069895" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ43167770" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ43268399" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ43368289" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ43468819" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ43569714" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ43668578" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ43768770" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ43875747" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ43980833" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ44082160" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ44184440" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ44293055" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ44415828" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ44538045" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ44668703" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ44802295" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ44941118" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ45083695" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ45216239" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ45349576" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ45508893" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ45664792" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ45805362" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ45942789" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ46076815" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ46203407" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ46345005" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ46505025" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ46642384" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ46783755" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ46914276" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ47055901" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ47207239" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ47347063" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ47480729" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ47614829" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ47739365" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ47858302" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ41866441" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ41966510" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42065146" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42165055" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ42268301" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ42368319" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42468129" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ42669931" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ42775797" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ42875367" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ42972025" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ43069895" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ43167770" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ43268399" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ43368289" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ43468819" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ43569714" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ43668578" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ43768770" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ43875747" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ43980833" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ44082160" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ44184440" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ44293055" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ44415828" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ44538045" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ44668703" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ44802295" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ44941118" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ45083695" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ45216239" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ45349576" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ45508893" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ45664792" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ45805362" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ45942789" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ46076815" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ46203407" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ46345005" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ46505025" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ46642384" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ46783755" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ46914276" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ47055901" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ47207239" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ47347063" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ47480729" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ47614829" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ47739365" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ47858302" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ04080456" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04214231" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04347186" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04477827" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ04614330" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04730300" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04862782" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04997040" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05130476" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05265102" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ05396986" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05530689" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05652441" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ05781542" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ05914500" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06047795" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06164252" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06297243" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06430427" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ06563857" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ06697576" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ06830385" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ06965048" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ07097013" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ07227856" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ07354443" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ07480898" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07615960" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07755134" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07880911" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ08013653" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ08147275" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ08281402" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08398194" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08531939" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ08680369" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08798079" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08931038" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09066201" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09199668" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09331188" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ09463859" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ09615316" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ09802203" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ09957530" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ10116525" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ10265576" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ10430615" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10581959" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10728044" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4390.454109850636</v>
+        <v>2961.793888215538</v>
       </c>
       <c r="C2" t="n">
-        <v>6.507122457674794e-07</v>
+        <v>6.585970488768743e-05</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.438872395372712</v>
+        <v>98.68446520281452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9130994643030348</v>
+        <v>0.08427893057015187</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.2344196827681</v>
+        <v>146.1168882267255</v>
       </c>
       <c r="C4" t="n">
-        <v>2.730558155267846e-08</v>
+        <v>0.0002240089276453189</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008852225303063219</v>
+        <v>0.08615897284008572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7488917209117691</v>
+        <v>0.0195667754084624</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.378214546921954e-06</v>
+        <v>-2.636028582461896e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7222168524402626</v>
+        <v>0.4174689768760549</v>
       </c>
     </row>
     <row r="7">
@@ -572,75 +572,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.07061015761401</v>
+        <v>-8.08940600376306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338587821689052</v>
+        <v>0.3452630133575931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.468132886204049</v>
+        <v>-2216.593140505879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08474652228992716</v>
+        <v>0.008395894811203756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1672.914540437397</v>
+        <v>6932.055330642849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003456928280197248</v>
+        <v>1.711447992395175e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1009.142328700225</v>
+        <v>8.227129244515275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1258420835711841</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2557.448260515905</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003829863082010506</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.602790504073141</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3186044128123572</v>
+        <v>0.4817517417288606</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3405.920005785675</v>
+        <v>2334.392419160729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000166421454211302</v>
+        <v>0.002396522751210331</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.39684142540096</v>
+        <v>126.8222760189185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2278471617345847</v>
+        <v>0.03693505134740321</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.6824678310358</v>
+        <v>167.0721776417635</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01495089792915e-07</v>
+        <v>5.688583752860513e-05</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03587008654471018</v>
+        <v>0.0161100401823054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2224942836338041</v>
+        <v>0.656659989965908</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.949237540777565e-07</v>
+        <v>1.399273887513893e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9433463732413743</v>
+        <v>0.6789531540463604</v>
       </c>
     </row>
     <row r="7">
@@ -751,75 +725,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.651974592827896</v>
+        <v>2.077075042834878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3462472612730962</v>
+        <v>0.8177118287531697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.370353738939045</v>
+        <v>-1465.611183492214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2979327303497471</v>
+        <v>0.09910106177512663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1221.137803364626</v>
+        <v>6151.600287627089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05003356671394375</v>
+        <v>6.847948910726147e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1433.358465791302</v>
+        <v>15.23955910479832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02584267403772433</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3318.192047861757</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000429770381553755</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.68654436145763</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1706193556297117</v>
+        <v>0.2241644156588501</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3046.997105560032</v>
+        <v>2448.077979108036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002315734256669663</v>
+        <v>0.003796934893512907</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.75266875894398</v>
+        <v>117.4385581478166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03918634738232308</v>
+        <v>0.07477200481806588</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.382851464138</v>
+        <v>197.4990372439378</v>
       </c>
       <c r="C4" t="n">
-        <v>5.699862246593026e-09</v>
+        <v>7.764686607223248e-05</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03050117255779938</v>
+        <v>0.0225524072865179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2549126590020818</v>
+        <v>0.5608078191755336</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.991934591648157e-05</v>
+        <v>5.781932256276951e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1271464477949802</v>
+        <v>0.1305656745708311</v>
       </c>
     </row>
     <row r="7">
@@ -930,75 +878,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.182540025149201</v>
+        <v>1.431164164237352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4215649782210116</v>
+        <v>0.8985263774282166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.093813783436633</v>
+        <v>-1397.323611394091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5936095422572555</v>
+        <v>0.1474270687146775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1538.683160586054</v>
+        <v>3501.942528453631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009744082852582802</v>
+        <v>0.01622745266599961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1523.521910417424</v>
+        <v>16.48131102247818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0127957734094932</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2892.966735347549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004145776578493655</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.82882420920544</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1981035817068886</v>
+        <v>0.2158184244414528</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4111.343276849238</v>
+        <v>2345.165573889913</v>
       </c>
       <c r="C2" t="n">
-        <v>2.50773717029341e-06</v>
+        <v>0.009670418861185935</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.87588676949439</v>
+        <v>133.8183549907176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2940819209901727</v>
+        <v>0.03934805454746392</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.5579150036793</v>
+        <v>176.2133734771619</v>
       </c>
       <c r="C4" t="n">
-        <v>3.359112697618594e-08</v>
+        <v>9.642481251909156e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02962598204459622</v>
+        <v>0.03129910552531061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2898048672213473</v>
+        <v>0.4290334818526622</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.395437285595192e-06</v>
+        <v>6.130317123290925e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7324675477709925</v>
+        <v>0.085487923539471</v>
       </c>
     </row>
     <row r="7">
@@ -1109,75 +1031,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.3748903739735</v>
+        <v>-8.136739596695232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161987095279466</v>
+        <v>0.411846960389635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.845893072116894</v>
+        <v>-848.9196521993108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09472957270916003</v>
+        <v>0.4431267534467981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1394.065578010307</v>
+        <v>2866.677403457463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01900627160340445</v>
+        <v>0.03996391934183231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1425.322783553188</v>
+        <v>26.29458477756835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02381156685736758</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2810.14025029323</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002370207972548596</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.90199529166297</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1667149129916264</v>
+        <v>0.09142263738295681</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4229.040273171591</v>
+        <v>3619.290449096346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.64667078560224e-05</v>
+        <v>3.755010785883013e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.67864316149765</v>
+        <v>87.02530052421082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3558823552435868</v>
+        <v>0.1879803186141433</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.1184931363885</v>
+        <v>152.365831287224</v>
       </c>
       <c r="C4" t="n">
-        <v>5.214048562886856e-07</v>
+        <v>0.002626835025110486</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01054230870478865</v>
+        <v>0.04211859897804861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7323265793751551</v>
+        <v>0.3006762720358285</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.740490009621211e-06</v>
+        <v>4.543663887736283e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8138159009949085</v>
+        <v>0.2596622205207682</v>
       </c>
     </row>
     <row r="7">
@@ -1288,75 +1184,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.69907313560544</v>
+        <v>-1.221128484868913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1982768148917907</v>
+        <v>0.9061801427554723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.161773774622096</v>
+        <v>-1928.554068286738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19461390305907</v>
+        <v>0.04615565036248045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1167.418589939572</v>
+        <v>2435.084667566996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05811626903567076</v>
+        <v>0.1139897440647902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1171.504165288588</v>
+        <v>5.37072786439504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0977418323421736</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3049.428530297659</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001840123901782042</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.571883638661847</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6578968717399769</v>
+        <v>0.70402482745741</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2991.208836159903</v>
+        <v>2090.791945408819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005748294148915434</v>
+        <v>0.01108805141374851</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.86013029360197</v>
+        <v>85.69172609962447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3057587541487611</v>
+        <v>0.1671763537040477</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.3024710342191</v>
+        <v>160.3257822042421</v>
       </c>
       <c r="C4" t="n">
-        <v>9.204918177774409e-07</v>
+        <v>0.000207511517708336</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01641335437925604</v>
+        <v>0.01453901710053492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.578806258079238</v>
+        <v>0.7229886980773264</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.618841831716167e-07</v>
+        <v>1.931219432999802e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9106858880718105</v>
+        <v>0.5957399117633146</v>
       </c>
     </row>
     <row r="7">
@@ -1467,75 +1337,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.007491744876742</v>
+        <v>1.124035277196157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25322211488981</v>
+        <v>0.9010819637037043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.835991121782503</v>
+        <v>-1549.128911026201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2424500601481776</v>
+        <v>0.0783495492709687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1404.885677397049</v>
+        <v>6535.187484690016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01560015155050984</v>
+        <v>6.707526570828684e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1407.41602475928</v>
+        <v>22.83217183207956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02770612596471846</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5152.489849536506</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.754029599028313e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.39660103353546</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009823888727896427</v>
+        <v>0.08233794027218769</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3639.981708541264</v>
+        <v>2891.107277614449</v>
       </c>
       <c r="C2" t="n">
-        <v>1.686430483984456e-05</v>
+        <v>7.714786640387432e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.69130376887318</v>
+        <v>51.18501348392696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2487102973390749</v>
+        <v>0.3649631706717599</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.1197624324896</v>
+        <v>170.0929639853548</v>
       </c>
       <c r="C4" t="n">
-        <v>1.064227407995127e-05</v>
+        <v>1.695680212490619e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03075873383863611</v>
+        <v>0.07712112021169336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3212929158501946</v>
+        <v>0.03495686340386347</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.2305095615791e-06</v>
+        <v>-4.248246237106376e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7399229405691429</v>
+        <v>0.2640875748813394</v>
       </c>
     </row>
     <row r="7">
@@ -1646,75 +1490,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.79833568645936</v>
+        <v>-0.03433371800414164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0803146603539477</v>
+        <v>0.9967446587357816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.359264689425499</v>
+        <v>-1999.267283291014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1832630445768112</v>
+        <v>0.01556155685080463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2000.050803107402</v>
+        <v>2788.836813403446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001057052233556175</v>
+        <v>0.03491242868869787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1231.934003673231</v>
+        <v>20.06942685274718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05325518118903515</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3248.665172035727</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004256209966161629</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.69822346758683</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.005765120285413654</v>
+        <v>0.08217109485860138</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3630.013963827629</v>
+        <v>2370.884323169845</v>
       </c>
       <c r="C2" t="n">
-        <v>7.791911274468395e-05</v>
+        <v>0.002471283859324208</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.22721999343312</v>
+        <v>86.89851715811415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3671740764572524</v>
+        <v>0.1360688621742104</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.7458864171689</v>
+        <v>150.1230089827903</v>
       </c>
       <c r="C4" t="n">
-        <v>6.243432992801178e-06</v>
+        <v>0.0003471436267200248</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0265728396870558</v>
+        <v>0.03223846633980283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4303813451012117</v>
+        <v>0.3651417608410206</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.157022550719392e-08</v>
+        <v>2.587477722986895e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9987797630653248</v>
+        <v>0.4559415795231013</v>
       </c>
     </row>
     <row r="7">
@@ -1825,75 +1643,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.53135309852999</v>
+        <v>-4.641951275447148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1855154361612376</v>
+        <v>0.6087006847081045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.049345440035323</v>
+        <v>-1042.217539008002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2804481773021055</v>
+        <v>0.2559047918504689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1336.102250232203</v>
+        <v>5373.524135093907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02916223038758283</v>
+        <v>0.0003732863226528356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1401.256965944706</v>
+        <v>21.55031427094722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03921700502128546</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3539.401860522737</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004714954800540625</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.36448945765073</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1023723412023768</v>
+        <v>0.09606654975484584</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3845.075909210896</v>
+        <v>2095.412974131388</v>
       </c>
       <c r="C2" t="n">
-        <v>1.038459654344284e-05</v>
+        <v>0.009819785770995338</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.42107200765115</v>
+        <v>116.9503334739268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2531294626226188</v>
+        <v>0.06918687190074632</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.9991420396795</v>
+        <v>181.1459831089423</v>
       </c>
       <c r="C4" t="n">
-        <v>7.924722128092909e-07</v>
+        <v>6.97602809918441e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01529946967347072</v>
+        <v>0.008606377291138723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5818124848800639</v>
+        <v>0.8352237331870972</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.028277793852951e-06</v>
+        <v>5.328787711516421e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8804152507294689</v>
+        <v>0.1443819988137919</v>
       </c>
     </row>
     <row r="7">
@@ -2004,75 +1796,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.11245147340935</v>
+        <v>7.611046567762976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08829993108485763</v>
+        <v>0.4417635111937642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.906211157648272</v>
+        <v>-1320.854141785511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1118172807347254</v>
+        <v>0.1971533829907804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1147.990960761513</v>
+        <v>2152.825471979201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05058609430152346</v>
+        <v>0.1192962265777679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1026.238025149899</v>
+        <v>25.52198342904523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09790389252697304</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3566.189090228019</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000485716050763494</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.30574610579304</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07107477183609998</v>
+        <v>0.05400367848562558</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3117.346372722726</v>
+        <v>3445.770096332018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005616839007610664</v>
+        <v>0.0001471368970832528</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.29434951860136</v>
+        <v>118.449635940057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0492691199108704</v>
+        <v>0.09094028764265533</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.4230865623534</v>
+        <v>178.5268073716331</v>
       </c>
       <c r="C4" t="n">
-        <v>1.225714388809434e-07</v>
+        <v>0.0002618623551044808</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009552117478740796</v>
+        <v>0.03456922122787502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.739329166838171</v>
+        <v>0.3951772030341891</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.700785479753073e-07</v>
+        <v>5.017112792040956e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9802810577186705</v>
+        <v>0.1864839925882084</v>
       </c>
     </row>
     <row r="7">
@@ -2183,75 +1949,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.123194220583992</v>
+        <v>-1.174818772844247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5361196912768049</v>
+        <v>0.9095230417741824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.279146539100628</v>
+        <v>-1821.115678384049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5950984757633166</v>
+        <v>0.06242631064546357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1321.016320781494</v>
+        <v>3484.16916957764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03448290533395093</v>
+        <v>0.02361845103426168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-966.7003416270536</v>
+        <v>-0.2729327674877915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1399054022183578</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3187.943101278727</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0007046642258321782</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.886852893660034</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2899893583791093</v>
+        <v>0.9857979839564877</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4045.445210200086</v>
+        <v>3109.869941389676</v>
       </c>
       <c r="C2" t="n">
-        <v>1.240723257407046e-06</v>
+        <v>8.415284555976033e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.57584693700207</v>
+        <v>71.9902573074516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4122290908004964</v>
+        <v>0.2312493478809932</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1679277892273</v>
+        <v>177.921929369158</v>
       </c>
       <c r="C4" t="n">
-        <v>1.374195870879356e-08</v>
+        <v>0.0001041653048647596</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009396970213329997</v>
+        <v>0.08649434710549389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7156721879621076</v>
+        <v>0.02802134616687842</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.464825436171646e-06</v>
+        <v>-5.777641018701524e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.698856737625029</v>
+        <v>0.1739916301232091</v>
       </c>
     </row>
     <row r="7">
@@ -2362,75 +2102,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.966378728351987</v>
+        <v>-5.763655701912953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4931669773934315</v>
+        <v>0.5352338312408065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.144092598443276</v>
+        <v>-1995.492077620348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04119312640046813</v>
+        <v>0.02697891843864749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1578.642396456399</v>
+        <v>4033.525268304276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004687416332521704</v>
+        <v>0.005416232459200162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1445.52228678597</v>
+        <v>14.80951788914276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01422717894460666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2174.244045046995</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01511492451388499</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.5553185995025</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05834485530871436</v>
+        <v>0.2232300522789502</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3372.233728233808</v>
+        <v>2729.706629618177</v>
       </c>
       <c r="C2" t="n">
-        <v>3.244617532619987e-05</v>
+        <v>0.003485073299941591</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.36532579442735</v>
+        <v>79.59802929076426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2346471497066222</v>
+        <v>0.2565419725434366</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.5658448044419</v>
+        <v>147.7050005838647</v>
       </c>
       <c r="C4" t="n">
-        <v>4.517790124292269e-07</v>
+        <v>0.003156307586778523</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02522709742473594</v>
+        <v>0.02793562592565782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3396155850786395</v>
+        <v>0.5027467765846073</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.825277288180577e-07</v>
+        <v>4.320050330155285e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9648034701154791</v>
+        <v>0.2639654866298788</v>
       </c>
     </row>
     <row r="7">
@@ -2541,75 +2255,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.38215519287912</v>
+        <v>-5.875111074575123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168631176063869</v>
+        <v>0.5621074623907369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.194533583610291</v>
+        <v>-1142.021532021436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280816298238446</v>
+        <v>0.2387089292290095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1894.077146275834</v>
+        <v>3142.482372657572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009652427728738044</v>
+        <v>0.03245689160400408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1658.29471208765</v>
+        <v>24.32163321515274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005070169705859529</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5709.24555211508</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.186437395087735e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.42624859195338</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06629400648467251</v>
+        <v>0.1145098544884301</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3188.59847502096</v>
+        <v>3086.154075177949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002241935957917305</v>
+        <v>0.0005123809030700924</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.90111814018086</v>
+        <v>90.62400057544542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3111580576957608</v>
+        <v>0.1533779448020633</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3096274879465</v>
+        <v>169.0579542170811</v>
       </c>
       <c r="C4" t="n">
-        <v>2.841838469253721e-07</v>
+        <v>0.0002458947486629623</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06592054002852413</v>
+        <v>0.04052160258237494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04065225715172344</v>
+        <v>0.3184221278428879</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.293821505396317e-06</v>
+        <v>5.073862159713423e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8604049597778488</v>
+        <v>0.19869635195899</v>
       </c>
     </row>
     <row r="7">
@@ -2720,75 +2408,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.15705825334827</v>
+        <v>-2.886994332173026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333014848015617</v>
+        <v>0.7764981448273109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.449183786210785</v>
+        <v>-1861.016413357971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5574542725691582</v>
+        <v>0.04404391010563362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1492.078968875503</v>
+        <v>2652.103878493211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02029816095839538</v>
+        <v>0.06939402311322002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2015.979971158701</v>
+        <v>15.93088266430353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003542720087858393</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4521.719736150299</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.654868815198086e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.43354464688747</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06537069989238958</v>
+        <v>0.2490815053261148</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4792.539959540823</v>
+        <v>2683.608935244806</v>
       </c>
       <c r="C2" t="n">
-        <v>9.081173043586294e-08</v>
+        <v>0.001570694849162923</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.00405263052113</v>
+        <v>57.09847970442789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.962090691105626</v>
+        <v>0.3834973104074548</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.7231110974704</v>
+        <v>196.8268807825339</v>
       </c>
       <c r="C4" t="n">
-        <v>1.291149432559835e-07</v>
+        <v>1.677557414766514e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008183224381060492</v>
+        <v>0.0179655587226821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7766367369515759</v>
+        <v>0.6433510796034372</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.440633161049329e-05</v>
+        <v>5.574730269874119e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6098150765411525</v>
+        <v>0.1281964531410398</v>
       </c>
     </row>
     <row r="7">
@@ -2899,75 +2561,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.47858130211394</v>
+        <v>7.950148132577951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1915444025409489</v>
+        <v>0.4520655189265828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.96241599271683</v>
+        <v>-1619.359231309963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004025230694584722</v>
+        <v>0.09558364854254121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1509.218315617283</v>
+        <v>1413.315508869196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01604895834995973</v>
+        <v>0.3210978423102762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1557.504247475064</v>
+        <v>18.78583309569641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0146555350475879</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2395.230003238074</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01073763350338509</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.22066929673534</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04168696979651179</v>
+        <v>0.1648044049410103</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3159.756715141678</v>
+        <v>3742.671666041246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001500790530937679</v>
+        <v>9.431506208741689e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.67226997761392</v>
+        <v>91.44528637402775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1557873264620445</v>
+        <v>0.1518463883308755</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.3063647212088</v>
+        <v>173.4500815017568</v>
       </c>
       <c r="C4" t="n">
-        <v>3.261736278572835e-08</v>
+        <v>0.000122717008225993</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03467344063838551</v>
+        <v>0.03214452849804871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2185202280055252</v>
+        <v>0.4312701141489973</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.605960727340872e-06</v>
+        <v>3.028504243874176e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.697200905539034</v>
+        <v>0.4439249823888805</v>
       </c>
     </row>
     <row r="7">
@@ -3078,75 +2714,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.78703116931684</v>
+        <v>-2.177090347387399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1771911320985553</v>
+        <v>0.8258398184415111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.169701696967755</v>
+        <v>-1732.621751885417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4403218985746342</v>
+        <v>0.06657681880041527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-924.1976659797206</v>
+        <v>2895.145463251311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1111409429277</v>
+        <v>0.04114250430296056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1227.403109162289</v>
+        <v>-0.6091746013956758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0450830612338278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3320.081724460459</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002943756400527935</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.62989037693935</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0916933368001886</v>
+        <v>0.9638757271097202</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.09705183713</v>
+        <v>3171.679232599765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009075023773021782</v>
+        <v>0.0004002281532807725</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.1159208601481</v>
+        <v>98.31682873383988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231156486123558</v>
+        <v>0.1481605712052736</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.8110873440414</v>
+        <v>155.2263906400621</v>
       </c>
       <c r="C4" t="n">
-        <v>1.512648970788779e-08</v>
+        <v>0.001234204955700275</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01784822086840043</v>
+        <v>0.03060997630388082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5216369578337765</v>
+        <v>0.4409337940824664</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.472804644623751e-06</v>
+        <v>2.314404330777707e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7136814580096863</v>
+        <v>0.5656934181257949</v>
       </c>
     </row>
     <row r="7">
@@ -3257,75 +2867,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.88745904281001</v>
+        <v>-2.298598122154431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4296275361195632</v>
+        <v>0.8183009900726987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.293646045993272</v>
+        <v>-1634.603140454924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7586963359220712</v>
+        <v>0.1064078262346879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1350.210670019363</v>
+        <v>3249.847295865056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01765121768854898</v>
+        <v>0.02940272593649254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1346.472083463399</v>
+        <v>13.68609060781896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03935994631183741</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6518.650429621651</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.48623228867256e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.28376267343328</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03323102662530755</v>
+        <v>0.3553682329535636</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3444.204194838609</v>
+        <v>2280.047941512679</v>
       </c>
       <c r="C2" t="n">
-        <v>8.189875167153618e-05</v>
+        <v>0.003006346616636581</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.45831805925432</v>
+        <v>74.00424093057144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1490492565988028</v>
+        <v>0.1893934691658262</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5744004851632</v>
+        <v>145.9435533463503</v>
       </c>
       <c r="C4" t="n">
-        <v>1.412335584850912e-06</v>
+        <v>0.0009250497174958439</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03990742999981674</v>
+        <v>0.1070112767457433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2181122705823158</v>
+        <v>0.005149808841292119</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.656537670968731e-06</v>
+        <v>-2.501281091268102e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8162726222409288</v>
+        <v>0.4636755366018922</v>
       </c>
     </row>
     <row r="7">
@@ -3436,75 +3020,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.26726811675119</v>
+        <v>-9.392973067172612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3215083130264448</v>
+        <v>0.2899745492470061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.877316288638765</v>
+        <v>-2304.135774835221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3611907492787862</v>
+        <v>0.009327632190996405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1244.021669583527</v>
+        <v>6459.610331626965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04300228836640043</v>
+        <v>1.06441945786885e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1634.08600519155</v>
+        <v>28.36650079437974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01471734684634931</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2886.636131783314</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003186440739598194</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.45377303047375</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.107579196755665</v>
+        <v>0.02362906172500326</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4149.179503728683</v>
+        <v>1705.593748995967</v>
       </c>
       <c r="C2" t="n">
-        <v>3.756906301581816e-06</v>
+        <v>0.03178640538096315</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.99613798390885</v>
+        <v>171.1043152372542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1172113321908134</v>
+        <v>0.005668374602506524</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.4082368603083</v>
+        <v>191.7755747508632</v>
       </c>
       <c r="C4" t="n">
-        <v>7.32181123356694e-06</v>
+        <v>1.789607630177617e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02464508248763192</v>
+        <v>-0.006819690598069569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3835926638818875</v>
+        <v>0.8596754057016026</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.143916989160574e-06</v>
+        <v>8.190025065046425e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8666515381747648</v>
+        <v>0.03147746370593398</v>
       </c>
     </row>
     <row r="7">
@@ -3615,75 +3173,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.93884058176647</v>
+        <v>4.045138005081856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1031002301142639</v>
+        <v>0.6606081557665118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.829855400471748</v>
+        <v>-737.8400369072647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2648970320932943</v>
+        <v>0.4053354723751186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1985.138456086512</v>
+        <v>3757.277750771385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008495803807458659</v>
+        <v>0.01348887463290837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1245.488762692833</v>
+        <v>22.50729887166515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04810336837948893</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3442.968553453637</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001522488685080057</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.623411481584704</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4558687105228246</v>
+        <v>0.07772089201230682</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3320.308121163784</v>
+        <v>1778.922498689654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003052961518826572</v>
+        <v>0.02334799954424661</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.41700896452924</v>
+        <v>169.1524475296011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2206379170071545</v>
+        <v>0.005775396229885788</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.4441064912795</v>
+        <v>177.6924714155379</v>
       </c>
       <c r="C4" t="n">
-        <v>1.12081956694078e-06</v>
+        <v>6.119057797681002e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03128493766879127</v>
+        <v>0.04110522287213793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3035510164261639</v>
+        <v>0.281390982161104</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.831591251645372e-05</v>
+        <v>2.374861131835599e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2997231603560895</v>
+        <v>0.5270493797845074</v>
       </c>
     </row>
     <row r="7">
@@ -3794,75 +3326,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.305489605118298</v>
+        <v>-1.211625242147836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3758557402125123</v>
+        <v>0.8957027891244709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.987505163271972</v>
+        <v>-1146.361571321422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6616373447076369</v>
+        <v>0.2081431580362373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1569.890078875731</v>
+        <v>6101.269194455253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01436719462643411</v>
+        <v>0.0001150401059291706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1799.115599243274</v>
+        <v>20.68006035831766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00833557044590558</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3067.327897904855</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001213891473620642</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.3552679242525</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1709284533212781</v>
+        <v>0.1142358251039827</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3226.606218153702</v>
+        <v>2761.546984839724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002670029270766756</v>
+        <v>0.001758947959526287</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.00426607312158</v>
+        <v>64.93098441385615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313984310733548</v>
+        <v>0.3088673760771969</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9569971557687</v>
+        <v>197.2153441633673</v>
       </c>
       <c r="C4" t="n">
-        <v>2.74653769281445e-07</v>
+        <v>4.300957440919789e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008488539351240179</v>
+        <v>0.02556761360726092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7762432786083229</v>
+        <v>0.5076620892094799</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.131569609266774e-06</v>
+        <v>2.889579790797315e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.865693860503061</v>
+        <v>0.4745715652293011</v>
       </c>
     </row>
     <row r="7">
@@ -3973,75 +3479,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.881504225029296</v>
+        <v>3.523493596245707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4669515255122813</v>
+        <v>0.7265645102262812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.010027630166174</v>
+        <v>-1640.345796739856</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2391568565354802</v>
+        <v>0.07725374554081726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1974.389679188726</v>
+        <v>3487.531402812991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009530358500698616</v>
+        <v>0.02242949658984915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1198.24121948595</v>
+        <v>13.55241556797954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06812555494608892</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4340.284447845792</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.978043544982033e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.88542948103374</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03254170098989042</v>
+        <v>0.3575451837325108</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3866.407539336265</v>
+        <v>3204.271761790774</v>
       </c>
       <c r="C2" t="n">
-        <v>1.169296051561791e-05</v>
+        <v>8.664469865890816e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.78052709703725</v>
+        <v>104.9370930374916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2765016510993749</v>
+        <v>0.100638932680116</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.1785783622129</v>
+        <v>159.3857897695025</v>
       </c>
       <c r="C4" t="n">
-        <v>3.310788103962179e-05</v>
+        <v>0.0003284544134306616</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02436191548001009</v>
+        <v>0.02721568012084107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3976830516423459</v>
+        <v>0.4778409812668474</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.191957871765481e-07</v>
+        <v>5.080004825314623e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9528948142335466</v>
+        <v>0.1659064528076441</v>
       </c>
     </row>
     <row r="7">
@@ -4152,75 +3632,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.16660672835729</v>
+        <v>-6.993814106792637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05953457276524647</v>
+        <v>0.4754009753871888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.313375440509297</v>
+        <v>-1297.596547370599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2250778125789046</v>
+        <v>0.1890778810755225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1444.872381083842</v>
+        <v>2835.938113978979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01874139808433103</v>
+        <v>0.05181143654974947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1201.934637054847</v>
+        <v>13.43252010393404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07286153338259663</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3612.150252005482</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001970758193180548</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.30111304396033</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09603482079846003</v>
+        <v>0.3105121626667353</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4052.199176478909</v>
+        <v>2700.13424448464</v>
       </c>
       <c r="C2" t="n">
-        <v>1.653686259020505e-06</v>
+        <v>0.001824557561186143</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.86293413180121</v>
+        <v>112.2640230943528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391956956014166</v>
+        <v>0.09377314391106571</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.4371576380774</v>
+        <v>169.7584235822291</v>
       </c>
       <c r="C4" t="n">
-        <v>1.464579395736843e-08</v>
+        <v>0.0004418528335477584</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03339667368736556</v>
+        <v>0.0202936216875927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2765918587442985</v>
+        <v>0.635900113615081</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.319114366954514e-07</v>
+        <v>5.444077003815241e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9151859575577269</v>
+        <v>0.1724719528200015</v>
       </c>
     </row>
     <row r="7">
@@ -4331,75 +3785,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.98690446282426</v>
+        <v>-0.1951789807907334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08789578779454432</v>
+        <v>0.9840524675769252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.077549329918224</v>
+        <v>-1496.426014023227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05940647265408095</v>
+        <v>0.1165096970646861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1535.611061458005</v>
+        <v>3142.668641387226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01160107457146071</v>
+        <v>0.0306960747300423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1265.912295439419</v>
+        <v>18.66618108713357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04421483070215344</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3137.105378216763</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002438425928552741</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.06446151382093</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.107929972033865</v>
+        <v>0.185168348724079</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3261.748711436301</v>
+        <v>2837.496762766149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003901504743058516</v>
+        <v>0.0004185075453183935</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.60710648104833</v>
+        <v>109.4563245878331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1705735538716617</v>
+        <v>0.06987242215447945</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.2893009964823</v>
+        <v>184.8465059543049</v>
       </c>
       <c r="C4" t="n">
-        <v>2.081389923407162e-06</v>
+        <v>3.855781570351316e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03268705501355769</v>
+        <v>0.03604278926288414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3276197941852249</v>
+        <v>0.3236220158897455</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.55846416446148e-07</v>
+        <v>4.065917996906181e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9389295655918324</v>
+        <v>0.2962872156703271</v>
       </c>
     </row>
     <row r="7">
@@ -4510,75 +3938,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.714540958297167</v>
+        <v>1.068269722857742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3251287604366352</v>
+        <v>0.9112452791642919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.189505545179522</v>
+        <v>-1983.171449769239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3511035097972701</v>
+        <v>0.02988663317779126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1086.819003254851</v>
+        <v>2409.953253782433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07481001874829095</v>
+        <v>0.085470005948811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1403.378840464847</v>
+        <v>18.35699447269435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03896810295891111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3410.322721468858</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004877596096352255</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.43190504392479</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06896444537620672</v>
+        <v>0.1522117188939054</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121.592574301108</v>
+        <v>3293.564431218351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000257704286933481</v>
+        <v>6.19264348052185e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.17237103163606</v>
+        <v>41.66898757329962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05903760447375432</v>
+        <v>0.4943252768280643</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.3812531297371</v>
+        <v>156.6773775902969</v>
       </c>
       <c r="C4" t="n">
-        <v>9.56391964308915e-09</v>
+        <v>0.000311593956470326</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02605207170496562</v>
+        <v>0.07474814427701884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3265177763196264</v>
+        <v>0.0582798904739399</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.047332031619611e-06</v>
+        <v>2.062899848439341e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8725995010929061</v>
+        <v>0.9526094522700865</v>
       </c>
     </row>
     <row r="7">
@@ -4689,75 +4091,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.509140800499253</v>
+        <v>-3.227785479539087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4092382329377705</v>
+        <v>0.740989130273264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.61554492467234</v>
+        <v>-2117.184639058174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3709880583213424</v>
+        <v>0.02847967048639657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-806.8616861849152</v>
+        <v>2767.179386938496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147721179038615</v>
+        <v>0.03665810493547104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1329.550515676928</v>
+        <v>13.76526128500621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02690336571308133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2963.583338608724</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001007292137194614</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.11520106745766</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09572394978632394</v>
+        <v>0.2709292002467857</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3405.817606187817</v>
+        <v>3636.551798424058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000130590267654099</v>
+        <v>7.706438326897349e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.21216206872899</v>
+        <v>109.0274256887622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133908073061296</v>
+        <v>0.1091248698247865</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1299539412496</v>
+        <v>142.1932773979584</v>
       </c>
       <c r="C4" t="n">
-        <v>7.534696184780162e-07</v>
+        <v>0.001509042317376375</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03057461716305533</v>
+        <v>0.03395322146201061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3435212581787414</v>
+        <v>0.3902710325995407</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.743511031720268e-06</v>
+        <v>4.680716228822305e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6992348781037557</v>
+        <v>0.2161748329495394</v>
       </c>
     </row>
     <row r="7">
@@ -4868,75 +4244,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.204418656686521</v>
+        <v>-4.404951214773519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2531926591974693</v>
+        <v>0.6556374509556154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.744266974793966</v>
+        <v>-1826.356069503127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5205340178465789</v>
+        <v>0.05461619559119199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1134.526112422057</v>
+        <v>2640.18659438409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06382293888851551</v>
+        <v>0.07330376510131065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1550.121452296672</v>
+        <v>7.062901632429377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01965275142551975</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3465.140396074079</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001164019922247959</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.64480120307642</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2153700113255049</v>
+        <v>0.6313030966856525</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3461.194041604158</v>
+        <v>2179.243076182265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001251909530975825</v>
+        <v>0.003810667264926436</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.55965007212089</v>
+        <v>85.548178577789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2966903206058387</v>
+        <v>0.1389598115806497</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.2897950145164</v>
+        <v>179.4785029855709</v>
       </c>
       <c r="C4" t="n">
-        <v>1.228388967390065e-08</v>
+        <v>1.763774740072314e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002151787256900017</v>
+        <v>0.09519464377222771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9390341934758836</v>
+        <v>0.0149784613110893</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.40967100880936e-05</v>
+        <v>-3.564663364517143e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09716073928663196</v>
+        <v>0.3028773854941993</v>
       </c>
     </row>
     <row r="7">
@@ -5047,75 +4397,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.342861983706112</v>
+        <v>-2.100674219348544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4257363577078225</v>
+        <v>0.8148466218826114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.455844630932035</v>
+        <v>-2535.047081790501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4173668348632769</v>
+        <v>0.003849704811879234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1622.590776575807</v>
+        <v>7057.967556805585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009945051429952662</v>
+        <v>2.46945144327362e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-920.876388335101</v>
+        <v>21.66851096889942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.157877222971312</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2523.338723696701</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007255009157300779</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.286764952732796</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4500991519788093</v>
+        <v>0.06974541050453958</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3882.011436599403</v>
+        <v>3068.930030172029</v>
       </c>
       <c r="C2" t="n">
-        <v>2.701380692248413e-06</v>
+        <v>0.0002939431069861274</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.02741196486141</v>
+        <v>139.7579370121039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2609495433828862</v>
+        <v>0.02586671755394518</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.9770324199954</v>
+        <v>181.7680991974276</v>
       </c>
       <c r="C4" t="n">
-        <v>1.557580690598792e-07</v>
+        <v>4.765021815657095e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04647137598183382</v>
+        <v>0.04762638516259306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07756715176721662</v>
+        <v>0.2045988233089743</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.34711818606289e-06</v>
+        <v>5.755063501883122e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4966827080721127</v>
+        <v>0.1362959337539555</v>
       </c>
     </row>
     <row r="7">
@@ -5226,75 +4550,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.96287871303735</v>
+        <v>-1.721902380017586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0507797751922104</v>
+        <v>0.8549287152523721</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.39422260203139</v>
+        <v>-1575.307209031329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01315169302482014</v>
+        <v>0.08828011070094906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1369.855910392755</v>
+        <v>2891.851974029025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01617862984893985</v>
+        <v>0.04064478397841763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1686.573986177667</v>
+        <v>5.207858091702395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003879338569205693</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4657.754529308715</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.62094566516316e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.57579942006421</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.007410546305420897</v>
+        <v>0.7078991133702105</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3182.58869180664</v>
+        <v>2824.971913114984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001878137757011419</v>
+        <v>0.001447573718934036</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.67815412978905</v>
+        <v>87.16227170717137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0818654363398279</v>
+        <v>0.1854252318578608</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.5304970828483</v>
+        <v>152.4680080295382</v>
       </c>
       <c r="C4" t="n">
-        <v>6.185480538261193e-07</v>
+        <v>0.003554133750300054</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01882419139822789</v>
+        <v>0.01457322286380728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4975098354738391</v>
+        <v>0.72815731816726</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.640754023421536e-06</v>
+        <v>2.603076281569599e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.699268564139316</v>
+        <v>0.5277488556321659</v>
       </c>
     </row>
     <row r="7">
@@ -5405,75 +4703,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.5706205537767</v>
+        <v>-2.694813955889057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1819736587266646</v>
+        <v>0.7933416513947136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.845631926670336</v>
+        <v>-1244.536224148772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4970596356160064</v>
+        <v>0.2183818762076478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1945.020360691853</v>
+        <v>3165.327671316955</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001749590739375293</v>
+        <v>0.03017981891956964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-898.3200774555812</v>
+        <v>21.1176686645572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1527603495683336</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3029.695170665529</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0017283733298759</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.95582361878208</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02530308540923067</v>
+        <v>0.1211428269010344</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3885.086942432798</v>
+        <v>1936.766082061618</v>
       </c>
       <c r="C2" t="n">
-        <v>1.855270564616292e-05</v>
+        <v>0.01253250757552069</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.40950755019142</v>
+        <v>62.64772229145298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.476696477477251</v>
+        <v>0.3029226670287645</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2200764523872</v>
+        <v>209.9654853035934</v>
       </c>
       <c r="C4" t="n">
-        <v>3.246774460417894e-06</v>
+        <v>3.107860331272625e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01068067216351909</v>
+        <v>-0.008629109680927727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7358737369744663</v>
+        <v>0.8227039833775648</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.408673382104215e-07</v>
+        <v>5.586012506770611e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9160809426133191</v>
+        <v>0.1269546570248485</v>
       </c>
     </row>
     <row r="7">
@@ -5584,75 +4856,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.20684371427307</v>
+        <v>8.864758957662383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2878339388457805</v>
+        <v>0.376130616614008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.537350397712178</v>
+        <v>-626.3422916810105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2134104751842705</v>
+        <v>0.5115316352544468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1412.328596281581</v>
+        <v>2513.746297219279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01261001119127831</v>
+        <v>0.07412501016398029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1564.956709003166</v>
+        <v>24.52993689051226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02365600885889402</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3233.769847200695</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0006309990012282781</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.46067862050836</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1028749351474177</v>
+        <v>0.05802808579972893</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4745.560182326874</v>
+        <v>2948.403518497011</v>
       </c>
       <c r="C2" t="n">
-        <v>7.559489291132672e-07</v>
+        <v>0.001095826996182583</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.003601018442552117</v>
+        <v>98.03105096629875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999932964829063</v>
+        <v>0.1420381506002025</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.0945441671634</v>
+        <v>164.1332272854896</v>
       </c>
       <c r="C4" t="n">
-        <v>4.050782212829559e-07</v>
+        <v>0.0003823165162815847</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01205401052200404</v>
+        <v>0.01395942529752575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6690422635785083</v>
+        <v>0.7655238929346107</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.672377719666271e-06</v>
+        <v>2.949326589950869e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3567371675302924</v>
+        <v>0.5381443127536002</v>
       </c>
     </row>
     <row r="7">
@@ -5763,75 +5009,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.57687738442085</v>
+        <v>-6.06163635832891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1208298255261555</v>
+        <v>0.5659990974048204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.52043476068913</v>
+        <v>-719.1694919667098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008793530377197151</v>
+        <v>0.497248132689149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1446.04575836502</v>
+        <v>3623.436765774683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0106114632694101</v>
+        <v>0.03104897844825664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1185.677420811153</v>
+        <v>14.07779606160299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05870518884348325</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2634.250096694252</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005679700394359035</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.48681858544396</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1091485516270617</v>
+        <v>0.3219670033905201</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3472.077443772419</v>
+        <v>3314.790620446054</v>
       </c>
       <c r="C2" t="n">
-        <v>6.781281917107094e-06</v>
+        <v>0.0002197821999112827</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.01497985292215</v>
+        <v>45.24172692974496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07844967414814077</v>
+        <v>0.4908043805948953</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.3137693345198</v>
+        <v>186.3127277201826</v>
       </c>
       <c r="C4" t="n">
-        <v>1.540418954467798e-09</v>
+        <v>0.0002832092657232734</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04538548422485367</v>
+        <v>0.01437617013212249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09056253509674789</v>
+        <v>0.7051861945296056</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.314426700183842e-06</v>
+        <v>3.466024882420057e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7093363414063345</v>
+        <v>0.3386909258460091</v>
       </c>
     </row>
     <row r="7">
@@ -5942,75 +5162,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.8502262422191</v>
+        <v>6.193056365328168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09593123230777013</v>
+        <v>0.5486919516820612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.179693785600154</v>
+        <v>-1769.774862422802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2652026114377262</v>
+        <v>0.06832998047826103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1284.930681242545</v>
+        <v>2474.182690820006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01485375669327262</v>
+        <v>0.08655316704462458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1607.135856425203</v>
+        <v>7.300830981206374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009682234578062054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2632.762838126121</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002099993726312852</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.35170824856614</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04632914624311877</v>
+        <v>0.6050206377130096</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3730.33445080974</v>
+        <v>3108.107466329811</v>
       </c>
       <c r="C2" t="n">
-        <v>2.734479472432485e-05</v>
+        <v>0.0002131251922767301</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.13592507054928</v>
+        <v>116.8382343905954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1521588794675049</v>
+        <v>0.07597512612772189</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.7623145275614</v>
+        <v>154.352444291865</v>
       </c>
       <c r="C4" t="n">
-        <v>3.892478599940614e-06</v>
+        <v>0.000968803352567066</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0289211882212689</v>
+        <v>0.04264324341179707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3720793519331652</v>
+        <v>0.2623580434316871</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.066083754025976e-05</v>
+        <v>3.73055648665128e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4861344370957384</v>
+        <v>0.3118579081686964</v>
       </c>
     </row>
     <row r="7">
@@ -6121,75 +5315,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.870278298839118</v>
+        <v>-0.9301780465070273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2969769177665374</v>
+        <v>0.922924411419268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.356256519397371</v>
+        <v>-1784.517244304525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5841655681392058</v>
+        <v>0.06420766500632304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1617.8288091009</v>
+        <v>2309.669531124581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01721380232038996</v>
+        <v>0.1079239054343187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1736.988218933279</v>
+        <v>14.93056354900106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01012291792940432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2992.907544746909</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001676303602593645</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.734337686713666</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4649951012945185</v>
+        <v>0.2726975549607973</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3557.708845234702</v>
+        <v>1304.688726986716</v>
       </c>
       <c r="C2" t="n">
-        <v>7.856689854018003e-05</v>
+        <v>0.0795902834875981</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.32141629836988</v>
+        <v>165.103054951872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2176895858246355</v>
+        <v>0.006629861109881185</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.3826190929697</v>
+        <v>200.7614052938598</v>
       </c>
       <c r="C4" t="n">
-        <v>8.06782549863943e-07</v>
+        <v>1.974537786762721e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01182357068771938</v>
+        <v>0.01902199138702293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6776922127308815</v>
+        <v>0.5863548340281466</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.97104101070582e-07</v>
+        <v>4.882376977244181e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9658748565215495</v>
+        <v>0.1522215021051503</v>
       </c>
     </row>
     <row r="7">
@@ -6300,75 +5468,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.12943796557776</v>
+        <v>4.346661265372244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1727943560701895</v>
+        <v>0.6229424071464834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.299018662052004</v>
+        <v>-1208.948595802718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3167062535907542</v>
+        <v>0.1499869443411478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1320.972662653293</v>
+        <v>5862.369433182553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02646657024731364</v>
+        <v>7.632570442439152e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1002.666589573901</v>
+        <v>25.54752723309131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1175456410313066</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4226.040884903564</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.299020923563541e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.65121666139545</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2404268832076582</v>
+        <v>0.03795351982414782</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3298.630800237111</v>
+        <v>2534.676209402855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001093356242443696</v>
+        <v>0.001922558103054628</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.60305750725765</v>
+        <v>87.3569984655077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1031283929108901</v>
+        <v>0.193017556413347</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.5010460684299</v>
+        <v>187.6394168153093</v>
       </c>
       <c r="C4" t="n">
-        <v>1.188063579608622e-08</v>
+        <v>3.169602398694026e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05271205703577421</v>
+        <v>0.008420737024397301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06078087513009045</v>
+        <v>0.8287252467152466</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.792554933494762e-06</v>
+        <v>5.099965435416589e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6759965428975354</v>
+        <v>0.1976027265226031</v>
       </c>
     </row>
     <row r="7">
@@ -6479,75 +5621,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.32147898148284</v>
+        <v>4.796200945322294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1625522283478326</v>
+        <v>0.6378482026497674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.040315392043013</v>
+        <v>-1312.6786804794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3269902247904286</v>
+        <v>0.1935210425350193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1283.64667476768</v>
+        <v>2990.155113871549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02318617433216336</v>
+        <v>0.0519558457138307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1540.603908982026</v>
+        <v>17.40336517782783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01578263333569328</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2731.779889042628</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.006959984742994418</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.62360686370701</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04610512148382297</v>
+        <v>0.20345565019405</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2524.284533776659</v>
+        <v>3054.438218891584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003637506803839195</v>
+        <v>0.0001051431653335773</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.0299473892007</v>
+        <v>77.84795156041392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1241915638022397</v>
+        <v>0.1807816513161132</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1867256230662</v>
+        <v>151.07521015925</v>
       </c>
       <c r="C4" t="n">
-        <v>1.814927457923241e-07</v>
+        <v>0.0003504494192127675</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03491776458671477</v>
+        <v>0.09381705963800052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2364240875930698</v>
+        <v>0.02222013381105358</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.61354602424041e-07</v>
+        <v>3.480631852478502e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8985298434240663</v>
+        <v>0.9221195604629219</v>
       </c>
     </row>
     <row r="7">
@@ -6658,75 +5774,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.594407711654558</v>
+        <v>-10.02399344889386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5867766241465128</v>
+        <v>0.2817975435990887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.739972873486842</v>
+        <v>-2206.346507177671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5253133878958534</v>
+        <v>0.01403142979305635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1642.044914119201</v>
+        <v>3649.434812335182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008354392836969945</v>
+        <v>0.005208377393411856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1612.926545842839</v>
+        <v>19.5044591800752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01260951136316408</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4925.006668460126</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.869147964399783e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.75718845095926</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.007372676852609671</v>
+        <v>0.1309878060665781</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3056.046600127119</v>
+        <v>3163.630956391065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004303073786252617</v>
+        <v>0.0002855821341156235</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.10830475807546</v>
+        <v>68.85489296496664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03329377624151898</v>
+        <v>0.3062489765148588</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5584433680708</v>
+        <v>161.6009938526903</v>
       </c>
       <c r="C4" t="n">
-        <v>2.509820571413895e-07</v>
+        <v>0.0007800452443807377</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04866469860803726</v>
+        <v>0.02487056958092076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1066192795155877</v>
+        <v>0.5428616859810891</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.809717936323553e-06</v>
+        <v>5.017754300204245e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6849827331085059</v>
+        <v>0.2198934794184359</v>
       </c>
     </row>
     <row r="7">
@@ -6837,75 +5927,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.570377091558793</v>
+        <v>-1.157737622509691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2849808036252516</v>
+        <v>0.9124502787818267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.147735636789138</v>
+        <v>-1643.891318180262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.441828552651613</v>
+        <v>0.09263388995648078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-775.7263429313989</v>
+        <v>2923.063792164443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1810329877701524</v>
+        <v>0.05208713184021612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1540.35446066531</v>
+        <v>13.92360357939951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02660871450908261</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2688.216169999922</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004113523371721898</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.6703360257816</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08517685648085396</v>
+        <v>0.3414323098433885</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.987132152593</v>
+        <v>2796.399280355285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006795977761261498</v>
+        <v>0.0009677828332013513</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.87956335710364</v>
+        <v>100.0213505281359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4876354375555076</v>
+        <v>0.1228800191021211</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.3463361297379</v>
+        <v>139.7523412549554</v>
       </c>
       <c r="C4" t="n">
-        <v>4.695758520237354e-09</v>
+        <v>0.003644615539142252</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03634887195792944</v>
+        <v>0.04409407894500354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2226529295774575</v>
+        <v>0.2651449420105695</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.060957010098928e-06</v>
+        <v>2.990836766090772e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8690869265371364</v>
+        <v>0.4295697935233215</v>
       </c>
     </row>
     <row r="7">
@@ -7016,75 +6080,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.937051143245505</v>
+        <v>-6.839862288708616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5020272809885615</v>
+        <v>0.5103978079505912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.421727388982504</v>
+        <v>-1249.560682208093</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5475565844190992</v>
+        <v>0.2140094395489543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1799.224762790905</v>
+        <v>4477.683432850667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008125941304907438</v>
+        <v>0.004406636430166865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1546.500716302759</v>
+        <v>16.85907119599003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008123725110743408</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6848.498213316566</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.064344054007648e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.92440466337474</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01592583219568672</v>
+        <v>0.2163033079304746</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3515.790132701592</v>
+        <v>3582.674814849304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001138362581002095</v>
+        <v>4.820834760003935e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.29360338360296</v>
+        <v>51.10754087589342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2824894323220711</v>
+        <v>0.3712760565284823</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.9818593070065</v>
+        <v>167.9741948490546</v>
       </c>
       <c r="C4" t="n">
-        <v>9.965990979223508e-07</v>
+        <v>4.781675366626124e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03216185725100929</v>
+        <v>0.09144180743555885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2739487087832537</v>
+        <v>0.01815839430709791</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.714105336194779e-05</v>
+        <v>-2.807589119950322e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1796891040722229</v>
+        <v>0.4519693858926016</v>
       </c>
     </row>
     <row r="7">
@@ -7195,75 +6233,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.24801864609856</v>
+        <v>-9.479558397974712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177526925461421</v>
+        <v>0.2899424082905063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.838593763218622</v>
+        <v>-1860.693433080961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2838663264319732</v>
+        <v>0.03030497737956967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2097.814889632066</v>
+        <v>3005.125610341914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002037708811458234</v>
+        <v>0.01373030444775566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1446.486225631627</v>
+        <v>8.755946518695094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02197560931555975</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3319.87940438857</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005266874727296025</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.01776374639026</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05310007767224952</v>
+        <v>0.4585084042659431</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4470.149602631745</v>
+        <v>1477.684618127977</v>
       </c>
       <c r="C2" t="n">
-        <v>4.627505806177174e-07</v>
+        <v>0.07067487382379654</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.55302935503204</v>
+        <v>149.0846371252165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6032287410918915</v>
+        <v>0.01767304415141719</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.7666001728667</v>
+        <v>192.6896818329784</v>
       </c>
       <c r="C4" t="n">
-        <v>4.136315358131503e-07</v>
+        <v>1.337119175637677e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01460370639159742</v>
+        <v>0.02398562002212318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5874332682103326</v>
+        <v>0.5068989439145457</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.955502353800735e-06</v>
+        <v>4.893469375580643e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7776339180160324</v>
+        <v>0.188286429253181</v>
       </c>
     </row>
     <row r="7">
@@ -7374,75 +6386,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.35039699260546</v>
+        <v>6.820088035191207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07227155332122062</v>
+        <v>0.4529682431630085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.861645893160693</v>
+        <v>-1609.014628354924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08360206482401732</v>
+        <v>0.08645525768405839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1409.359562913283</v>
+        <v>5987.24291749065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01336438244665703</v>
+        <v>0.0005571045788764733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1246.398272546644</v>
+        <v>22.9174482126184</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05076193196242811</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3049.983141213808</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005829195961867116</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.50089879568414</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2928210003963598</v>
+        <v>0.07616753613454005</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3585.061785982064</v>
+        <v>2530.543780284564</v>
       </c>
       <c r="C2" t="n">
-        <v>3.989963092764837e-05</v>
+        <v>0.002762950352461299</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.59524607981319</v>
+        <v>91.98574680406892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1405849466035978</v>
+        <v>0.1447915542225661</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8810000916214</v>
+        <v>187.8285948096255</v>
       </c>
       <c r="C4" t="n">
-        <v>5.223473242441648e-07</v>
+        <v>3.279122443323853e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006094054538321098</v>
+        <v>0.01450389897857472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8379123017568153</v>
+        <v>0.7287437068555662</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.136661337432013e-07</v>
+        <v>3.403383290738582e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869561794174313</v>
+        <v>0.3441083957987873</v>
       </c>
     </row>
     <row r="7">
@@ -7553,75 +6539,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.648334291657292</v>
+        <v>1.940620674426061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3143882127914067</v>
+        <v>0.8421670696491512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.540338816442192</v>
+        <v>-1667.3766754862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2911246748118027</v>
+        <v>0.07120330354419076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1502.177689897645</v>
+        <v>2725.25191612545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01974107955695922</v>
+        <v>0.04854635647380002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1236.186597929644</v>
+        <v>25.55150608640991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06620306619325524</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3294.335754844506</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005426943398124228</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.24062896829161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1148815232398343</v>
+        <v>0.07479610984978598</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3560.157211144174</v>
+        <v>2825.652734218597</v>
       </c>
       <c r="C2" t="n">
-        <v>4.134709950387612e-05</v>
+        <v>0.001455840746445496</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.06076830922393</v>
+        <v>86.35763015750103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07946764597345017</v>
+        <v>0.1868694538986536</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0874846497333</v>
+        <v>206.5002389479567</v>
       </c>
       <c r="C4" t="n">
-        <v>4.983482287134567e-07</v>
+        <v>2.744975903809699e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02237357202782285</v>
+        <v>0.02045068114144517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4161875135703186</v>
+        <v>0.588269601568831</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.54444525665804e-06</v>
+        <v>7.054479886709907e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8189278638832755</v>
+        <v>0.06143510777123398</v>
       </c>
     </row>
     <row r="7">
@@ -7732,75 +6692,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.887162877680355</v>
+        <v>0.01666759732212597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2129519790592607</v>
+        <v>0.9986715455601793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.598486097266908</v>
+        <v>-1682.119094850093</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1847468869964258</v>
+        <v>0.06859695034870353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.356424319564</v>
+        <v>3317.731822570633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04268047813286443</v>
+        <v>0.02517869920963305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1591.820086674357</v>
+        <v>10.59887136337927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01211541901247936</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4747.572424744521</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.66890970722978e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.29730932218778</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2144238149363545</v>
+        <v>0.4522914931435401</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3852.228982240404</v>
+        <v>2266.333983545138</v>
       </c>
       <c r="C2" t="n">
-        <v>4.887553896256218e-06</v>
+        <v>0.009182031593657018</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.93993589456797</v>
+        <v>126.6914121581839</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4888950824458352</v>
+        <v>0.05857286026571751</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4962969076595</v>
+        <v>166.1625732086923</v>
       </c>
       <c r="C4" t="n">
-        <v>1.947218048308811e-08</v>
+        <v>0.0005270625859462569</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03599404853769844</v>
+        <v>0.04403253335379166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2331486576842527</v>
+        <v>0.2692134438184438</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.508534975778871e-06</v>
+        <v>2.825290277032707e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8199248080895418</v>
+        <v>0.4894751960806796</v>
       </c>
     </row>
     <row r="7">
@@ -7911,75 +6845,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.67371035881612</v>
+        <v>-4.11118761137493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1250291337014569</v>
+        <v>0.6719507943013268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.031708631906927</v>
+        <v>-1388.548402264808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05835691178951048</v>
+        <v>0.1640218735784839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1072.628880141674</v>
+        <v>3706.120262184241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05129725377082187</v>
+        <v>0.008547455957288034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1131.645711631443</v>
+        <v>26.42638852230951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08185396812370914</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2643.818469963638</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003209106245975506</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.38001149699095</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04144478910644517</v>
+        <v>0.0650556242671053</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3646.040282101187</v>
+        <v>3128.500908063209</v>
       </c>
       <c r="C2" t="n">
-        <v>4.992647082609719e-05</v>
+        <v>7.93683245171755e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.16695938546813</v>
+        <v>93.4415541039061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4509439314363264</v>
+        <v>0.1211431078938541</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8105585336326</v>
+        <v>149.7982653748953</v>
       </c>
       <c r="C4" t="n">
-        <v>2.720072376333036e-07</v>
+        <v>0.0003963454252926589</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01236449729737334</v>
+        <v>0.127359505807422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.679347424056161</v>
+        <v>0.001968069223579821</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.24843080795543e-06</v>
+        <v>-2.226138716741375e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571594193984187</v>
+        <v>0.544463192787968</v>
       </c>
     </row>
     <row r="7">
@@ -8090,75 +6998,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.898856816481917</v>
+        <v>-7.79519287778573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3993223395141472</v>
+        <v>0.401327886336776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.896237205258025</v>
+        <v>-2794.025627470759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3498253951145041</v>
+        <v>0.002421448731934942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1539.774105034096</v>
+        <v>3995.166657935132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01018151408754582</v>
+        <v>0.005215005086856695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1159.325661599754</v>
+        <v>16.96897288207366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08030878983631735</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2653.68463658923</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004715605713326518</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.98447668555652</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2261836975006617</v>
+        <v>0.1913122955223823</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3052.251928408271</v>
+        <v>2984.160510265066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005531814435265787</v>
+        <v>0.0003408701901508839</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.81587853459669</v>
+        <v>129.2154231597583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.325445800510055</v>
+        <v>0.04109518272626549</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.2477315352612</v>
+        <v>186.5027794536762</v>
       </c>
       <c r="C4" t="n">
-        <v>2.814303868856156e-06</v>
+        <v>3.366418194488132e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02308105865463891</v>
+        <v>-0.00478273274245769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4120470121725757</v>
+        <v>0.9055045121526344</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.144754722937854e-05</v>
+        <v>6.016772620632481e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1025121607668605</v>
+        <v>0.144217413909444</v>
       </c>
     </row>
     <row r="7">
@@ -8269,75 +7151,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.32636424158909</v>
+        <v>3.034120903698545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04766572163554723</v>
+        <v>0.7663829229720087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.038314613439663</v>
+        <v>-928.7504624836213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6446533579029374</v>
+        <v>0.3501612692346094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2280.400913126316</v>
+        <v>1417.573469319088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001137508567036637</v>
+        <v>0.3457083726191281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1210.71798537667</v>
+        <v>12.14696987583976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04312968758357669</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3530.052977870678</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.750834579206125e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.4949429706594</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002457044334570229</v>
+        <v>0.366064206052474</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3309.429652532791</v>
+        <v>2565.714377493135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002621154007636942</v>
+        <v>0.003142700846905263</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.22910314256384</v>
+        <v>122.741713925811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06461757526402659</v>
+        <v>0.04844291312375153</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.871141462055</v>
+        <v>189.0048585862008</v>
       </c>
       <c r="C4" t="n">
-        <v>1.243618217994088e-06</v>
+        <v>0.0001077739029775425</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005834987686972923</v>
+        <v>0.03452377651692892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8474375150579143</v>
+        <v>0.4206097643923602</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.906264926112799e-05</v>
+        <v>5.066431639683376e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1441278326422968</v>
+        <v>0.1882436594126239</v>
       </c>
     </row>
     <row r="7">
@@ -8448,75 +7304,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.411675140185736</v>
+        <v>1.548957951042471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3882342745247771</v>
+        <v>0.8796686125147188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.020191343563315</v>
+        <v>-1294.204372622484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2697459726396328</v>
+        <v>0.1924719492223267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1406.059790569765</v>
+        <v>2725.354702565376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04360464455927199</v>
+        <v>0.0663775748500301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1316.060647265636</v>
+        <v>15.11396728650237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04452880527356735</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2904.279765661209</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002600401586480964</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.44614697292735</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06501147990816314</v>
+        <v>0.2696998108548955</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3271.196168915063</v>
+        <v>2479.769650560664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001709420991540946</v>
+        <v>0.001504857671570274</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.54327138270102</v>
+        <v>49.39725397994454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08753021126872236</v>
+        <v>0.4114414549497724</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.9289859454197</v>
+        <v>158.0385919543388</v>
       </c>
       <c r="C4" t="n">
-        <v>1.898608678553087e-07</v>
+        <v>0.0002945265335481433</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02722258526813617</v>
+        <v>0.00660622156555922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3474085071861891</v>
+        <v>0.8615468308117123</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.212453422830516e-07</v>
+        <v>1.820103528290394e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9182870633623617</v>
+        <v>0.5815071241638933</v>
       </c>
     </row>
     <row r="7">
@@ -8627,75 +7457,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.760130005350414</v>
+        <v>5.245108381354893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4764017042351975</v>
+        <v>0.5748975679010282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.706417740073391</v>
+        <v>-1302.087952813821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5318483254532389</v>
+        <v>0.1441864338288484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1232.69314727202</v>
+        <v>4900.777370915457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05653285034097117</v>
+        <v>0.0009833149850499898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1647.178552954714</v>
+        <v>18.03257638559933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01204576474658622</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3850.124670017163</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005463904545016506</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.04242556217456</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2747818793952421</v>
+        <v>0.1443660291245443</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3725.682597721297</v>
+        <v>2559.278382313933</v>
       </c>
       <c r="C2" t="n">
-        <v>3.239448612763084e-06</v>
+        <v>0.002364440850590253</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.06437497285538</v>
+        <v>95.06829093148504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5898847994892331</v>
+        <v>0.1317362092452143</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.0321392847586</v>
+        <v>180.6834701412754</v>
       </c>
       <c r="C4" t="n">
-        <v>1.118026182624062e-07</v>
+        <v>5.687905669153839e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02763085655527443</v>
+        <v>0.06879890071260439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2645152636884008</v>
+        <v>0.07608600621611879</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.724636508657717e-06</v>
+        <v>2.205873106061757e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2829658599454987</v>
+        <v>0.555699366571738</v>
       </c>
     </row>
     <row r="7">
@@ -8806,75 +7610,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.96402691084755</v>
+        <v>-6.676783696162438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09681454828195442</v>
+        <v>0.4759248788023684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.517687323645871</v>
+        <v>-1585.96133572805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01820569145926631</v>
+        <v>0.09228924470248086</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2355.083474095459</v>
+        <v>3382.729851829752</v>
       </c>
       <c r="C9" t="n">
-        <v>3.552518729744486e-05</v>
+        <v>0.0269265453768789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1692.172612708542</v>
+        <v>22.78570216233424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003016951227375456</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7111.994422200889</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.022709924395246e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.94838203439097</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01895407569414645</v>
+        <v>0.08650241094380282</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3000.559577131642</v>
+        <v>2998.628356739271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000341211500628274</v>
+        <v>0.0005071010137786901</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.96727554442248</v>
+        <v>102.5711049269022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2947331869008429</v>
+        <v>0.1132832038753179</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.6719153816648</v>
+        <v>170.5418849775538</v>
       </c>
       <c r="C4" t="n">
-        <v>4.975616900828997e-08</v>
+        <v>0.0002796711128321601</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01887961066671924</v>
+        <v>0.01238309596025655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4963193262589941</v>
+        <v>0.7692706710585633</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.538043731849961e-06</v>
+        <v>3.376461009442479e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5961602188054278</v>
+        <v>0.3921691159163876</v>
       </c>
     </row>
     <row r="7">
@@ -8985,75 +7763,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.609284482068727</v>
+        <v>-2.221714103658611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4611541212658353</v>
+        <v>0.8274676996518764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.739705755246021</v>
+        <v>-1014.947864820435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6710354793941159</v>
+        <v>0.2866695359134725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1140.372082835899</v>
+        <v>3167.663031380691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03853527371343454</v>
+        <v>0.02939177722966084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1396.217495354952</v>
+        <v>12.72410012142597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02267850117250261</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2801.92058769507</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002350627971957387</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.03493963862496</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0325470458022589</v>
+        <v>0.351228551669013</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3395.386826406085</v>
+        <v>3045.40415130124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001725351334996468</v>
+        <v>0.0004087370857336419</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.62104559434434</v>
+        <v>76.10111607948468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2930646461726044</v>
+        <v>0.2145508340673604</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2549440938714</v>
+        <v>147.88376358196</v>
       </c>
       <c r="C4" t="n">
-        <v>7.508225771810298e-08</v>
+        <v>0.001864532082580949</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0008810782345981261</v>
+        <v>0.07233394255441974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.97879142663829</v>
+        <v>0.07473377056647701</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.24652974110264e-05</v>
+        <v>1.428607458877115e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4624084102986924</v>
+        <v>0.7140033315962402</v>
       </c>
     </row>
     <row r="7">
@@ -9164,75 +7916,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.275582112948548</v>
+        <v>-4.205631708765349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2662131771332983</v>
+        <v>0.6630361365635206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.562405085008782</v>
+        <v>-2507.566787474211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4420690582658205</v>
+        <v>0.00911700548183853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1653.643255218285</v>
+        <v>3482.674222818049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01430148223302969</v>
+        <v>0.01050857138326854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-911.9237331261533</v>
+        <v>19.27156427685528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1688482446134206</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2964.175634565779</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002253317806962558</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.52177311035837</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1475530919773001</v>
+        <v>0.1629239131499151</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3615.330567741109</v>
+        <v>2789.32032339953</v>
       </c>
       <c r="C2" t="n">
-        <v>7.911462373216625e-05</v>
+        <v>0.0008342702091994017</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.79940321578026</v>
+        <v>99.64719019692977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09430526331332444</v>
+        <v>0.133969353689279</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.4708436015842</v>
+        <v>189.2645978204351</v>
       </c>
       <c r="C4" t="n">
-        <v>1.349677712968614e-05</v>
+        <v>6.584918184431333e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03876131895696838</v>
+        <v>0.01962518092931586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2128426929881155</v>
+        <v>0.6163394984366666</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.811954247753203e-06</v>
+        <v>6.14627463489961e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7958397312240812</v>
+        <v>0.1217540706979672</v>
       </c>
     </row>
     <row r="7">
@@ -9343,75 +8069,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.78571767430838</v>
+        <v>7.093007188546604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1512831645841845</v>
+        <v>0.4981639559932231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.371805299380462</v>
+        <v>-1517.888645379187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3118216454661363</v>
+        <v>0.1215020034236799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1082.704378755642</v>
+        <v>1809.065691069428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06760162372576607</v>
+        <v>0.2268576865942998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1466.3328892915</v>
+        <v>12.09203790615635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04450635566356734</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2891.466892137136</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00212914164291719</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.37985515475395</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.107561332572454</v>
+        <v>0.3886121015070066</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04080456" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04214231" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04347186" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04477827" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ04614330" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ04730300" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04862782" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04997040" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05130476" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ05265102" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ05396986" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ05530689" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ05652441" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ05781542" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ05914500" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06047795" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ06164252" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ06297243" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ06430427" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ06563857" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ06697576" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ06830385" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ06965048" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ07097013" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ07227856" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ07354443" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ07480898" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ07615960" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ07755134" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ07880911" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ08013653" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ08147275" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ08281402" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08398194" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08531939" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ08680369" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ08798079" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08931038" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09066201" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09199668" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09331188" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ09463859" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ09615316" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ09802203" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ09957530" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ10116525" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ10265576" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ10430615" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10581959" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10728044" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ40571502" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40653499" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40755704" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40854826" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ40951766" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41037521" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41137559" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41237593" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41321642" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41420581" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ41527673" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ41626098" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ41732174" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ41830198" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ41932709" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ42049018" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ42159671" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ42255494" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ42354796" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ42461298" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ42557815" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ42657455" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ42763444" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ42865962" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ42964616" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ43064373" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ43170004" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ43292318" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ43397653" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ43497165" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ43594972" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ43698005" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ43796025" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ43895540" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ44111677" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ44211313" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ44313622" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ44454080" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ44555119" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ44654278" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ44738339" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ44840613" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ44936773" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ45037830" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ45121648" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ45220900" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ45320853" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ45421411" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ45520302" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ45605896" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40571502" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40653499" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40755704" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40854826" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ40951766" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41037521" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41137559" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41237593" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ41321642" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ41420581" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ41527673" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ41626098" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ41732174" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ41830198" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ41932709" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ42049018" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ42159671" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ42255494" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ42354796" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ42461298" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ42557815" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ42657455" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ42763444" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ42865962" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ42964616" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ43064373" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ43170004" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ43292318" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ43397653" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ43497165" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ43594972" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ43698005" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ43796025" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ43895540" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ44111677" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ44211313" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ44313622" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ44454080" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ44555119" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ44654278" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ44738339" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ44840613" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ44936773" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ45037830" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ45121648" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ45220900" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ45320853" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ45421411" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ45520302" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ45605896" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ37131640" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ37262412" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37360053" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37457678" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37555360" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37653741" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37751844" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ37849713" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37951209" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38049823" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ38149452" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ38247075" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ38343696" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ38438835" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ38537454" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38636132" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38735758" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ38833375" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ38934041" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39033659" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39130261" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39228884" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ39328511" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ39425128" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39521126" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ39617238" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ39716371" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ39814305" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ39910906" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ40007038" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ40102066" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ40201772" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ40300444" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ40399073" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ40497872" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ40596493" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ40697948" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ40831141" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ40938573" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ41036664" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ41133255" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ41230358" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ41327467" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ41428571" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41553777" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ41665406" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ41763509" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ41860834" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ41956964" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42054083" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2961.793888215538</v>
+        <v>2624.147870575221</v>
       </c>
       <c r="C2" t="n">
-        <v>6.585970488768743e-05</v>
+        <v>0.004631660534009143</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.68446520281452</v>
+        <v>66.96457791181098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08427893057015187</v>
+        <v>0.2532065972749236</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.1168882267255</v>
+        <v>175.2852489606738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002240089276453189</v>
+        <v>2.124191148270322e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08615897284008572</v>
+        <v>-0.01795055861869907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0195667754084624</v>
+        <v>0.5174048180556822</v>
       </c>
     </row>
     <row r="6">
@@ -559,36 +559,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.636028582461896e-05</v>
+        <v>1.359144239673192e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4174689768760549</v>
+        <v>0.7016006868774893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.08940600376306</v>
+        <v>0.04608541741866645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3452630133575931</v>
+        <v>0.9920933106923568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2216.593140505879</v>
+        <v>-1822.475793237712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008395894811203756</v>
+        <v>0.02822555259332955</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6932.055330642849</v>
+        <v>6314.33186699263</v>
       </c>
       <c r="C9" t="n">
-        <v>1.711447992395175e-06</v>
+        <v>4.638310190987698e-06</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.227129244515275</v>
+        <v>10.62545997849197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4817517417288606</v>
+        <v>0.3772102573432574</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2334.392419160729</v>
+        <v>2828.281008630771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002396522751210331</v>
+        <v>0.002415028311989215</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.8222760189185</v>
+        <v>102.816995108294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03693505134740321</v>
+        <v>0.0881797113269311</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.0721776417635</v>
+        <v>173.4640009341419</v>
       </c>
       <c r="C4" t="n">
-        <v>5.688583752860513e-05</v>
+        <v>2.737181475187561e-06</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0161100401823054</v>
+        <v>-0.03955593749573162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.656659989965908</v>
+        <v>0.1577176638425258</v>
       </c>
     </row>
     <row r="6">
@@ -712,36 +712,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.399273887513893e-05</v>
+        <v>4.536503700216001e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6789531540463604</v>
+        <v>0.1997199651959427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.077075042834878</v>
+        <v>-3.193659130673469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8177118287531697</v>
+        <v>0.5025580148244488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1465.611183492214</v>
+        <v>-1919.379728588884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09910106177512663</v>
+        <v>0.01945506089598142</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6151.600287627089</v>
+        <v>6038.278942550731</v>
       </c>
       <c r="C9" t="n">
-        <v>6.847948910726147e-05</v>
+        <v>2.244638735518417e-05</v>
       </c>
     </row>
     <row r="10">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.23955910479832</v>
+        <v>16.49403201430009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2241644156588501</v>
+        <v>0.1846018711991762</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2448.077979108036</v>
+        <v>2609.718431581423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003796934893512907</v>
+        <v>0.01054663022412174</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.4385581478166</v>
+        <v>86.27423311525004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07477200481806588</v>
+        <v>0.1930683402116601</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.4990372439378</v>
+        <v>204.4284949790538</v>
       </c>
       <c r="C4" t="n">
-        <v>7.764686607223248e-05</v>
+        <v>2.047523491302957e-06</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0225524072865179</v>
+        <v>-0.02329013597723205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5608078191755336</v>
+        <v>0.4447539573772251</v>
       </c>
     </row>
     <row r="6">
@@ -865,36 +865,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.781932256276951e-05</v>
+        <v>8.718875999838404e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1305656745708311</v>
+        <v>0.03333896095806107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.431164164237352</v>
+        <v>-0.8441485135410289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8985263774282166</v>
+        <v>0.8727099271461172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1397.323611394091</v>
+        <v>-1707.174234136909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1474270687146775</v>
+        <v>0.07027779836997528</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3501.942528453631</v>
+        <v>3472.556458126886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01622745266599961</v>
+        <v>0.00750345064257735</v>
       </c>
     </row>
     <row r="10">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.48131102247818</v>
+        <v>17.08083665167948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2158184244414528</v>
+        <v>0.1994162936736034</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.165573889913</v>
+        <v>2492.729701246261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009670418861185935</v>
+        <v>0.0227932472875686</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.8183549907176</v>
+        <v>107.3446904646241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03934805454746392</v>
+        <v>0.09246440143913758</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.2133734771619</v>
+        <v>187.8631797631563</v>
       </c>
       <c r="C4" t="n">
-        <v>9.642481251909156e-05</v>
+        <v>7.868863218156672e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03129910552531061</v>
+        <v>-0.02994099965502359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4290334818526622</v>
+        <v>0.3089205326667437</v>
       </c>
     </row>
     <row r="6">
@@ -1018,36 +1018,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.130317123290925e-05</v>
+        <v>9.02873913045975e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.085487923539471</v>
+        <v>0.01490917984463236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.136739596695232</v>
+        <v>0.9987575246394087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.411846960389635</v>
+        <v>0.8498061775170029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-848.9196521993108</v>
+        <v>-2077.419118021097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4431267534467981</v>
+        <v>0.01700739240795046</v>
       </c>
     </row>
     <row r="9">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2866.677403457463</v>
+        <v>2288.029451259982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03996391934183231</v>
+        <v>0.06213054798173913</v>
       </c>
     </row>
     <row r="10">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.29458477756835</v>
+        <v>22.42830480707659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09142263738295681</v>
+        <v>0.1489983776487824</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3619.290449096346</v>
+        <v>3763.016019711061</v>
       </c>
       <c r="C2" t="n">
-        <v>3.755010785883013e-05</v>
+        <v>0.0006146270294562563</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.02530052421082</v>
+        <v>63.38574610962959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1879803186141433</v>
+        <v>0.3367818886221455</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.365831287224</v>
+        <v>171.2538846409459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002626835025110486</v>
+        <v>0.0002962119497268294</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04211859897804861</v>
+        <v>-0.03283754332842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3006762720358285</v>
+        <v>0.301862629233649</v>
       </c>
     </row>
     <row r="6">
@@ -1171,36 +1171,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.543663887736283e-05</v>
+        <v>8.153730839788125e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2596622205207682</v>
+        <v>0.05766571894682862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.221128484868913</v>
+        <v>-2.515891695766346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9061801427554723</v>
+        <v>0.6687156109444665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1928.554068286738</v>
+        <v>-1930.601653562564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04615565036248045</v>
+        <v>0.04325123730580984</v>
       </c>
     </row>
     <row r="9">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2435.084667566996</v>
+        <v>2109.897514247258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1139897440647902</v>
+        <v>0.1225562714224449</v>
       </c>
     </row>
     <row r="10">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.37072786439504</v>
+        <v>8.116761771813298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.70402482745741</v>
+        <v>0.5708199385914401</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.791945408819</v>
+        <v>2519.894237494784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01108805141374851</v>
+        <v>0.009900310350119736</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.69172609962447</v>
+        <v>46.79135048859025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1671763537040477</v>
+        <v>0.4366588519184422</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.3257822042421</v>
+        <v>166.7622381063911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000207511517708336</v>
+        <v>1.212870985437032e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01453901710053492</v>
+        <v>-0.05116664466794328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7229886980773264</v>
+        <v>0.1032029012312673</v>
       </c>
     </row>
     <row r="6">
@@ -1324,36 +1324,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.931219432999802e-05</v>
+        <v>6.024813438094898e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5957399117633146</v>
+        <v>0.1118130901901314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.124035277196157</v>
+        <v>-3.275829398436176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9010819637037043</v>
+        <v>0.4871779916190144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1549.128911026201</v>
+        <v>-2696.353930833156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0783495492709687</v>
+        <v>0.002164761361467831</v>
       </c>
     </row>
     <row r="9">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6535.187484690016</v>
+        <v>6939.413129829605</v>
       </c>
       <c r="C9" t="n">
-        <v>6.707526570828684e-05</v>
+        <v>5.458741219961241e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.83217183207956</v>
+        <v>26.07433271611285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08233794027218769</v>
+        <v>0.04157223732196386</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2891.107277614449</v>
+        <v>3246.332522532492</v>
       </c>
       <c r="C2" t="n">
-        <v>7.714786640387432e-05</v>
+        <v>0.000338110115098352</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.18501348392696</v>
+        <v>26.92525299080111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3649631706717599</v>
+        <v>0.6424009712608403</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.0929639853548</v>
+        <v>187.922916293719</v>
       </c>
       <c r="C4" t="n">
-        <v>1.695680212490619e-05</v>
+        <v>3.044500631071728e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07712112021169336</v>
+        <v>-0.005306213239427038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03495686340386347</v>
+        <v>0.8485159684725538</v>
       </c>
     </row>
     <row r="6">
@@ -1477,36 +1477,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.248246237106376e-05</v>
+        <v>-4.401173086436067e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2640875748813394</v>
+        <v>0.9160800492701943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03433371800414164</v>
+        <v>-4.227685431344838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9967446587357816</v>
+        <v>0.3703855869608654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1999.267283291014</v>
+        <v>-1369.561063968246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01556155685080463</v>
+        <v>0.1215562940694197</v>
       </c>
     </row>
     <row r="9">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2788.836813403446</v>
+        <v>2719.468116522766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03491242868869787</v>
+        <v>0.02961069449339817</v>
       </c>
     </row>
     <row r="10">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.06942685274718</v>
+        <v>20.98481967815015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08217109485860138</v>
+        <v>0.07667949230267367</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2370.884323169845</v>
+        <v>2159.780572125801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002471283859324208</v>
+        <v>0.02393096676455468</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.89851715811415</v>
+        <v>62.00430397073164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1360688621742104</v>
+        <v>0.2878162066707968</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.1230089827903</v>
+        <v>165.3808503335714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003471436267200248</v>
+        <v>1.293309709541802e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03223846633980283</v>
+        <v>-0.01541612331712608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3651417608410206</v>
+        <v>0.5795887043012264</v>
       </c>
     </row>
     <row r="6">
@@ -1630,36 +1630,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.587477722986895e-05</v>
+        <v>5.394926925231833e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4559415795231013</v>
+        <v>0.1307691430907543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.641951275447148</v>
+        <v>1.684640703130544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6087006847081045</v>
+        <v>0.7340600212247704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1042.217539008002</v>
+        <v>-1742.72033363939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2559047918504689</v>
+        <v>0.03286274768849567</v>
       </c>
     </row>
     <row r="9">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5373.524135093907</v>
+        <v>5215.862613949401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003732863226528356</v>
+        <v>0.0002210022128286637</v>
       </c>
     </row>
     <row r="10">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.55031427094722</v>
+        <v>20.97414219793315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09606654975484584</v>
+        <v>0.1049533385953731</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.412974131388</v>
+        <v>4221.469438279615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009819785770995338</v>
+        <v>4.676452398686486e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.9503334739268</v>
+        <v>94.49216088428534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06918687190074632</v>
+        <v>0.1256970324484971</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1459831089423</v>
+        <v>164.6480704736458</v>
       </c>
       <c r="C4" t="n">
-        <v>6.97602809918441e-05</v>
+        <v>5.763341902614789e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008606377291138723</v>
+        <v>-0.05828683068140919</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8352237331870972</v>
+        <v>0.05561690616110775</v>
       </c>
     </row>
     <row r="6">
@@ -1783,36 +1783,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.328787711516421e-05</v>
+        <v>8.326155400385061e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1443819988137919</v>
+        <v>0.02426236426915507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.611046567762976</v>
+        <v>-13.32088081033843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4417635111937642</v>
+        <v>0.01562286195015554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1320.854141785511</v>
+        <v>-1917.184147568445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1971533829907804</v>
+        <v>0.02340601797184119</v>
       </c>
     </row>
     <row r="9">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2152.825471979201</v>
+        <v>1672.022797720399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1192962265777679</v>
+        <v>0.1644926910312113</v>
       </c>
     </row>
     <row r="10">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.52198342904523</v>
+        <v>27.29576267274397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05400367848562558</v>
+        <v>0.03318570104826103</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3445.770096332018</v>
+        <v>3739.475060259244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001471368970832528</v>
+        <v>0.0006946737917852738</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.449635940057</v>
+        <v>77.4561831568613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09094028764265533</v>
+        <v>0.2701771963180065</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.5268073716331</v>
+        <v>196.0651970839868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002618623551044808</v>
+        <v>9.031311025127781e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03456922122787502</v>
+        <v>-0.04038121061364527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3951772030341891</v>
+        <v>0.1985473199562849</v>
       </c>
     </row>
     <row r="6">
@@ -1936,36 +1936,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.017112792040956e-05</v>
+        <v>7.898657852355287e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1864839925882084</v>
+        <v>0.05160230431575768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.174818772844247</v>
+        <v>-2.7438403416408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9095230417741824</v>
+        <v>0.605462411136837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1821.115678384049</v>
+        <v>-2053.07429075912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06242631064546357</v>
+        <v>0.03266732532998353</v>
       </c>
     </row>
     <row r="9">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3484.16916957764</v>
+        <v>3417.035982190323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02361845103426168</v>
+        <v>0.01363298597531554</v>
       </c>
     </row>
     <row r="10">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2729327674877915</v>
+        <v>1.247287410650834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9857979839564877</v>
+        <v>0.9353784661736003</v>
       </c>
     </row>
   </sheetData>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3109.869941389676</v>
+        <v>2625.690734823946</v>
       </c>
       <c r="C2" t="n">
-        <v>8.415284555976033e-05</v>
+        <v>0.00538849486070536</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.9902573074516</v>
+        <v>57.17653687714306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2312493478809932</v>
+        <v>0.3495275155290266</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.921929369158</v>
+        <v>213.1550732243523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001041653048647596</v>
+        <v>8.860037233033381e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08649434710549389</v>
+        <v>0.001625016250492689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02802134616687842</v>
+        <v>0.9562997817082757</v>
       </c>
     </row>
     <row r="6">
@@ -2089,36 +2089,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.777641018701524e-05</v>
+        <v>-1.112201004474766e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1739916301232091</v>
+        <v>0.8171687630721646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.763655701912953</v>
+        <v>0.00311063273414014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5352338312408065</v>
+        <v>0.9994834008602931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1995.492077620348</v>
+        <v>-1241.784896725583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02697891843864749</v>
+        <v>0.2124822064956138</v>
       </c>
     </row>
     <row r="9">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4033.525268304276</v>
+        <v>3708.139078123105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005416232459200162</v>
+        <v>0.005915843888104122</v>
       </c>
     </row>
     <row r="10">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.80951788914276</v>
+        <v>16.18214088958845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2232300522789502</v>
+        <v>0.1944068238160608</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2729.706629618177</v>
+        <v>2450.226324334805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003485073299941591</v>
+        <v>0.02822876510896079</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.59802929076426</v>
+        <v>30.14493336886315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2565419725434366</v>
+        <v>0.6671744976023715</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.7050005838647</v>
+        <v>161.0699514079319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003156307586778523</v>
+        <v>0.0003526875359926313</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02793562592565782</v>
+        <v>-0.02933468581271165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5027467765846073</v>
+        <v>0.3611927657748679</v>
       </c>
     </row>
     <row r="6">
@@ -2242,36 +2242,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.320050330155285e-05</v>
+        <v>8.415435831501906e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2639654866298788</v>
+        <v>0.04038142536467765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.875111074575123</v>
+        <v>3.675976111557736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5621074623907369</v>
+        <v>0.5103575684504777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1142.021532021436</v>
+        <v>-2498.235776866331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2387089292290095</v>
+        <v>0.01001148093436928</v>
       </c>
     </row>
     <row r="9">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3142.482372657572</v>
+        <v>2985.007041132681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03245689160400408</v>
+        <v>0.0246742169598852</v>
       </c>
     </row>
     <row r="10">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.32163321515274</v>
+        <v>22.35215076445522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1145098544884301</v>
+        <v>0.1417212887685053</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3086.154075177949</v>
+        <v>2793.922608698037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005123809030700924</v>
+        <v>0.007109679594979271</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.62400057544542</v>
+        <v>50.71813142109875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1533779448020633</v>
+        <v>0.42079424358587</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0579542170811</v>
+        <v>187.8269526897097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002458947486629623</v>
+        <v>3.824979611173749e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04052160258237494</v>
+        <v>-0.03018107269858966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3184221278428879</v>
+        <v>0.3345384237012332</v>
       </c>
     </row>
     <row r="6">
@@ -2395,36 +2395,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.073862159713423e-05</v>
+        <v>9.417835002328693e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19869635195899</v>
+        <v>0.02424736354919356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.886994332173026</v>
+        <v>1.485856326247735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7764981448273109</v>
+        <v>0.7795305688546544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1861.016413357971</v>
+        <v>-2637.196719464272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04404391010563362</v>
+        <v>0.004365103335813306</v>
       </c>
     </row>
     <row r="9">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2652.103878493211</v>
+        <v>2685.343717031448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06939402311322002</v>
+        <v>0.03652337797509064</v>
       </c>
     </row>
     <row r="10">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.93088266430353</v>
+        <v>17.77823560161741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2490815053261148</v>
+        <v>0.1950294599606845</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2683.608935244806</v>
+        <v>4472.419090672206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001570694849162923</v>
+        <v>2.208722754124269e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.09847970442789</v>
+        <v>18.19666974628967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3834973104074548</v>
+        <v>0.7743707022119506</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.8268807825339</v>
+        <v>200.3799229758302</v>
       </c>
       <c r="C4" t="n">
-        <v>1.677557414766514e-05</v>
+        <v>3.378835222008265e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0179655587226821</v>
+        <v>-0.05140402455929065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6433510796034372</v>
+        <v>0.07752414435144152</v>
       </c>
     </row>
     <row r="6">
@@ -2548,36 +2548,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.574730269874119e-05</v>
+        <v>9.25280920099541e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1281964531410398</v>
+        <v>0.01507872324813376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.950148132577951</v>
+        <v>-13.72264297218048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4520655189265828</v>
+        <v>0.02193471309525633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1619.359231309963</v>
+        <v>-1785.282217736426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09558364854254121</v>
+        <v>0.03417122228337158</v>
       </c>
     </row>
     <row r="9">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1413.315508869196</v>
+        <v>1124.486892694464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3210978423102762</v>
+        <v>0.3633653607144058</v>
       </c>
     </row>
     <row r="10">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.78583309569641</v>
+        <v>24.60710678838253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1648044049410103</v>
+        <v>0.06537333919661449</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3742.671666041246</v>
+        <v>3682.584645273612</v>
       </c>
       <c r="C2" t="n">
-        <v>9.431506208741689e-06</v>
+        <v>0.0002741822632416755</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.44528637402775</v>
+        <v>64.21544279445143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1518463883308755</v>
+        <v>0.3147705263696898</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.4500815017568</v>
+        <v>193.7437132234666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000122717008225993</v>
+        <v>3.218629575233487e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03214452849804871</v>
+        <v>-0.03223137439259736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4312701141489973</v>
+        <v>0.3101752963070654</v>
       </c>
     </row>
     <row r="6">
@@ -2701,36 +2701,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.028504243874176e-05</v>
+        <v>5.901311825414564e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4439249823888805</v>
+        <v>0.1768542086940385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.177090347387399</v>
+        <v>-0.7870256839969656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8258398184415111</v>
+        <v>0.8763864848161039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1732.621751885417</v>
+        <v>-1530.391934788137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06657681880041527</v>
+        <v>0.1099154957552027</v>
       </c>
     </row>
     <row r="9">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2895.145463251311</v>
+        <v>2726.723841924638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04114250430296056</v>
+        <v>0.03426066636274296</v>
       </c>
     </row>
     <row r="10">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.6091746013956758</v>
+        <v>-0.08845476085850112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9638757271097202</v>
+        <v>0.9948531954333358</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3171.679232599765</v>
+        <v>3136.505444266214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004002281532807725</v>
+        <v>0.003052707994084162</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.31682873383988</v>
+        <v>59.49730001633424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1481605712052736</v>
+        <v>0.3691023217669488</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2263906400621</v>
+        <v>155.1981491315977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001234204955700275</v>
+        <v>0.0004315580309642651</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03060997630388082</v>
+        <v>-0.03607388666387422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4409337940824664</v>
+        <v>0.2338257867751891</v>
       </c>
     </row>
     <row r="6">
@@ -2854,36 +2854,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.314404330777707e-05</v>
+        <v>5.609244844015519e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5656934181257949</v>
+        <v>0.1707048068821252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.298598122154431</v>
+        <v>1.703756739838969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8183009900726987</v>
+        <v>0.7481274819544026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1634.603140454924</v>
+        <v>-2880.534861521858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1064078262346879</v>
+        <v>0.002901319375383518</v>
       </c>
     </row>
     <row r="9">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3249.847295865056</v>
+        <v>3176.170710150801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02940272593649254</v>
+        <v>0.01574989672399441</v>
       </c>
     </row>
     <row r="10">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.68609060781896</v>
+        <v>14.71284552355163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3553682329535636</v>
+        <v>0.3115898283749662</v>
       </c>
     </row>
   </sheetData>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2280.047941512679</v>
+        <v>1590.272544977274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003006346616636581</v>
+        <v>0.09921693883520434</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.00424093057144</v>
+        <v>41.39678112421402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1893934691658262</v>
+        <v>0.4766842084840969</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.9435533463503</v>
+        <v>181.1727224013567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009250497174958439</v>
+        <v>1.132143628423429e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1070112767457433</v>
+        <v>0.00605364522614911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005149808841292119</v>
+        <v>0.8362853987454402</v>
       </c>
     </row>
     <row r="6">
@@ -3007,36 +3007,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.501281091268102e-05</v>
+        <v>1.396063104515552e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4636755366018922</v>
+        <v>0.706755928333093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.392973067172612</v>
+        <v>3.132692412011173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2899745492470061</v>
+        <v>0.5146764282623424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2304.135774835221</v>
+        <v>-2002.235051544067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009327632190996405</v>
+        <v>0.02321480587105473</v>
       </c>
     </row>
     <row r="9">
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6459.610331626965</v>
+        <v>5943.907514333519</v>
       </c>
       <c r="C9" t="n">
-        <v>1.06441945786885e-05</v>
+        <v>1.748103440575908e-05</v>
       </c>
     </row>
     <row r="10">
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.36650079437974</v>
+        <v>28.26366585041895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02362906172500326</v>
+        <v>0.02784317516813582</v>
       </c>
     </row>
   </sheetData>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1705.593748995967</v>
+        <v>2611.08832246419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03178640538096315</v>
+        <v>0.00774504146467234</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.1043152372542</v>
+        <v>145.138755651534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005668374602506524</v>
+        <v>0.01922522450483867</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.7755747508632</v>
+        <v>185.4942180801112</v>
       </c>
       <c r="C4" t="n">
-        <v>1.789607630177617e-05</v>
+        <v>3.945921861528007e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006819690598069569</v>
+        <v>-0.04298768136643266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8596754057016026</v>
+        <v>0.151657510984545</v>
       </c>
     </row>
     <row r="6">
@@ -3160,36 +3160,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.190025065046425e-05</v>
+        <v>0.0001149862931236127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03147746370593398</v>
+        <v>0.004875692754060202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.045138005081856</v>
+        <v>-4.805996626296764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6606081557665118</v>
+        <v>0.3242827486259796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-737.8400369072647</v>
+        <v>-1675.987950220852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4053354723751186</v>
+        <v>0.05710700707778959</v>
       </c>
     </row>
     <row r="9">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3757.277750771385</v>
+        <v>3816.695005130875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01348887463290837</v>
+        <v>0.006469093690224817</v>
       </c>
     </row>
     <row r="10">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.50729887166515</v>
+        <v>22.93056438416145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07772089201230682</v>
+        <v>0.06816244986699306</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1778.922498689654</v>
+        <v>2226.071977280313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02334799954424661</v>
+        <v>0.01587600934944379</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.1524475296011</v>
+        <v>138.2701771568437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005775396229885788</v>
+        <v>0.0218450354331199</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6924714155379</v>
+        <v>183.8742033105106</v>
       </c>
       <c r="C4" t="n">
-        <v>6.119057797681002e-05</v>
+        <v>2.826909613873209e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04110522287213793</v>
+        <v>-0.01778805046507614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281390982161104</v>
+        <v>0.5358124748762336</v>
       </c>
     </row>
     <row r="6">
@@ -3313,36 +3313,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.374861131835599e-05</v>
+        <v>6.437770402884291e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5270493797845074</v>
+        <v>0.09199669928475014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.211625242147836</v>
+        <v>-1.030635867351076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8957027891244709</v>
+        <v>0.819930603184134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1146.361571321422</v>
+        <v>-2617.612373500955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2081431580362373</v>
+        <v>0.002435898926306582</v>
       </c>
     </row>
     <row r="9">
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6101.269194455253</v>
+        <v>6061.683075954444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001150401059291706</v>
+        <v>1.578942984763933e-05</v>
       </c>
     </row>
     <row r="10">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.68006035831766</v>
+        <v>18.68878779326561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1142358251039827</v>
+        <v>0.1439707993033981</v>
       </c>
     </row>
   </sheetData>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2761.546984839724</v>
+        <v>2886.58847814557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001758947959526287</v>
+        <v>0.007360118755895424</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.93098441385615</v>
+        <v>16.76246031446215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3088673760771969</v>
+        <v>0.7909634029792485</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.2153441633673</v>
+        <v>203.5478426827821</v>
       </c>
       <c r="C4" t="n">
-        <v>4.300957440919789e-05</v>
+        <v>2.03359385397667e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02556761360726092</v>
+        <v>-0.02647994127396387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5076620892094799</v>
+        <v>0.3704421995795771</v>
       </c>
     </row>
     <row r="6">
@@ -3466,36 +3466,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.889579790797315e-05</v>
+        <v>8.099886306024755e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4745715652293011</v>
+        <v>0.06360219278591399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.523493596245707</v>
+        <v>0.1949309638561338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7265645102262812</v>
+        <v>0.9696575609899742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1640.345796739856</v>
+        <v>-2737.119427847626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07725374554081726</v>
+        <v>0.005468076172262901</v>
       </c>
     </row>
     <row r="9">
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3487.531402812991</v>
+        <v>4100.11374129316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02242949658984915</v>
+        <v>0.003431328702789894</v>
       </c>
     </row>
     <row r="10">
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.55241556797954</v>
+        <v>13.57377952782866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3575451837325108</v>
+        <v>0.3475427698708931</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3204.271761790774</v>
+        <v>3212.6970660826</v>
       </c>
       <c r="C2" t="n">
-        <v>8.664469865890816e-05</v>
+        <v>0.001051769224069356</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.9370930374916</v>
+        <v>79.62685936126562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100638932680116</v>
+        <v>0.2063227382503352</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3857897695025</v>
+        <v>178.6934402118591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003284544134306616</v>
+        <v>1.123463863144547e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02721568012084107</v>
+        <v>-0.03958195429912252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4778409812668474</v>
+        <v>0.1831049608974523</v>
       </c>
     </row>
     <row r="6">
@@ -3619,36 +3619,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.080004825314623e-05</v>
+        <v>8.411609660927179e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1659064528076441</v>
+        <v>0.030203717016942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.993814106792637</v>
+        <v>0.0227546183772338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4754009753871888</v>
+        <v>0.9964695035890592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1297.596547370599</v>
+        <v>-2261.233177388979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1890778810755225</v>
+        <v>0.01178045815498207</v>
       </c>
     </row>
     <row r="9">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2835.938113978979</v>
+        <v>2301.357418368312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05181143654974947</v>
+        <v>0.07611867775990519</v>
       </c>
     </row>
     <row r="10">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.43252010393404</v>
+        <v>12.76472968853002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3105121626667353</v>
+        <v>0.3370605551651641</v>
       </c>
     </row>
   </sheetData>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2700.13424448464</v>
+        <v>2907.467347069975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001824557561186143</v>
+        <v>0.006674502775343898</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.2640230943528</v>
+        <v>79.63200512669439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09377314391106571</v>
+        <v>0.2335696596868691</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.7584235822291</v>
+        <v>179.8365624305623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004418528335477584</v>
+        <v>4.966286758320619e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0202936216875927</v>
+        <v>-0.03832653343991571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635900113615081</v>
+        <v>0.2484261575565672</v>
       </c>
     </row>
     <row r="6">
@@ -3772,36 +3772,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.444077003815241e-05</v>
+        <v>8.175283939800538e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1724719528200015</v>
+        <v>0.05558261473614578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1951789807907334</v>
+        <v>-2.247956394003822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9840524675769252</v>
+        <v>0.6825746037371019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1496.426014023227</v>
+        <v>-1760.492807803013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1165096970646861</v>
+        <v>0.05978973120698458</v>
       </c>
     </row>
     <row r="9">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3142.668641387226</v>
+        <v>3095.975710765337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0306960747300423</v>
+        <v>0.0188681423479739</v>
       </c>
     </row>
     <row r="10">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.66618108713357</v>
+        <v>21.56413254344366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185168348724079</v>
+        <v>0.1221594706891429</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2837.496762766149</v>
+        <v>2862.692881773753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004185075453183935</v>
+        <v>0.003503643670745255</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.4563245878331</v>
+        <v>80.75196551729726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06987242215447945</v>
+        <v>0.1852418421721285</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.8465059543049</v>
+        <v>203.7419108774354</v>
       </c>
       <c r="C4" t="n">
-        <v>3.855781570351316e-05</v>
+        <v>1.024959989290477e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03604278926288414</v>
+        <v>-0.02654191829540133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3236220158897455</v>
+        <v>0.3471911111211646</v>
       </c>
     </row>
     <row r="6">
@@ -3925,36 +3925,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.065917996906181e-05</v>
+        <v>7.144254374911042e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2962872156703271</v>
+        <v>0.09022810882338175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.068269722857742</v>
+        <v>-1.790685247879646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9112452791642919</v>
+        <v>0.7235893850127442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1983.171449769239</v>
+        <v>-1829.56331077777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02988663317779126</v>
+        <v>0.05686288914997041</v>
       </c>
     </row>
     <row r="9">
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2409.953253782433</v>
+        <v>2413.46220940591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.085470005948811</v>
+        <v>0.05141040591915814</v>
       </c>
     </row>
     <row r="10">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.35699447269435</v>
+        <v>20.81783966346847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1522117188939054</v>
+        <v>0.1088567823985202</v>
       </c>
     </row>
   </sheetData>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3293.564431218351</v>
+        <v>4131.94974705363</v>
       </c>
       <c r="C2" t="n">
-        <v>6.19264348052185e-05</v>
+        <v>8.323838111800845e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.66898757329962</v>
+        <v>8.314289298737592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4943252768280643</v>
+        <v>0.8912414356115632</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.6773775902969</v>
+        <v>188.0241434725333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000311593956470326</v>
+        <v>2.392950585746682e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07474814427701884</v>
+        <v>-0.02659487000851361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0582798904739399</v>
+        <v>0.3673330523448533</v>
       </c>
     </row>
     <row r="6">
@@ -4078,36 +4078,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.062899848439341e-06</v>
+        <v>3.067152593183083e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9526094522700865</v>
+        <v>0.4108792220312355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.227785479539087</v>
+        <v>-10.37378706710918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.740989130273264</v>
+        <v>0.07277689679106679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2117.184639058174</v>
+        <v>-565.6496929259715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02847967048639657</v>
+        <v>0.5074341016324584</v>
       </c>
     </row>
     <row r="9">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2767.179386938496</v>
+        <v>1564.070534042928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03665810493547104</v>
+        <v>0.1959776683724817</v>
       </c>
     </row>
     <row r="10">
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.76526128500621</v>
+        <v>19.77132435352085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2709292002467857</v>
+        <v>0.1224603902876301</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3636.551798424058</v>
+        <v>3433.708485734697</v>
       </c>
       <c r="C2" t="n">
-        <v>7.706438326897349e-05</v>
+        <v>0.001006284757318655</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.0274256887622</v>
+        <v>76.71482575727853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1091248698247865</v>
+        <v>0.258739647664409</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.1932773979584</v>
+        <v>160.6821314308486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001509042317376375</v>
+        <v>9.665261723169209e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03395322146201061</v>
+        <v>-0.0433166806842156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3902710325995407</v>
+        <v>0.1515673862188423</v>
       </c>
     </row>
     <row r="6">
@@ -4231,36 +4231,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.680716228822305e-05</v>
+        <v>8.642642402508424e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2161748329495394</v>
+        <v>0.03402718581853271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.404951214773519</v>
+        <v>0.4597669944595424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6556374509556154</v>
+        <v>0.9299745113822977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1826.356069503127</v>
+        <v>-2299.905792365371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05461619559119199</v>
+        <v>0.01493384085672808</v>
       </c>
     </row>
     <row r="9">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2640.18659438409</v>
+        <v>2350.561064865149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07330376510131065</v>
+        <v>0.07484724165909724</v>
       </c>
     </row>
     <row r="10">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.062901632429377</v>
+        <v>9.106943683941683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6313030966856525</v>
+        <v>0.5381757550149069</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2179.243076182265</v>
+        <v>1756.435097498037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003810667264926436</v>
+        <v>0.06689221053208795</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.548178577789</v>
+        <v>45.80284608333665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1389598115806497</v>
+        <v>0.4381570417711356</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.4785029855709</v>
+        <v>198.4244261139658</v>
       </c>
       <c r="C4" t="n">
-        <v>1.763774740072314e-05</v>
+        <v>2.205484199236535e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09519464377222771</v>
+        <v>0.002199449166422174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0149784613110893</v>
+        <v>0.9424826650371212</v>
       </c>
     </row>
     <row r="6">
@@ -4384,36 +4384,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.564663364517143e-05</v>
+        <v>7.149157970250628e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3028773854941993</v>
+        <v>0.8462254153494372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.100674219348544</v>
+        <v>3.152148433022898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8148466218826114</v>
+        <v>0.5156978128877441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2535.047081790501</v>
+        <v>-2113.884302539078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003849704811879234</v>
+        <v>0.01001333705883205</v>
       </c>
     </row>
     <row r="9">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7057.967556805585</v>
+        <v>7427.274906515381</v>
       </c>
       <c r="C9" t="n">
-        <v>2.46945144327362e-05</v>
+        <v>8.571093101160297e-06</v>
       </c>
     </row>
     <row r="10">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.66851096889942</v>
+        <v>18.04152577778168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06974541050453958</v>
+        <v>0.1364118864684599</v>
       </c>
     </row>
   </sheetData>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3068.930030172029</v>
+        <v>3071.991496147725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002939431069861274</v>
+        <v>0.002562320047829124</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.7579370121039</v>
+        <v>109.8271867471716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02586671755394518</v>
+        <v>0.08281477226515711</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.7680991974276</v>
+        <v>195.4169667952334</v>
       </c>
       <c r="C4" t="n">
-        <v>4.765021815657095e-05</v>
+        <v>2.271023923308532e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04762638516259306</v>
+        <v>-0.01141163324515763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2045988233089743</v>
+        <v>0.7023227027230992</v>
       </c>
     </row>
     <row r="6">
@@ -4537,36 +4537,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.755063501883122e-05</v>
+        <v>7.837677391337885e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1362959337539555</v>
+        <v>0.05176736794364968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.721902380017586</v>
+        <v>-0.9457532026212494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8549287152523721</v>
+        <v>0.8475403977257366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1575.307209031329</v>
+        <v>-1770.836574788095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08828011070094906</v>
+        <v>0.05672007157254751</v>
       </c>
     </row>
     <row r="9">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2891.851974029025</v>
+        <v>2918.999223372761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04064478397841763</v>
+        <v>0.02128725883859826</v>
       </c>
     </row>
     <row r="10">
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.207858091702395</v>
+        <v>6.971074665020026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7078991133702105</v>
+        <v>0.6176030664913463</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2824.971913114984</v>
+        <v>3358.675452989908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001447573718934036</v>
+        <v>0.001313971069598325</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.16227170717137</v>
+        <v>76.79690114925641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1854252318578608</v>
+        <v>0.2361990094969239</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.4680080295382</v>
+        <v>172.5173821731034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003554133750300054</v>
+        <v>0.0001775223865790921</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01457322286380728</v>
+        <v>-0.0498894933691088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.72815731816726</v>
+        <v>0.1216921000955122</v>
       </c>
     </row>
     <row r="6">
@@ -4690,36 +4690,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.603076281569599e-05</v>
+        <v>6.597714669758284e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5277488556321659</v>
+        <v>0.1462855717900265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.694813955889057</v>
+        <v>-5.220696331521662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7933416513947136</v>
+        <v>0.3438353196825967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1244.536224148772</v>
+        <v>-1566.915046328129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2183818762076478</v>
+        <v>0.09744587266266345</v>
       </c>
     </row>
     <row r="9">
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3165.327671316955</v>
+        <v>2743.105071962426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03017981891956964</v>
+        <v>0.04137854160547939</v>
       </c>
     </row>
     <row r="10">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.1176686645572</v>
+        <v>22.08333759209084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1211428269010344</v>
+        <v>0.1079291369158258</v>
       </c>
     </row>
   </sheetData>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936.766082061618</v>
+        <v>3570.605745121433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01253250757552069</v>
+        <v>0.000413106710674835</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.64772229145298</v>
+        <v>25.24286326359272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3029226670287645</v>
+        <v>0.6709616301092576</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.9654853035934</v>
+        <v>196.9106795444972</v>
       </c>
       <c r="C4" t="n">
-        <v>3.107860331272625e-06</v>
+        <v>9.659100090060511e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008629109680927727</v>
+        <v>-0.04161831253987906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227039833775648</v>
+        <v>0.1397572343153828</v>
       </c>
     </row>
     <row r="6">
@@ -4843,36 +4843,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.586012506770611e-05</v>
+        <v>9.19173362585938e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1269546570248485</v>
+        <v>0.01609020308031196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.864758957662383</v>
+        <v>-9.278834987220709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376130616614008</v>
+        <v>0.08746540644285311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-626.3422916810105</v>
+        <v>-2120.718963079157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5115316352544468</v>
+        <v>0.01957444191443952</v>
       </c>
     </row>
     <row r="9">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2513.746297219279</v>
+        <v>2555.135278939415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07412501016398029</v>
+        <v>0.03159769810971627</v>
       </c>
     </row>
     <row r="10">
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.52993689051226</v>
+        <v>27.65440074331365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05802808579972893</v>
+        <v>0.02772331885860974</v>
       </c>
     </row>
   </sheetData>
@@ -4944,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2948.403518497011</v>
+        <v>3377.974347064337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001095826996182583</v>
+        <v>0.001396189315662237</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.03105096629875</v>
+        <v>82.50238533106133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1420381506002025</v>
+        <v>0.2043557000862305</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.1332272854896</v>
+        <v>168.9175686333415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003823165162815847</v>
+        <v>4.107043944349408e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01395942529752575</v>
+        <v>-0.05526207766146395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7655238929346107</v>
+        <v>0.1269590469995841</v>
       </c>
     </row>
     <row r="6">
@@ -4996,36 +4996,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.949326589950869e-05</v>
+        <v>0.0001064723163085494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5381443127536002</v>
+        <v>0.04497225245336125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.06163635832891</v>
+        <v>-2.629275446663571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5659990974048204</v>
+        <v>0.6162828831496647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-719.1694919667098</v>
+        <v>-2680.053581806594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.497248132689149</v>
+        <v>0.005415406354316279</v>
       </c>
     </row>
     <row r="9">
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3623.436765774683</v>
+        <v>3404.497588114437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03104897844825664</v>
+        <v>0.02683254343589927</v>
       </c>
     </row>
     <row r="10">
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.07779606160299</v>
+        <v>14.32724732484249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3219670033905201</v>
+        <v>0.3041623727327061</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3314.790620446054</v>
+        <v>4437.453712059445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002197821999112827</v>
+        <v>2.689442513890484e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.24172692974496</v>
+        <v>6.579234773579905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4908043805948953</v>
+        <v>0.9188417657141814</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.3127277201826</v>
+        <v>204.6534818516661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002832092657232734</v>
+        <v>6.530979900414604e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01437617013212249</v>
+        <v>-0.04618258039912919</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7051861945296056</v>
+        <v>0.1161386943389979</v>
       </c>
     </row>
     <row r="6">
@@ -5149,36 +5149,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.466024882420057e-05</v>
+        <v>6.838272248978062e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3386909258460091</v>
+        <v>0.07396185249337177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.193056365328168</v>
+        <v>-9.64464004187073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5486919516820612</v>
+        <v>0.09409033718919085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1769.774862422802</v>
+        <v>-1921.176832587922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06832998047826103</v>
+        <v>0.04997748962464478</v>
       </c>
     </row>
     <row r="9">
@@ -5188,10 +5188,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2474.182690820006</v>
+        <v>2437.878768115003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08655316704462458</v>
+        <v>0.0577213373907865</v>
       </c>
     </row>
     <row r="10">
@@ -5201,10 +5201,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.300830981206374</v>
+        <v>11.90556953259144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6050206377130096</v>
+        <v>0.4000506918241169</v>
       </c>
     </row>
   </sheetData>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3108.107466329811</v>
+        <v>3702.302926196425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002131251922767301</v>
+        <v>0.0002775067907869841</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8382343905954</v>
+        <v>86.06612048077621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07597512612772189</v>
+        <v>0.1842669460194577</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.352444291865</v>
+        <v>169.1541676732691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000968803352567066</v>
+        <v>6.391791988978405e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04264324341179707</v>
+        <v>-0.03432508550395119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2623580434316871</v>
+        <v>0.233840486026414</v>
       </c>
     </row>
     <row r="6">
@@ -5302,36 +5302,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.73055648665128e-05</v>
+        <v>6.906523163857319e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3118579081686964</v>
+        <v>0.07252873743928694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9301780465070273</v>
+        <v>-3.960122367267328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.922924411419268</v>
+        <v>0.4477584359553983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1784.517244304525</v>
+        <v>-2205.091900686877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06420766500632304</v>
+        <v>0.01289565129634201</v>
       </c>
     </row>
     <row r="9">
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2309.669531124581</v>
+        <v>1916.731652836351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1079239054343187</v>
+        <v>0.133683832962647</v>
       </c>
     </row>
     <row r="10">
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.93056354900106</v>
+        <v>15.3049146428124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2726975549607973</v>
+        <v>0.2606175917943022</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1304.688726986716</v>
+        <v>1641.777842452535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0795902834875981</v>
+        <v>0.08003981382905137</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.103054951872</v>
+        <v>136.5001754704151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006629861109881185</v>
+        <v>0.02464419055990299</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7614052938598</v>
+        <v>198.529400655064</v>
       </c>
       <c r="C4" t="n">
-        <v>1.974537786762721e-06</v>
+        <v>1.777321050277949e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01902199138702293</v>
+        <v>-0.01609137037733869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5863548340281466</v>
+        <v>0.5427752316967623</v>
       </c>
     </row>
     <row r="6">
@@ -5455,36 +5455,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.882376977244181e-05</v>
+        <v>7.544388039986549e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1522215021051503</v>
+        <v>0.03454118718083195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.346661265372244</v>
+        <v>-0.1926381228174723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6229424071464834</v>
+        <v>0.9672729179846399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1208.948595802718</v>
+        <v>-1874.113226495051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1499869443411478</v>
+        <v>0.02860803392041063</v>
       </c>
     </row>
     <row r="9">
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5862.369433182553</v>
+        <v>6211.845271570654</v>
       </c>
       <c r="C9" t="n">
-        <v>7.632570442439152e-05</v>
+        <v>5.242220800896741e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5507,10 +5507,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.54752723309131</v>
+        <v>23.2651958979771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03795351982414782</v>
+        <v>0.05658528708681281</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2534.676209402855</v>
+        <v>3896.992233656781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001922558103054628</v>
+        <v>7.958541598520351e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.3569984655077</v>
+        <v>58.13768243448851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193017556413347</v>
+        <v>0.3653388750838824</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.6394168153093</v>
+        <v>186.7205229410515</v>
       </c>
       <c r="C4" t="n">
-        <v>3.169602398694026e-05</v>
+        <v>3.089556009539891e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008420737024397301</v>
+        <v>-0.0513325223249026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8287252467152466</v>
+        <v>0.07403018209578853</v>
       </c>
     </row>
     <row r="6">
@@ -5608,36 +5608,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.099965435416589e-05</v>
+        <v>8.416532410649173e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1976027265226031</v>
+        <v>0.0407333480121236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.796200945322294</v>
+        <v>-9.559379330707282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6378482026497674</v>
+        <v>0.06978115741681699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1312.6786804794</v>
+        <v>-1945.202884000473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1935210425350193</v>
+        <v>0.02332864716264565</v>
       </c>
     </row>
     <row r="9">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2990.155113871549</v>
+        <v>2829.826904204059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0519558457138307</v>
+        <v>0.03574974265679173</v>
       </c>
     </row>
     <row r="10">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.40336517782783</v>
+        <v>21.00196335585908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20345565019405</v>
+        <v>0.1224487378954269</v>
       </c>
     </row>
   </sheetData>
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3054.438218891584</v>
+        <v>1995.974174367977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001051431653335773</v>
+        <v>0.04689952640745783</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.84795156041392</v>
+        <v>44.2476731115525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1807816513161132</v>
+        <v>0.4629295345639619</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.07521015925</v>
+        <v>183.3307690002193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003504494192127675</v>
+        <v>5.371860806299042e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09381705963800052</v>
+        <v>-0.0006011054785984571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02222013381105358</v>
+        <v>0.9850012960051052</v>
       </c>
     </row>
     <row r="6">
@@ -5761,36 +5761,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.480631852478502e-06</v>
+        <v>3.535558930188372e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9221195604629219</v>
+        <v>0.3682128094691124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.02399344889386</v>
+        <v>4.234686277078362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2817975435990887</v>
+        <v>0.3977951133109969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2206.346507177671</v>
+        <v>-1416.64748670679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01403142979305635</v>
+        <v>0.1062387403501807</v>
       </c>
     </row>
     <row r="9">
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3649.434812335182</v>
+        <v>3162.325310371937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005208377393411856</v>
+        <v>0.008549858697732948</v>
       </c>
     </row>
     <row r="10">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.5044591800752</v>
+        <v>22.46930447308194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1309878060665781</v>
+        <v>0.09273831188917742</v>
       </c>
     </row>
   </sheetData>
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3163.630956391065</v>
+        <v>2951.025906926443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002855821341156235</v>
+        <v>0.00649264882450945</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.85489296496664</v>
+        <v>28.14563146266892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3062489765148588</v>
+        <v>0.6781404151393213</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.6009938526903</v>
+        <v>177.8279754765892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007800452443807377</v>
+        <v>6.236266661307032e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02487056958092076</v>
+        <v>-0.03460485208078815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5428616859810891</v>
+        <v>0.2801216712227791</v>
       </c>
     </row>
     <row r="6">
@@ -5914,36 +5914,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.017754300204245e-05</v>
+        <v>8.076609183108952e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2198934794184359</v>
+        <v>0.06227603380103953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.157737622509691</v>
+        <v>0.229118781039146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9124502787818267</v>
+        <v>0.9683677645972992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1643.891318180262</v>
+        <v>-2406.939220702221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09263388995648078</v>
+        <v>0.02629707807233029</v>
       </c>
     </row>
     <row r="9">
@@ -5953,10 +5953,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2923.063792164443</v>
+        <v>3091.961939336222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05208713184021612</v>
+        <v>0.02119712098164845</v>
       </c>
     </row>
     <row r="10">
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.92360357939951</v>
+        <v>18.65141228210847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3414323098433885</v>
+        <v>0.2011069795517947</v>
       </c>
     </row>
   </sheetData>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2796.399280355285</v>
+        <v>3101.919219242072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009677828332013513</v>
+        <v>0.002405053460806297</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.0213505281359</v>
+        <v>71.27520766082009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1228800191021211</v>
+        <v>0.2595062696046502</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.7523412549554</v>
+        <v>158.1799651617079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003644615539142252</v>
+        <v>0.0002011909832609622</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04409407894500354</v>
+        <v>-0.02957660690415936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2651449420105695</v>
+        <v>0.3161776159374761</v>
       </c>
     </row>
     <row r="6">
@@ -6067,36 +6067,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.990836766090772e-05</v>
+        <v>6.271292689541832e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4295697935233215</v>
+        <v>0.1103252155954388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.839862288708616</v>
+        <v>-1.703183119452616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5103978079505912</v>
+        <v>0.7375079295907152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1249.560682208093</v>
+        <v>-2529.729229140592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2140094395489543</v>
+        <v>0.007241701330430789</v>
       </c>
     </row>
     <row r="9">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4477.683432850667</v>
+        <v>4090.528485560071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004406636430166865</v>
+        <v>0.004026744961565785</v>
       </c>
     </row>
     <row r="10">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.85907119599003</v>
+        <v>16.28943429363349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2163033079304746</v>
+        <v>0.2282423353092239</v>
       </c>
     </row>
   </sheetData>
@@ -6168,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3582.674814849304</v>
+        <v>3614.079206336991</v>
       </c>
       <c r="C2" t="n">
-        <v>4.820834760003935e-06</v>
+        <v>6.869886970198667e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.10754087589342</v>
+        <v>47.57006491541977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3712760565284823</v>
+        <v>0.4146481241366309</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9741948490546</v>
+        <v>206.6735457955311</v>
       </c>
       <c r="C4" t="n">
-        <v>4.781675366626124e-05</v>
+        <v>9.22429986735549e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09144180743555885</v>
+        <v>-0.01717929002425241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01815839430709791</v>
+        <v>0.5541509319052751</v>
       </c>
     </row>
     <row r="6">
@@ -6220,36 +6220,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.807589119950322e-05</v>
+        <v>2.738707653185732e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4519693858926016</v>
+        <v>0.5040122037305417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.479558397974712</v>
+        <v>-5.018083974468755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2899424082905063</v>
+        <v>0.3302233789964201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1860.693433080961</v>
+        <v>-1312.540441413807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03030497737956967</v>
+        <v>0.1139555308220118</v>
       </c>
     </row>
     <row r="9">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3005.125610341914</v>
+        <v>2033.495257028956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01373030444775566</v>
+        <v>0.06878682382605314</v>
       </c>
     </row>
     <row r="10">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.755946518695094</v>
+        <v>13.29020188640634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4585084042659431</v>
+        <v>0.2841821127341537</v>
       </c>
     </row>
   </sheetData>
@@ -6321,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1477.684618127977</v>
+        <v>2348.205004130599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07067487382379654</v>
+        <v>0.01877441940244671</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.0846371252165</v>
+        <v>109.8695291972189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01767304415141719</v>
+        <v>0.07315350342671484</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.6896818329784</v>
+        <v>185.9232573713994</v>
       </c>
       <c r="C4" t="n">
-        <v>1.337119175637677e-05</v>
+        <v>2.464607188111033e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02398562002212318</v>
+        <v>-0.028595945785352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5068989439145457</v>
+        <v>0.3006323228262215</v>
       </c>
     </row>
     <row r="6">
@@ -6373,36 +6373,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.893469375580643e-05</v>
+        <v>8.61167983463907e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188286429253181</v>
+        <v>0.02848467274272403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.820088035191207</v>
+        <v>-4.032999182628666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4529682431630085</v>
+        <v>0.3926471211763783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1609.014628354924</v>
+        <v>-2015.632140915188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08645525768405839</v>
+        <v>0.01425000808792048</v>
       </c>
     </row>
     <row r="9">
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5987.24291749065</v>
+        <v>6092.149570724387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005571045788764733</v>
+        <v>0.0001433617375252897</v>
       </c>
     </row>
     <row r="10">
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.9174482126184</v>
+        <v>22.09670443284597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07616753613454005</v>
+        <v>0.08277932935248673</v>
       </c>
     </row>
   </sheetData>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2530.543780284564</v>
+        <v>2409.495021191809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002762950352461299</v>
+        <v>0.02440557277402185</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.98574680406892</v>
+        <v>60.04471735794991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447915542225661</v>
+        <v>0.3464380365660776</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8285948096255</v>
+        <v>198.0783228395899</v>
       </c>
       <c r="C4" t="n">
-        <v>3.279122443323853e-05</v>
+        <v>2.099343796445457e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01450389897857472</v>
+        <v>-0.03286887337966194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7287437068555662</v>
+        <v>0.3173020834111454</v>
       </c>
     </row>
     <row r="6">
@@ -6526,36 +6526,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.403383290738582e-05</v>
+        <v>6.116576487182607e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3441083957987873</v>
+        <v>0.1119081009337426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.940620674426061</v>
+        <v>0.9011520079089337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8421670696491512</v>
+        <v>0.8642905682888751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1667.3766754862</v>
+        <v>-1467.139103867567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07120330354419076</v>
+        <v>0.09783684523530967</v>
       </c>
     </row>
     <row r="9">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2725.25191612545</v>
+        <v>2871.32767697631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04854635647380002</v>
+        <v>0.02122325695848293</v>
       </c>
     </row>
     <row r="10">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.55150608640991</v>
+        <v>25.28902777488209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07479610984978598</v>
+        <v>0.07923535627227203</v>
       </c>
     </row>
   </sheetData>
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2825.652734218597</v>
+        <v>2550.622630842167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001455840746445496</v>
+        <v>0.01846249659977768</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.35763015750103</v>
+        <v>56.40465097372186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1868694538986536</v>
+        <v>0.3921472241450497</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5002389479567</v>
+        <v>222.7451488597657</v>
       </c>
       <c r="C4" t="n">
-        <v>2.744975903809699e-05</v>
+        <v>5.702836436878639e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02045068114144517</v>
+        <v>-0.03437283411924946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.588269601568831</v>
+        <v>0.2372957678348935</v>
       </c>
     </row>
     <row r="6">
@@ -6679,36 +6679,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.054479886709907e-05</v>
+        <v>9.908224447376573e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06143510777123398</v>
+        <v>0.0148603284271764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01666759732212597</v>
+        <v>-0.2819650249335606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986715455601793</v>
+        <v>0.9591625868658873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1682.119094850093</v>
+        <v>-1746.88874880886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06859695034870353</v>
+        <v>0.05712249700016968</v>
       </c>
     </row>
     <row r="9">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3317.731822570633</v>
+        <v>3539.595376627289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02517869920963305</v>
+        <v>0.00853680097381317</v>
       </c>
     </row>
     <row r="10">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.59887136337927</v>
+        <v>15.63708318563991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4522914931435401</v>
+        <v>0.2685883209166477</v>
       </c>
     </row>
   </sheetData>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2266.333983545138</v>
+        <v>2239.997843248731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009182031593657018</v>
+        <v>0.03155433931215348</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.6914121581839</v>
+        <v>94.53445669090667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05857286026571751</v>
+        <v>0.1558649853658894</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.1625732086923</v>
+        <v>181.20675528393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005270625859462569</v>
+        <v>2.585266391599366e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04403253335379166</v>
+        <v>-0.01913092041507578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2692134438184438</v>
+        <v>0.5251486125448588</v>
       </c>
     </row>
     <row r="6">
@@ -6832,36 +6832,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.825290277032707e-05</v>
+        <v>5.810750763832967e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4894751960806796</v>
+        <v>0.1834396255297143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.11118761137493</v>
+        <v>0.01449514866437074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6719507943013268</v>
+        <v>0.9978322230667144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1388.548402264808</v>
+        <v>-1880.310200872131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1640218735784839</v>
+        <v>0.06291937898374211</v>
       </c>
     </row>
     <row r="9">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3706.120262184241</v>
+        <v>3326.110403109457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008547455957288034</v>
+        <v>0.009006828487715939</v>
       </c>
     </row>
     <row r="10">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.42638852230951</v>
+        <v>27.40188728494675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0650556242671053</v>
+        <v>0.05634655241329555</v>
       </c>
     </row>
   </sheetData>
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3128.500908063209</v>
+        <v>2442.773662918606</v>
       </c>
       <c r="C2" t="n">
-        <v>7.93683245171755e-05</v>
+        <v>0.01407248492831003</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.4415541039061</v>
+        <v>63.16272579116749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1211431078938541</v>
+        <v>0.3178729177473723</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.7982653748953</v>
+        <v>177.1231123737691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003963454252926589</v>
+        <v>1.771099828728811e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.127359505807422</v>
+        <v>0.01195570209411458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001968069223579821</v>
+        <v>0.7086813117522804</v>
       </c>
     </row>
     <row r="6">
@@ -6985,36 +6985,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.226138716741375e-05</v>
+        <v>1.455860657810584e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.544463192787968</v>
+        <v>0.7176080412456557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.79519287778573</v>
+        <v>2.578864256185376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401327886336776</v>
+        <v>0.6085626847938581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2794.025627470759</v>
+        <v>-1516.557935596482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002421448731934942</v>
+        <v>0.09174911481623341</v>
       </c>
     </row>
     <row r="9">
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3995.166657935132</v>
+        <v>3922.223665962533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005215005086856695</v>
+        <v>0.004244868676891857</v>
       </c>
     </row>
     <row r="10">
@@ -7037,10 +7037,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.96897288207366</v>
+        <v>14.8796684544341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1913122955223823</v>
+        <v>0.275704814270816</v>
       </c>
     </row>
   </sheetData>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2984.160510265066</v>
+        <v>3815.809323228591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003408701901508839</v>
+        <v>0.0001128447362693088</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.2154231597583</v>
+        <v>90.8764203761442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04109518272626549</v>
+        <v>0.134973574303874</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.5027794536762</v>
+        <v>182.3823300070408</v>
       </c>
       <c r="C4" t="n">
-        <v>3.366418194488132e-05</v>
+        <v>3.837336120736067e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00478273274245769</v>
+        <v>-0.05186360477981861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9055045121526344</v>
+        <v>0.09571733176903688</v>
       </c>
     </row>
     <row r="6">
@@ -7138,36 +7138,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.016772620632481e-05</v>
+        <v>0.0001185637530552019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144217413909444</v>
+        <v>0.005538610569689026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.034120903698545</v>
+        <v>-2.133264980050781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7663829229720087</v>
+        <v>0.6686019218304222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-928.7504624836213</v>
+        <v>-3041.21212018967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3501612692346094</v>
+        <v>0.000690371174512392</v>
       </c>
     </row>
     <row r="9">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1417.573469319088</v>
+        <v>1260.818968632278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3457083726191281</v>
+        <v>0.3210729755071848</v>
       </c>
     </row>
     <row r="10">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.14696987583976</v>
+        <v>10.76541831334514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.366064206052474</v>
+        <v>0.4081433404845406</v>
       </c>
     </row>
   </sheetData>
@@ -7239,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2565.714377493135</v>
+        <v>2985.873222392625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003142700846905263</v>
+        <v>0.004826591246585248</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.741713925811</v>
+        <v>96.31251497818334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04844291312375153</v>
+        <v>0.1220824893276628</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.0048585862008</v>
+        <v>193.7812392001158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001077739029775425</v>
+        <v>7.943482688942257e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03452377651692892</v>
+        <v>-0.01819945365569919</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4206097643923602</v>
+        <v>0.595672130262191</v>
       </c>
     </row>
     <row r="6">
@@ -7291,36 +7291,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.066431639683376e-05</v>
+        <v>8.021279143468176e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1882436594126239</v>
+        <v>0.04670569020225394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.548957951042471</v>
+        <v>-2.097028726912283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8796686125147188</v>
+        <v>0.6948015067059661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1294.204372622484</v>
+        <v>-1784.043445379167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1924719492223267</v>
+        <v>0.05109683375072296</v>
       </c>
     </row>
     <row r="9">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2725.354702565376</v>
+        <v>2745.727749677385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0663775748500301</v>
+        <v>0.04107242558230197</v>
       </c>
     </row>
     <row r="10">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.11396728650237</v>
+        <v>14.812916414719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2696998108548955</v>
+        <v>0.2763972121111815</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2479.769650560664</v>
+        <v>4140.956890024838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001504857671570274</v>
+        <v>2.036995561374601e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.39725397994454</v>
+        <v>25.66262967968177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4114414549497724</v>
+        <v>0.6573174958100676</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.0385919543388</v>
+        <v>159.8949603684697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002945265335481433</v>
+        <v>2.836224285818103e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00660622156555922</v>
+        <v>-0.05643148947124287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8615468308117123</v>
+        <v>0.04926748463503448</v>
       </c>
     </row>
     <row r="6">
@@ -7444,36 +7444,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.820103528290394e-05</v>
+        <v>5.018808798975117e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5815071241638933</v>
+        <v>0.1383586743611083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.245108381354893</v>
+        <v>-11.20273240564491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5748975679010282</v>
+        <v>0.02457071288345467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1302.087952813821</v>
+        <v>-1795.899395228293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1441864338288484</v>
+        <v>0.0276991650788575</v>
       </c>
     </row>
     <row r="9">
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4900.777370915457</v>
+        <v>4566.894409539724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009833149850499898</v>
+        <v>0.0008232555277583553</v>
       </c>
     </row>
     <row r="10">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.03257638559933</v>
+        <v>19.51034267259989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1443660291245443</v>
+        <v>0.1041813587559109</v>
       </c>
     </row>
   </sheetData>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2559.278382313933</v>
+        <v>1786.133587012392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002364440850590253</v>
+        <v>0.08783409090626472</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.06829093148504</v>
+        <v>72.29522842569676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1317362092452143</v>
+        <v>0.2603010635554999</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.6834701412754</v>
+        <v>204.3487989391485</v>
       </c>
       <c r="C4" t="n">
-        <v>5.687905669153839e-05</v>
+        <v>1.120006585977871e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06879890071260439</v>
+        <v>-0.0002608176923735855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07608600621611879</v>
+        <v>0.9929642092767854</v>
       </c>
     </row>
     <row r="6">
@@ -7597,36 +7597,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.205873106061757e-05</v>
+        <v>5.375340404098443e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.555699366571738</v>
+        <v>0.1899213831936233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.676783696162438</v>
+        <v>3.151945702547136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4759248788023684</v>
+        <v>0.5435986726562112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1585.96133572805</v>
+        <v>-1172.992296696499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09228924470248086</v>
+        <v>0.1932795763695856</v>
       </c>
     </row>
     <row r="9">
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3382.729851829752</v>
+        <v>3398.107310340137</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0269265453768789</v>
+        <v>0.01948447559648879</v>
       </c>
     </row>
     <row r="10">
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.78570216233424</v>
+        <v>23.70740407185388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08650241094380282</v>
+        <v>0.07861685447718472</v>
       </c>
     </row>
   </sheetData>
@@ -7698,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2998.628356739271</v>
+        <v>3117.233635254945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005071010137786901</v>
+        <v>0.002900883691976475</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.5711049269022</v>
+        <v>77.19703682676688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1132832038753179</v>
+        <v>0.2298171662969783</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.5418849775538</v>
+        <v>178.7583205355599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002796711128321601</v>
+        <v>2.142452369779179e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01238309596025655</v>
+        <v>-0.03272096172076344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7692706710585633</v>
+        <v>0.3156218165359053</v>
       </c>
     </row>
     <row r="6">
@@ -7750,36 +7750,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.376461009442479e-05</v>
+        <v>6.068113082269223e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3921691159163876</v>
+        <v>0.138759441452638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.221714103658611</v>
+        <v>-0.3193764625164377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8274676996518764</v>
+        <v>0.9538312703115247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1014.947864820435</v>
+        <v>-1900.383530423866</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2866695359134725</v>
+        <v>0.03582091886102015</v>
       </c>
     </row>
     <row r="9">
@@ -7789,10 +7789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3167.663031380691</v>
+        <v>3107.129490574909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02939177722966084</v>
+        <v>0.01665678859088753</v>
       </c>
     </row>
     <row r="10">
@@ -7802,10 +7802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.72410012142597</v>
+        <v>12.88712854211193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351228551669013</v>
+        <v>0.3454672015311033</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.40415130124</v>
+        <v>2975.146083687207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004087370857336419</v>
+        <v>0.003444650709893843</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.10111607948468</v>
+        <v>37.12022847299628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2145508340673604</v>
+        <v>0.5537033983119224</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.88376358196</v>
+        <v>180.7658234375089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001864532082580949</v>
+        <v>3.259410276963278e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07233394255441974</v>
+        <v>-0.02470577131154904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07473377056647701</v>
+        <v>0.4306142923258821</v>
       </c>
     </row>
     <row r="6">
@@ -7903,36 +7903,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.428607458877115e-05</v>
+        <v>5.874685981001141e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7140033315962402</v>
+        <v>0.1688449744015996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.205631708765349</v>
+        <v>-1.191917389432299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6630361365635206</v>
+        <v>0.8105427656991184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2507.566787474211</v>
+        <v>-2264.533282196137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00911700548183853</v>
+        <v>0.02147318274591618</v>
       </c>
     </row>
     <row r="9">
@@ -7942,10 +7942,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3482.674222818049</v>
+        <v>3105.139121331958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01050857138326854</v>
+        <v>0.01334270603660599</v>
       </c>
     </row>
     <row r="10">
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.27156427685528</v>
+        <v>19.61931782628075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1629239131499151</v>
+        <v>0.1627577890408092</v>
       </c>
     </row>
   </sheetData>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2789.32032339953</v>
+        <v>4501.902767146629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008342702091994017</v>
+        <v>1.582818074746033e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.64719019692977</v>
+        <v>53.87236129142875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133969353689279</v>
+        <v>0.3972536797498483</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.2645978204351</v>
+        <v>183.0568525816937</v>
       </c>
       <c r="C4" t="n">
-        <v>6.584918184431333e-05</v>
+        <v>1.887403388746113e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01962518092931586</v>
+        <v>-0.051418658348704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6163394984366666</v>
+        <v>0.08496208523827277</v>
       </c>
     </row>
     <row r="6">
@@ -8056,36 +8056,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.14627463489961e-05</v>
+        <v>0.000109298203784228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1217540706979672</v>
+        <v>0.008203220502958027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.093007188546604</v>
+        <v>-10.5147148401997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4981639559932231</v>
+        <v>0.05934484171905478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1517.888645379187</v>
+        <v>-2529.358833673139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1215020034236799</v>
+        <v>0.007022012313265571</v>
       </c>
     </row>
     <row r="9">
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1809.065691069428</v>
+        <v>1532.54099187953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2268576865942998</v>
+        <v>0.2255181070871409</v>
       </c>
     </row>
     <row r="10">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.09203790615635</v>
+        <v>14.84317935926646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3886121015070066</v>
+        <v>0.2757808219328287</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_LR/Germany_other.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37131640" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ37262412" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37360053" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37457678" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37555360" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37653741" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37751844" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37849713" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37951209" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ38049823" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ38149452" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ38247075" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ38343696" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ38438835" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ38537454" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38636132" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38735758" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ38833375" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ38934041" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39033659" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39130261" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39228884" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ39328511" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ39425128" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39521126" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ39617238" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ39716371" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ39814305" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ39910906" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ40007038" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ40102066" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ40201772" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ40300444" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ40399073" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ40497872" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ40596493" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ40697948" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ40831141" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ40938573" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ41036664" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ41133255" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ41230358" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ41327467" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ41428571" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ41553777" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ41665406" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ41763509" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ41860834" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ41956964" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ42054083" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ04788589" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04893928" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04989950" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05084459" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ05179967" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ05275220" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ05367239" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ05461264" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05553378" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05645745" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ05736454" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ05829542" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ05922051" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ06014073" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ06107525" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06201038" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ06293063" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ06384084" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ06478118" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ06569671" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ06662185" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ06756213" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ06848214" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ06942580" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ07034086" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ07127067" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ07217490" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07310996" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07402018" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07495040" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ07587140" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ07679648" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ07769158" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ07862127" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ07955127" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ08047130" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08141940" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08235443" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ08329466" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ08422975" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ08517680" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ08609704" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ08702753" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ08799588" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ08894610" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ08990602" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ09083622" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ09178881" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ09273600" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ09366113" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2624.147870575221</v>
+        <v>2624.147870579189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004631660534009143</v>
+        <v>0.004631660533914097</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.96457791181098</v>
+        <v>66.96457791671597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2532065972749236</v>
+        <v>0.2532065972747191</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2852489606738</v>
+        <v>175.2852489583264</v>
       </c>
       <c r="C4" t="n">
-        <v>2.124191148270322e-06</v>
+        <v>2.124191149277158e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01795055861869907</v>
+        <v>-1.795055861888757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5174048180556822</v>
+        <v>0.5174048180511124</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.359144239673192e-05</v>
+        <v>13.59144238057448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7016006868774893</v>
+        <v>0.7016006872037293</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04608541741866645</v>
+        <v>0.04608541741866823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9920933106923568</v>
+        <v>0.9920933106923565</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1822.475793237712</v>
+        <v>-18.22475793237716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02822555259332955</v>
+        <v>0.0282255525933293</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6314.33186699263</v>
+        <v>63.14331866992627</v>
       </c>
       <c r="C9" t="n">
-        <v>4.638310190987698e-06</v>
+        <v>4.63831019098788e-06</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.62545997849197</v>
+        <v>10.62545997849199</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3772102573432574</v>
+        <v>0.3772102573432566</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2828.281008630771</v>
+        <v>2828.281008420216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002415028311989215</v>
+        <v>0.002415028314139432</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.816995108294</v>
+        <v>102.8169951220949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0881797113269311</v>
+        <v>0.088179711327043</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.4640009341419</v>
+        <v>173.4640009413381</v>
       </c>
       <c r="C4" t="n">
-        <v>2.737181475187561e-06</v>
+        <v>2.737181472263664e-06</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03955593749573162</v>
+        <v>-3.955593749664616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1577176638425258</v>
+        <v>0.1577176638329545</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.536503700216001e-05</v>
+        <v>45.36503703596594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1997199651959427</v>
+        <v>0.1997199649055421</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.193659130673469</v>
+        <v>-3.19365913067344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5025580148244488</v>
+        <v>0.5025580148244526</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1919.379728588884</v>
+        <v>-19.19379728588895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01945506089598142</v>
+        <v>0.01945506089598077</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6038.278942550731</v>
+        <v>60.38278942550725</v>
       </c>
       <c r="C9" t="n">
-        <v>2.244638735518417e-05</v>
+        <v>2.244638735518396e-05</v>
       </c>
     </row>
     <row r="10">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.49403201430009</v>
+        <v>16.4940320143002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1846018711991762</v>
+        <v>0.184601871199173</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2609.718431581423</v>
+        <v>2609.718431551576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01054663022412174</v>
+        <v>0.01054663022524913</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.27423311525004</v>
+        <v>86.27423311139819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1930683402116601</v>
+        <v>0.1930683402116477</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.4284949790538</v>
+        <v>204.4284949776833</v>
       </c>
       <c r="C4" t="n">
-        <v>2.047523491302957e-06</v>
+        <v>2.047523491704255e-06</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02329013597723205</v>
+        <v>-2.329013597861517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4447539573772251</v>
+        <v>0.444753957349866</v>
       </c>
     </row>
     <row r="6">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.718875999838404e-05</v>
+        <v>87.18875998178913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03333896095806107</v>
+        <v>0.03333896098764748</v>
       </c>
     </row>
     <row r="7">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8441485135410289</v>
+        <v>-0.8441485135409366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8727099271461172</v>
+        <v>0.8727099271461309</v>
       </c>
     </row>
     <row r="8">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1707.174234136909</v>
+        <v>-17.07174234136907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07027779836997528</v>
+        <v>0.07027779836997547</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3472.556458126886</v>
+        <v>34.72556458126881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00750345064257735</v>
+        <v>0.007503450642577394</v>
       </c>
     </row>
     <row r="10">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.08083665167948</v>
+        <v>17.08083665167947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1994162936736034</v>
+        <v>0.1994162936736038</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2492.729701246261</v>
+        <v>2492.729701044801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227932472875686</v>
+        <v>0.02279324730041752</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.3446904646241</v>
+        <v>107.3446904658774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09246440143913758</v>
+        <v>0.09246440143904872</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8631797631563</v>
+        <v>187.8631797552636</v>
       </c>
       <c r="C4" t="n">
-        <v>7.868863218156672e-06</v>
+        <v>7.868863227870442e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02994099965502359</v>
+        <v>-2.99409996545956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3089205326667437</v>
+        <v>0.3089205326738274</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.02873913045975e-05</v>
+        <v>90.28739129834781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01490917984463236</v>
+        <v>0.01490917984774081</v>
       </c>
     </row>
     <row r="7">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9987575246394087</v>
+        <v>0.9987575246393714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8498061775170029</v>
+        <v>0.8498061775170086</v>
       </c>
     </row>
     <row r="8">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2077.419118021097</v>
+        <v>-20.77419118021089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01700739240795046</v>
+        <v>0.01700739240795107</v>
       </c>
     </row>
     <row r="9">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2288.029451259982</v>
+        <v>22.88029451259976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06213054798173913</v>
+        <v>0.06213054798173981</v>
       </c>
     </row>
     <row r="10">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.42830480707659</v>
+        <v>22.4283048070766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1489983776487824</v>
+        <v>0.1489983776487821</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3763.016019711061</v>
+        <v>3763.016019627185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006146270294562563</v>
+        <v>0.0006146270297509826</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.38574610962959</v>
+        <v>63.38574611497873</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3367818886221455</v>
+        <v>0.3367818886222477</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2538846409459</v>
+        <v>171.2538846401339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002962119497268294</v>
+        <v>0.0002962119497580003</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03283754332842</v>
+        <v>-3.28375433295691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301862629233649</v>
+        <v>0.3018626292155371</v>
       </c>
     </row>
     <row r="6">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.153730839788125e-05</v>
+        <v>81.53730839463836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05766571894682862</v>
+        <v>0.0576657189703562</v>
       </c>
     </row>
     <row r="7">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.515891695766346</v>
+        <v>-2.515891695766358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6687156109444665</v>
+        <v>0.6687156109444651</v>
       </c>
     </row>
     <row r="8">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1930.601653562564</v>
+        <v>-19.30601653562561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04325123730580984</v>
+        <v>0.04325123730580997</v>
       </c>
     </row>
     <row r="9">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2109.897514247258</v>
+        <v>21.09897514247262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1225562714224449</v>
+        <v>0.1225562714224438</v>
       </c>
     </row>
     <row r="10">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.116761771813298</v>
+        <v>8.116761771813259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5708199385914401</v>
+        <v>0.5708199385914412</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2519.894237494784</v>
+        <v>2519.894237375604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009900310350119736</v>
+        <v>0.009900310354906669</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.79135048859025</v>
+        <v>46.79135048923698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4366588519184422</v>
+        <v>0.4366588519187322</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.7622381063911</v>
+        <v>166.7622381073986</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212870985437032e-05</v>
+        <v>1.212870985213669e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05116664466794328</v>
+        <v>-5.116664466889659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1032029012312673</v>
+        <v>0.1032029012239764</v>
       </c>
     </row>
     <row r="6">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.024813438094898e-05</v>
+        <v>60.24813437973091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1118130901901314</v>
+        <v>0.1118130902210754</v>
       </c>
     </row>
     <row r="7">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.275829398436176</v>
+        <v>-3.275829398436134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4871779916190144</v>
+        <v>0.487177991619019</v>
       </c>
     </row>
     <row r="8">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2696.353930833156</v>
+        <v>-26.96353930833141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002164761361467831</v>
+        <v>0.002164761361467998</v>
       </c>
     </row>
     <row r="9">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6939.413129829605</v>
+        <v>69.39413129829592</v>
       </c>
       <c r="C9" t="n">
-        <v>5.458741219961241e-06</v>
+        <v>5.458741219961384e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.07433271611285</v>
+        <v>26.07433271611277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04157223732196386</v>
+        <v>0.04157223732196484</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3246.332522532492</v>
+        <v>3246.332522528237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000338110115098352</v>
+        <v>0.0003381101151150793</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.92525299080111</v>
+        <v>26.92525298538788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6424009712608403</v>
+        <v>0.642400971260687</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.922916293719</v>
+        <v>187.9229162924865</v>
       </c>
       <c r="C4" t="n">
-        <v>3.044500631071728e-07</v>
+        <v>3.044500632123228e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005306213239427038</v>
+        <v>-0.5306213239207693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8485159684725538</v>
+        <v>0.8485159684788779</v>
       </c>
     </row>
     <row r="6">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.401173086436067e-06</v>
+        <v>-4.401173082427732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9160800492701943</v>
+        <v>0.9160800493444872</v>
       </c>
     </row>
     <row r="7">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.227685431344838</v>
+        <v>-4.227685431344749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3703855869608654</v>
+        <v>0.3703855869608746</v>
       </c>
     </row>
     <row r="8">
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1369.561063968246</v>
+        <v>-13.69561063968246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1215562940694197</v>
+        <v>0.1215562940694198</v>
       </c>
     </row>
     <row r="9">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2719.468116522766</v>
+        <v>27.19468116522776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02961069449339817</v>
+        <v>0.02961069449339767</v>
       </c>
     </row>
     <row r="10">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.98481967815015</v>
+        <v>20.98481967815004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07667949230267367</v>
+        <v>0.07667949230267528</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2159.780572125801</v>
+        <v>2159.780571978979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02393096676455468</v>
+        <v>0.02393096677689152</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.00430397073164</v>
+        <v>62.00430397660543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2878162066707968</v>
+        <v>0.2878162066707918</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3808503335714</v>
+        <v>165.3808503353976</v>
       </c>
       <c r="C4" t="n">
-        <v>1.293309709541802e-05</v>
+        <v>1.293309709163693e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01541612331712608</v>
+        <v>-1.541612331736909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5795887043012264</v>
+        <v>0.5795887042950945</v>
       </c>
     </row>
     <row r="6">
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.394926925231833e-05</v>
+        <v>53.94926925737396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1307691430907543</v>
+        <v>0.1307691430646497</v>
       </c>
     </row>
     <row r="7">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.684640703130544</v>
+        <v>1.68464070313053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7340600212247704</v>
+        <v>0.7340600212247725</v>
       </c>
     </row>
     <row r="8">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1742.72033363939</v>
+        <v>-17.42720333639394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03286274768849567</v>
+        <v>0.03286274768849538</v>
       </c>
     </row>
     <row r="9">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5215.862613949401</v>
+        <v>52.15862613949415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002210022128286637</v>
+        <v>0.0002210022128286592</v>
       </c>
     </row>
     <row r="10">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.97414219793315</v>
+        <v>20.97414219793333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1049533385953731</v>
+        <v>0.1049533385953705</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4221.469438279615</v>
+        <v>4221.46943829572</v>
       </c>
       <c r="C2" t="n">
-        <v>4.676452398686486e-05</v>
+        <v>4.676452398288589e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.49216088428534</v>
+        <v>94.49216088963703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1256970324484971</v>
+        <v>0.1256970324484786</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.6480704736458</v>
+        <v>164.6480704637328</v>
       </c>
       <c r="C4" t="n">
-        <v>5.763341902614789e-05</v>
+        <v>5.763341910968816e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05828683068140919</v>
+        <v>-5.828683067731342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05561690616110775</v>
+        <v>0.05561690617825833</v>
       </c>
     </row>
     <row r="6">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.326155400385061e-05</v>
+        <v>83.26155398989042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02426236426915507</v>
+        <v>0.02426236428862765</v>
       </c>
     </row>
     <row r="7">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.32088081033843</v>
+        <v>-13.32088081033845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01562286195015554</v>
+        <v>0.01562286195015548</v>
       </c>
     </row>
     <row r="8">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1917.184147568445</v>
+        <v>-19.17184147568445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02340601797184119</v>
+        <v>0.02340601797184132</v>
       </c>
     </row>
     <row r="9">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1672.022797720399</v>
+        <v>16.72022797720402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1644926910312113</v>
+        <v>0.1644926910312105</v>
       </c>
     </row>
     <row r="10">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.29576267274397</v>
+        <v>27.29576267274386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03318570104826103</v>
+        <v>0.03318570104826161</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3739.475060259244</v>
+        <v>3739.475060092732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006946737917852738</v>
+        <v>0.0006946737923823703</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.4561831568613</v>
+        <v>77.45618316205218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2701771963180065</v>
+        <v>0.2701771963180039</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.0651970839868</v>
+        <v>196.0651970935901</v>
       </c>
       <c r="C4" t="n">
-        <v>9.031311025127781e-06</v>
+        <v>9.03131101286047e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04038121061364527</v>
+        <v>-4.038121061472575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1985473199562849</v>
+        <v>0.1985473199430434</v>
       </c>
     </row>
     <row r="6">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.898657852355287e-05</v>
+        <v>78.98657851166818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05160230431575768</v>
+        <v>0.05160230434948115</v>
       </c>
     </row>
     <row r="7">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.7438403416408</v>
+        <v>-2.743840341640764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.605462411136837</v>
+        <v>0.6054624111368414</v>
       </c>
     </row>
     <row r="8">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2053.07429075912</v>
+        <v>-20.53074290759126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03266732532998353</v>
+        <v>0.03266732532998272</v>
       </c>
     </row>
     <row r="9">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3417.035982190323</v>
+        <v>34.17035982190312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01363298597531554</v>
+        <v>0.01363298597531567</v>
       </c>
     </row>
     <row r="10">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.247287410650834</v>
+        <v>1.247287410650376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9353784661736003</v>
+        <v>0.935378466173624</v>
       </c>
     </row>
   </sheetData>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2625.690734823946</v>
+        <v>2625.690734853063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00538849486070536</v>
+        <v>0.005388494859932345</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.17653687714306</v>
+        <v>57.17653687440924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3495275155290266</v>
+        <v>0.3495275155287647</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.1550732243523</v>
+        <v>213.1550732230741</v>
       </c>
       <c r="C4" t="n">
-        <v>8.860037233033381e-07</v>
+        <v>8.860037235357531e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001625016250492689</v>
+        <v>0.1625016250027276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9562997817082757</v>
+        <v>0.9562997817207534</v>
       </c>
     </row>
     <row r="6">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.112201004474766e-05</v>
+        <v>-11.12201003850279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8171687630721646</v>
+        <v>0.8171687631799607</v>
       </c>
     </row>
     <row r="7">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00311063273414014</v>
+        <v>0.003110632734137475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994834008602931</v>
+        <v>0.9994834008602935</v>
       </c>
     </row>
     <row r="8">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1241.784896725583</v>
+        <v>-12.41784896725586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2124822064956138</v>
+        <v>0.2124822064956124</v>
       </c>
     </row>
     <row r="9">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3708.139078123105</v>
+        <v>37.08139078123105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005915843888104122</v>
+        <v>0.005915843888104174</v>
       </c>
     </row>
     <row r="10">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.18214088958845</v>
+        <v>16.18214088958841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1944068238160608</v>
+        <v>0.1944068238160621</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2450.226324334805</v>
+        <v>2450.226324311305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02822876510896079</v>
+        <v>0.02822876511151598</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.14493336886315</v>
+        <v>30.14493336531615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6671744976023715</v>
+        <v>0.6671744976024923</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.0699514079319</v>
+        <v>161.0699514081573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003526875359926313</v>
+        <v>0.0003526875359769675</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02933468581271165</v>
+        <v>-2.93346858128629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3611927657748679</v>
+        <v>0.3611927657718689</v>
       </c>
     </row>
     <row r="6">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.415435831501906e-05</v>
+        <v>84.15435830786987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04038142536467765</v>
+        <v>0.0403814253783214</v>
       </c>
     </row>
     <row r="7">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.675976111557736</v>
+        <v>3.675976111557788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5103575684504777</v>
+        <v>0.5103575684504722</v>
       </c>
     </row>
     <row r="8">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2498.235776866331</v>
+        <v>-24.98235776866336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01001148093436928</v>
+        <v>0.01001148093436914</v>
       </c>
     </row>
     <row r="9">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2985.007041132681</v>
+        <v>29.85007041132689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0246742169598852</v>
+        <v>0.02467421695988499</v>
       </c>
     </row>
     <row r="10">
@@ -2297,7 +2297,7 @@
         <v>22.35215076445522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1417212887685053</v>
+        <v>0.1417212887685062</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2793.922608698037</v>
+        <v>2793.92260861944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007109679594979271</v>
+        <v>0.007109679597530328</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.71813142109875</v>
+        <v>50.71813141996569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42079424358587</v>
+        <v>0.4207942435860992</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8269526897097</v>
+        <v>187.8269526896473</v>
       </c>
       <c r="C4" t="n">
-        <v>3.824979611173749e-06</v>
+        <v>3.824979611196067e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03018107269858966</v>
+        <v>-3.018107269809976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3345384237012332</v>
+        <v>0.334538423709675</v>
       </c>
     </row>
     <row r="6">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.417835002328693e-05</v>
+        <v>94.17835002820186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02424736354919356</v>
+        <v>0.02424736354398975</v>
       </c>
     </row>
     <row r="7">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.485856326247735</v>
+        <v>1.485856326247593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7795305688546544</v>
+        <v>0.7795305688546751</v>
       </c>
     </row>
     <row r="8">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2637.196719464272</v>
+        <v>-26.37196719464264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004365103335813306</v>
+        <v>0.004365103335813472</v>
       </c>
     </row>
     <row r="9">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2685.343717031448</v>
+        <v>26.85343717031422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03652337797509064</v>
+        <v>0.03652337797509207</v>
       </c>
     </row>
     <row r="10">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.77823560161741</v>
+        <v>17.77823560161786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1950294599606845</v>
+        <v>0.1950294599606738</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4472.419090672206</v>
+        <v>4472.419090639816</v>
       </c>
       <c r="C2" t="n">
-        <v>2.208722754124269e-05</v>
+        <v>2.208722755514536e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.19666974628967</v>
+        <v>18.19666974699655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7743707022119506</v>
+        <v>0.7743707022123545</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.3799229758302</v>
+        <v>200.3799229764052</v>
       </c>
       <c r="C4" t="n">
-        <v>3.378835222008265e-07</v>
+        <v>3.378835221099048e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05140402455929065</v>
+        <v>-5.14040245593513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07752414435144152</v>
+        <v>0.07752414435099157</v>
       </c>
     </row>
     <row r="6">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.25280920099541e-05</v>
+        <v>92.52809199654025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01507872324813376</v>
+        <v>0.01507872326062985</v>
       </c>
     </row>
     <row r="7">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.72264297218048</v>
+        <v>-13.72264297217978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02193471309525633</v>
+        <v>0.02193471309526136</v>
       </c>
     </row>
     <row r="8">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1785.282217736426</v>
+        <v>-17.8528221773643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03417122228337158</v>
+        <v>0.03417122228337129</v>
       </c>
     </row>
     <row r="9">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1124.486892694464</v>
+        <v>11.24486892694464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3633653607144058</v>
+        <v>0.3633653607144066</v>
       </c>
     </row>
     <row r="10">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.60710678838253</v>
+        <v>24.60710678838273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06537333919661449</v>
+        <v>0.06537333919661305</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3682.584645273612</v>
+        <v>3682.584645085843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002741822632416755</v>
+        <v>0.000274182263572455</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.21544279445143</v>
+        <v>64.21544280042926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3147705263696898</v>
+        <v>0.3147705263697589</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.7437132234666</v>
+        <v>193.7437132265407</v>
       </c>
       <c r="C4" t="n">
-        <v>3.218629575233487e-06</v>
+        <v>3.218629573301321e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03223137439259736</v>
+        <v>-3.22313743926512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3101752963070654</v>
+        <v>0.3101752963062157</v>
       </c>
     </row>
     <row r="6">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.901311825414564e-05</v>
+        <v>59.01311825887626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1768542086940385</v>
+        <v>0.1768542086522173</v>
       </c>
     </row>
     <row r="7">
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7870256839969656</v>
+        <v>-0.7870256839970118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8763864848161039</v>
+        <v>0.8763864848160967</v>
       </c>
     </row>
     <row r="8">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1530.391934788137</v>
+        <v>-15.30391934788138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1099154957552027</v>
+        <v>0.1099154957552023</v>
       </c>
     </row>
     <row r="9">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2726.723841924638</v>
+        <v>27.26723841924625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03426066636274296</v>
+        <v>0.03426066636274371</v>
       </c>
     </row>
     <row r="10">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08845476085850112</v>
+        <v>-0.08845476085856152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9948531954333358</v>
+        <v>0.9948531954333324</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3136.505444266214</v>
+        <v>3136.5054441782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003052707994084162</v>
+        <v>0.0030527079952511</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.49730001633424</v>
+        <v>59.49730002198731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3691023217669488</v>
+        <v>0.3691023217668852</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.1981491315977</v>
+        <v>155.1981491335377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004315580309642651</v>
+        <v>0.0004315580308569176</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03607388666387422</v>
+        <v>-3.607388666387513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2338257867751891</v>
+        <v>0.2338257867751481</v>
       </c>
     </row>
     <row r="6">
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.609244844015519e-05</v>
+        <v>56.09244845003875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1707048068821252</v>
+        <v>0.1707048068058173</v>
       </c>
     </row>
     <row r="7">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.703756739838969</v>
+        <v>1.703756739838958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7481274819544026</v>
+        <v>0.7481274819544043</v>
       </c>
     </row>
     <row r="8">
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2880.534861521858</v>
+        <v>-28.80534861521848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002901319375383518</v>
+        <v>0.002901319375383578</v>
       </c>
     </row>
     <row r="9">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3176.170710150801</v>
+        <v>31.76170710150805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01574989672399441</v>
+        <v>0.01574989672399421</v>
       </c>
     </row>
     <row r="10">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.71284552355163</v>
+        <v>14.71284552355168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3115898283749662</v>
+        <v>0.311589828374965</v>
       </c>
     </row>
   </sheetData>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.272544977274</v>
+        <v>1590.272544994557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09921693883520434</v>
+        <v>0.09921693883035206</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.39678112421402</v>
+        <v>41.39678112053221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4766842084840969</v>
+        <v>0.4766842084841617</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1727224013567</v>
+        <v>181.1727224023424</v>
       </c>
       <c r="C4" t="n">
-        <v>1.132143628423429e-05</v>
+        <v>1.132143628283529e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00605364522614911</v>
+        <v>0.6053645224943729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8362853987454402</v>
+        <v>0.8362853987769444</v>
       </c>
     </row>
     <row r="6">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.396063104515552e-05</v>
+        <v>13.96063105910952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.706755928333093</v>
+        <v>0.7067559280628929</v>
       </c>
     </row>
     <row r="7">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.132692412011173</v>
+        <v>3.13269241201118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5146764282623424</v>
+        <v>0.5146764282623406</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2002.235051544067</v>
+        <v>-20.02235051544103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02321480587105473</v>
+        <v>0.02321480587105218</v>
       </c>
     </row>
     <row r="9">
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5943.907514333519</v>
+        <v>59.43907514333508</v>
       </c>
       <c r="C9" t="n">
-        <v>1.748103440575908e-05</v>
+        <v>1.748103440575989e-05</v>
       </c>
     </row>
     <row r="10">
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.26366585041895</v>
+        <v>28.2636658504189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02784317516813582</v>
+        <v>0.02784317516813573</v>
       </c>
     </row>
   </sheetData>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2611.08832246419</v>
+        <v>2611.088322567503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00774504146467234</v>
+        <v>0.00774504146195352</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.138755651534</v>
+        <v>145.1387556652361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01922522450483867</v>
+        <v>0.01922522450481147</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.4942180801112</v>
+        <v>185.4942180738273</v>
       </c>
       <c r="C4" t="n">
-        <v>3.945921861528007e-06</v>
+        <v>3.945921865173055e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04298768136643266</v>
+        <v>-4.298768136852802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.151657510984545</v>
+        <v>0.1516575109645389</v>
       </c>
     </row>
     <row r="6">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001149862931236127</v>
+        <v>114.9862931466924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004875692754060202</v>
+        <v>0.004875692747050345</v>
       </c>
     </row>
     <row r="7">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.805996626296764</v>
+        <v>-4.805996626296784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3242827486259796</v>
+        <v>0.3242827486259771</v>
       </c>
     </row>
     <row r="8">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1675.987950220852</v>
+        <v>-16.75987950220863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05710700707778959</v>
+        <v>0.05710700707778803</v>
       </c>
     </row>
     <row r="9">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3816.695005130875</v>
+        <v>38.16695005130875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006469093690224817</v>
+        <v>0.006469093690224871</v>
       </c>
     </row>
     <row r="10">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.93056438416145</v>
+        <v>22.93056438416144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06816244986699306</v>
+        <v>0.0681624498669932</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2226.071977280313</v>
+        <v>2226.071977329582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01587600934944379</v>
+        <v>0.01587600934680174</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.2701771568437</v>
+        <v>138.2701771625834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0218450354331199</v>
+        <v>0.0218450354331048</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.8742033105106</v>
+        <v>183.8742033164394</v>
       </c>
       <c r="C4" t="n">
-        <v>2.826909613873209e-06</v>
+        <v>2.826909611554528e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01778805046507614</v>
+        <v>-1.778805046597721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5358124748762336</v>
+        <v>0.5358124748551476</v>
       </c>
     </row>
     <row r="6">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.437770402884291e-05</v>
+        <v>64.37770404859964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09199669928475014</v>
+        <v>0.09199669919756844</v>
       </c>
     </row>
     <row r="7">
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.030635867351076</v>
+        <v>-1.030635867351099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.819930603184134</v>
+        <v>0.81993060318413</v>
       </c>
     </row>
     <row r="8">
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2617.612373500955</v>
+        <v>-26.17612373500973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002435898926306582</v>
+        <v>0.002435898926306441</v>
       </c>
     </row>
     <row r="9">
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6061.683075954444</v>
+        <v>60.61683075954448</v>
       </c>
       <c r="C9" t="n">
-        <v>1.578942984763933e-05</v>
+        <v>1.578942984763942e-05</v>
       </c>
     </row>
     <row r="10">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.68878779326561</v>
+        <v>18.68878779326565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1439707993033981</v>
+        <v>0.1439707993033973</v>
       </c>
     </row>
   </sheetData>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2886.58847814557</v>
+        <v>2886.588478146509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007360118755895424</v>
+        <v>0.007360118755838892</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.76246031446215</v>
+        <v>16.76246031530076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7909634029792485</v>
+        <v>0.790963402978725</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.5478426827821</v>
+        <v>203.5478426835549</v>
       </c>
       <c r="C4" t="n">
-        <v>2.03359385397667e-06</v>
+        <v>2.0335938532078e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02647994127396387</v>
+        <v>-2.647994127389007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3704421995795771</v>
+        <v>0.3704421995809064</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.099886306024755e-05</v>
+        <v>80.99886305959488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06360219278591399</v>
+        <v>0.06360219278796468</v>
       </c>
     </row>
     <row r="7">
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1949309638561338</v>
+        <v>0.1949309638561765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9696575609899742</v>
+        <v>0.9696575609899675</v>
       </c>
     </row>
     <row r="8">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2737.119427847626</v>
+        <v>-27.37119427847634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005468076172262901</v>
+        <v>0.005468076172262784</v>
       </c>
     </row>
     <row r="9">
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4100.11374129316</v>
+        <v>41.00113741293151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003431328702789894</v>
+        <v>0.003431328702790003</v>
       </c>
     </row>
     <row r="10">
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.57377952782866</v>
+        <v>13.57377952782874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3475427698708931</v>
+        <v>0.3475427698708909</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3212.6970660826</v>
+        <v>3212.697065967147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001051769224069356</v>
+        <v>0.001051769224625584</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.62685936126562</v>
+        <v>79.62685936897088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2063227382503352</v>
+        <v>0.2063227382504481</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.6934402118591</v>
+        <v>178.6934402134263</v>
       </c>
       <c r="C4" t="n">
-        <v>1.123463863144547e-05</v>
+        <v>1.123463862827349e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03958195429912252</v>
+        <v>-3.958195429591824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1831049608974523</v>
+        <v>0.1831049609327227</v>
       </c>
     </row>
     <row r="6">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.411609660927179e-05</v>
+        <v>84.11609660641373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.030203717016942</v>
+        <v>0.0302037170279044</v>
       </c>
     </row>
     <row r="7">
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0227546183772338</v>
+        <v>0.02275461837713699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9964695035890592</v>
+        <v>0.9964695035890742</v>
       </c>
     </row>
     <row r="8">
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2261.233177388979</v>
+        <v>-22.61233177388978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01178045815498207</v>
+        <v>0.01178045815498216</v>
       </c>
     </row>
     <row r="9">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2301.357418368312</v>
+        <v>23.01357418368309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07611867775990519</v>
+        <v>0.07611867775990555</v>
       </c>
     </row>
     <row r="10">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.76472968853002</v>
+        <v>12.7647296885301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3370605551651641</v>
+        <v>0.3370605551651611</v>
       </c>
     </row>
   </sheetData>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2907.467347069975</v>
+        <v>2907.467347066475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006674502775343898</v>
+        <v>0.006674502775435045</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.63200512669439</v>
+        <v>79.63200512279383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2335696596868691</v>
+        <v>0.2335696596869659</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8365624305623</v>
+        <v>179.8365624262457</v>
       </c>
       <c r="C4" t="n">
-        <v>4.966286758320619e-05</v>
+        <v>4.966286760773321e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03832653343991571</v>
+        <v>-3.832653343842793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2484261575565672</v>
+        <v>0.2484261575755501</v>
       </c>
     </row>
     <row r="6">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.175283939800538e-05</v>
+        <v>81.75283939558068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05558261473614578</v>
+        <v>0.05558261474197089</v>
       </c>
     </row>
     <row r="7">
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.247956394003822</v>
+        <v>-2.247956394003756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6825746037371019</v>
+        <v>0.6825746037371105</v>
       </c>
     </row>
     <row r="8">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1760.492807803013</v>
+        <v>-17.60492807803018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05978973120698458</v>
+        <v>0.05978973120698391</v>
       </c>
     </row>
     <row r="9">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3095.975710765337</v>
+        <v>30.95975710765346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188681423479739</v>
+        <v>0.01886814234797367</v>
       </c>
     </row>
     <row r="10">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.56413254344366</v>
+        <v>21.56413254344362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1221594706891429</v>
+        <v>0.1221594706891435</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2862.692881773753</v>
+        <v>2862.692881758526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003503643670745255</v>
+        <v>0.003503643670961466</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.75196551729726</v>
+        <v>80.75196551088378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1852418421721285</v>
+        <v>0.1852418421720346</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.7419108774354</v>
+        <v>203.7419108767372</v>
       </c>
       <c r="C4" t="n">
-        <v>1.024959989290477e-06</v>
+        <v>1.024959989414222e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02654191829540133</v>
+        <v>-2.65419182942027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3471911111211646</v>
+        <v>0.3471911111435236</v>
       </c>
     </row>
     <row r="6">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.144254374911042e-05</v>
+        <v>71.44254375030418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09022810882338175</v>
+        <v>0.09022810880464567</v>
       </c>
     </row>
     <row r="7">
@@ -3938,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.790685247879646</v>
+        <v>-1.790685247879535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7235893850127442</v>
+        <v>0.7235893850127606</v>
       </c>
     </row>
     <row r="8">
@@ -3951,10 +3951,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1829.56331077777</v>
+        <v>-18.29563310777769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05686288914997041</v>
+        <v>0.05686288914997052</v>
       </c>
     </row>
     <row r="9">
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2413.46220940591</v>
+        <v>24.13462209405916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05141040591915814</v>
+        <v>0.05141040591915773</v>
       </c>
     </row>
     <row r="10">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.81783966346847</v>
+        <v>20.81783966346833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1088567823985202</v>
+        <v>0.1088567823985225</v>
       </c>
     </row>
   </sheetData>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4131.94974705363</v>
+        <v>4131.949747052496</v>
       </c>
       <c r="C2" t="n">
-        <v>8.323838111800845e-05</v>
+        <v>8.323838112131142e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.314289298737592</v>
+        <v>8.314289299280361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8912414356115632</v>
+        <v>0.8912414356113315</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.0241434725333</v>
+        <v>188.0241434716904</v>
       </c>
       <c r="C4" t="n">
-        <v>2.392950585746682e-06</v>
+        <v>2.392950586714514e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02659487000851361</v>
+        <v>-2.659487000824973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3673330523448533</v>
+        <v>0.367333052352403</v>
       </c>
     </row>
     <row r="6">
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.067152593183083e-05</v>
+        <v>30.67152593096718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4108792220312355</v>
+        <v>0.4108792220434248</v>
       </c>
     </row>
     <row r="7">
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.37378706710918</v>
+        <v>-10.37378706710919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07277689679106679</v>
+        <v>0.07277689679106664</v>
       </c>
     </row>
     <row r="8">
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-565.6496929259715</v>
+        <v>-5.656496929259795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5074341016324584</v>
+        <v>0.5074341016324523</v>
       </c>
     </row>
     <row r="9">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1564.070534042928</v>
+        <v>15.64070534042936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1959776683724817</v>
+        <v>0.1959776683724792</v>
       </c>
     </row>
     <row r="10">
@@ -4133,7 +4133,7 @@
         <v>19.77132435352085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1224603902876301</v>
+        <v>0.1224603902876299</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3433.708485734697</v>
+        <v>3433.708485721514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001006284757318655</v>
+        <v>0.001006284757384135</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.71482575727853</v>
+        <v>76.71482576052773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.258739647664409</v>
+        <v>0.2587396476644442</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.6821314308486</v>
+        <v>160.6821314319681</v>
       </c>
       <c r="C4" t="n">
-        <v>9.665261723169209e-05</v>
+        <v>9.66526172165101e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0433166806842156</v>
+        <v>-4.331668068380676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1515673862188423</v>
+        <v>0.151567386222717</v>
       </c>
     </row>
     <row r="6">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.642642402508424e-05</v>
+        <v>86.42642406120439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03402718581853271</v>
+        <v>0.03402718575334572</v>
       </c>
     </row>
     <row r="7">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4597669944595424</v>
+        <v>0.459766994459617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9299745113822977</v>
+        <v>0.9299745113822864</v>
       </c>
     </row>
     <row r="8">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2299.905792365371</v>
+        <v>-22.99905792365367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01493384085672808</v>
+        <v>0.01493384085672812</v>
       </c>
     </row>
     <row r="9">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2350.561064865149</v>
+        <v>23.50561064865158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07484724165909724</v>
+        <v>0.07484724165909612</v>
       </c>
     </row>
     <row r="10">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.106943683941683</v>
+        <v>9.106943683941619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5381757550149069</v>
+        <v>0.5381757550149102</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1756.435097498037</v>
+        <v>1756.435097493887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06689221053208795</v>
+        <v>0.0668922105329736</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.80284608333665</v>
+        <v>45.80284609113798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4381570417711356</v>
+        <v>0.4381570417713199</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.4244261139658</v>
+        <v>198.4244261161103</v>
       </c>
       <c r="C4" t="n">
-        <v>2.205484199236535e-07</v>
+        <v>2.205484197937197e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002199449166422174</v>
+        <v>0.2199449165260721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9424826650371212</v>
+        <v>0.9424826650674495</v>
       </c>
     </row>
     <row r="6">
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.149157970250628e-06</v>
+        <v>7.149157959494236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8462254153494372</v>
+        <v>0.8462254155791682</v>
       </c>
     </row>
     <row r="7">
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.152148433022898</v>
+        <v>3.152148433022891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5156978128877441</v>
+        <v>0.515697812887745</v>
       </c>
     </row>
     <row r="8">
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2113.884302539078</v>
+        <v>-21.13884302539081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01001333705883205</v>
+        <v>0.01001333705883186</v>
       </c>
     </row>
     <row r="9">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7427.274906515381</v>
+        <v>74.27274906515373</v>
       </c>
       <c r="C9" t="n">
-        <v>8.571093101160297e-06</v>
+        <v>8.571093101160411e-06</v>
       </c>
     </row>
     <row r="10">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.04152577778168</v>
+        <v>18.04152577778181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1364118864684599</v>
+        <v>0.1364118864684569</v>
       </c>
     </row>
   </sheetData>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3071.991496147725</v>
+        <v>3071.991496263643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002562320047829124</v>
+        <v>0.002562320046553521</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.8271867471716</v>
+        <v>109.8271867450562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08281477226515711</v>
+        <v>0.08281477226513054</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.4169667952334</v>
+        <v>195.4169667930934</v>
       </c>
       <c r="C4" t="n">
-        <v>2.271023923308532e-06</v>
+        <v>2.27102392393673e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01141163324515763</v>
+        <v>-1.141163324628126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7023227027230992</v>
+        <v>0.7023227026944876</v>
       </c>
     </row>
     <row r="6">
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.837677391337885e-05</v>
+        <v>78.37677392477094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05176736794364968</v>
+        <v>0.05176736792110046</v>
       </c>
     </row>
     <row r="7">
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9457532026212494</v>
+        <v>-0.945753202621237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8475403977257366</v>
+        <v>0.8475403977257385</v>
       </c>
     </row>
     <row r="8">
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1770.836574788095</v>
+        <v>-17.70836574788105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05672007157254751</v>
+        <v>0.05672007157254648</v>
       </c>
     </row>
     <row r="9">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2918.999223372761</v>
+        <v>29.18999223372766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02128725883859826</v>
+        <v>0.02128725883859811</v>
       </c>
     </row>
     <row r="10">
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.971074665020026</v>
+        <v>6.971074665019781</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6176030664913463</v>
+        <v>0.6176030664913584</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3358.675452989908</v>
+        <v>3358.675452954466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001313971069598325</v>
+        <v>0.001313971069801691</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.79690114925641</v>
+        <v>76.79690115214954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2361990094969239</v>
+        <v>0.2361990094969956</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.5173821731034</v>
+        <v>172.5173821733991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001775223865790921</v>
+        <v>0.0001775223865729792</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0498894933691088</v>
+        <v>-4.988949336915288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1216921000955122</v>
+        <v>0.1216921000951645</v>
       </c>
     </row>
     <row r="6">
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.597714669758284e-05</v>
+        <v>65.9771466946201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1462855717900265</v>
+        <v>0.1462855717880079</v>
       </c>
     </row>
     <row r="7">
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.220696331521662</v>
+        <v>-5.220696331521571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3438353196825967</v>
+        <v>0.3438353196826046</v>
       </c>
     </row>
     <row r="8">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1566.915046328129</v>
+        <v>-15.66915046328124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09744587266266345</v>
+        <v>0.09744587266266419</v>
       </c>
     </row>
     <row r="9">
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2743.105071962426</v>
+        <v>27.43105071962425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04137854160547939</v>
+        <v>0.04137854160547946</v>
       </c>
     </row>
     <row r="10">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.08333759209084</v>
+        <v>22.08333759209086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1079291369158258</v>
+        <v>0.1079291369158256</v>
       </c>
     </row>
   </sheetData>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3570.605745121433</v>
+        <v>3570.605745094701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000413106710674835</v>
+        <v>0.0004131067107772543</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.24286326359272</v>
+        <v>25.24286326108404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6709616301092576</v>
+        <v>0.6709616301093249</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.9106795444972</v>
+        <v>196.9106795441629</v>
       </c>
       <c r="C4" t="n">
-        <v>9.659100090060511e-07</v>
+        <v>9.659100091046017e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04161831253987906</v>
+        <v>-4.161831253942156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1397572343153828</v>
+        <v>0.1397572343213404</v>
       </c>
     </row>
     <row r="6">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.19173362585938e-05</v>
+        <v>91.9173362660821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01609020308031196</v>
+        <v>0.0160902030715595</v>
       </c>
     </row>
     <row r="7">
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.278834987220709</v>
+        <v>-9.278834987220701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08746540644285311</v>
+        <v>0.08746540644285326</v>
       </c>
     </row>
     <row r="8">
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2120.718963079157</v>
+        <v>-21.2071896307915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01957444191443952</v>
+        <v>0.01957444191443985</v>
       </c>
     </row>
     <row r="9">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2555.135278939415</v>
+        <v>25.55135278939424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03159769810971627</v>
+        <v>0.0315976981097156</v>
       </c>
     </row>
     <row r="10">
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.65440074331365</v>
+        <v>27.65440074331353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02772331885860974</v>
+        <v>0.02772331885861049</v>
       </c>
     </row>
   </sheetData>
@@ -4944,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3377.974347064337</v>
+        <v>3377.97434698963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001396189315662237</v>
+        <v>0.001396189316097822</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.50238533106133</v>
+        <v>82.50238532275698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2043557000862305</v>
+        <v>0.204355700086378</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9175686333415</v>
+        <v>168.9175686347453</v>
       </c>
       <c r="C4" t="n">
-        <v>4.107043944349408e-05</v>
+        <v>4.107043943609847e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05526207766146395</v>
+        <v>-5.526207766296547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1269590469995841</v>
+        <v>0.1269590469905621</v>
       </c>
     </row>
     <row r="6">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001064723163085494</v>
+        <v>106.472316297705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04497225245336125</v>
+        <v>0.04497225247133774</v>
       </c>
     </row>
     <row r="7">
@@ -5009,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.629275446663571</v>
+        <v>-2.629275446663449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6162828831496647</v>
+        <v>0.616282883149681</v>
       </c>
     </row>
     <row r="8">
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2680.053581806594</v>
+        <v>-26.80053581806595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005415406354316279</v>
+        <v>0.005415406354316327</v>
       </c>
     </row>
     <row r="9">
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3404.497588114437</v>
+        <v>34.04497588114435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02683254343589927</v>
+        <v>0.02683254343589948</v>
       </c>
     </row>
     <row r="10">
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.32724732484249</v>
+        <v>14.32724732484252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3041623727327061</v>
+        <v>0.3041623727327051</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4437.453712059445</v>
+        <v>4437.453712059234</v>
       </c>
       <c r="C2" t="n">
-        <v>2.689442513890484e-05</v>
+        <v>2.689442513897442e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.579234773579905</v>
+        <v>6.579234772912656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9188417657141814</v>
+        <v>0.9188417657140227</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.6534818516661</v>
+        <v>204.6534818509866</v>
       </c>
       <c r="C4" t="n">
-        <v>6.530979900414604e-06</v>
+        <v>6.530979904513447e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04618258039912919</v>
+        <v>-4.618258039906939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1161386943389979</v>
+        <v>0.1161386943395348</v>
       </c>
     </row>
     <row r="6">
@@ -5149,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.838272248978062e-05</v>
+        <v>68.3827224791126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07396185249337177</v>
+        <v>0.07396185253216904</v>
       </c>
     </row>
     <row r="7">
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.64464004187073</v>
+        <v>-9.644640041870858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09409033718919085</v>
+        <v>0.0940903371891867</v>
       </c>
     </row>
     <row r="8">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1921.176832587922</v>
+        <v>-19.21176832587915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04997748962464478</v>
+        <v>0.04997748962464581</v>
       </c>
     </row>
     <row r="9">
@@ -5188,10 +5188,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2437.878768115003</v>
+        <v>24.37878768115004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0577213373907865</v>
+        <v>0.05772133739078645</v>
       </c>
     </row>
     <row r="10">
@@ -5204,7 +5204,7 @@
         <v>11.90556953259144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4000506918241169</v>
+        <v>0.4000506918241162</v>
       </c>
     </row>
   </sheetData>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3702.302926196425</v>
+        <v>3702.302926045813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002775067907869841</v>
+        <v>0.0002775067910143154</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.06612048077621</v>
+        <v>86.0661204859702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1842669460194577</v>
+        <v>0.1842669460194124</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.1541676732691</v>
+        <v>169.1541676760675</v>
       </c>
       <c r="C4" t="n">
-        <v>6.391791988978405e-05</v>
+        <v>6.391791986341691e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03432508550395119</v>
+        <v>-3.432508550287654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233840486026414</v>
+        <v>0.2338404860418658</v>
       </c>
     </row>
     <row r="6">
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.906523163857319e-05</v>
+        <v>69.06523163404594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07252873743928694</v>
+        <v>0.07252873745208743</v>
       </c>
     </row>
     <row r="7">
@@ -5315,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.960122367267328</v>
+        <v>-3.960122367267294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4477584359553983</v>
+        <v>0.4477584359554022</v>
       </c>
     </row>
     <row r="8">
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2205.091900686877</v>
+        <v>-22.05091900686867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01289565129634201</v>
+        <v>0.01289565129634241</v>
       </c>
     </row>
     <row r="9">
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1916.731652836351</v>
+        <v>19.16731652836349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133683832962647</v>
+        <v>0.1336838329626474</v>
       </c>
     </row>
     <row r="10">
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.3049146428124</v>
+        <v>15.30491464281254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2606175917943022</v>
+        <v>0.2606175917942975</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1641.777842452535</v>
+        <v>1641.77784253749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08003981382905137</v>
+        <v>0.08003981381177108</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.5001754704151</v>
+        <v>136.5001754687755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02464419055990299</v>
+        <v>0.02464419055991731</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.529400655064</v>
+        <v>198.5294006546393</v>
       </c>
       <c r="C4" t="n">
-        <v>1.777321050277949e-07</v>
+        <v>1.777321050375113e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01609137037733869</v>
+        <v>-1.609137037717343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5427752316967623</v>
+        <v>0.542775231700969</v>
       </c>
     </row>
     <row r="6">
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.544388039986549e-05</v>
+        <v>75.44388038019264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03454118718083195</v>
+        <v>0.034541187223719</v>
       </c>
     </row>
     <row r="7">
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1926381228174723</v>
+        <v>-0.192638122817522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9672729179846399</v>
+        <v>0.9672729179846313</v>
       </c>
     </row>
     <row r="8">
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1874.113226495051</v>
+        <v>-18.74113226495069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02860803392041063</v>
+        <v>0.02860803392040932</v>
       </c>
     </row>
     <row r="9">
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6211.845271570654</v>
+        <v>62.11845271570654</v>
       </c>
       <c r="C9" t="n">
-        <v>5.242220800896741e-06</v>
+        <v>5.242220800896809e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5507,10 +5507,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.2651958979771</v>
+        <v>23.26519589797701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05658528708681281</v>
+        <v>0.05658528708681376</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3896.992233656781</v>
+        <v>3896.992233675727</v>
       </c>
       <c r="C2" t="n">
-        <v>7.958541598520351e-05</v>
+        <v>7.958541597412677e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.13768243448851</v>
+        <v>58.13768243556842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3653388750838824</v>
+        <v>0.3653388750837701</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.7205229410515</v>
+        <v>186.7205229429017</v>
       </c>
       <c r="C4" t="n">
-        <v>3.089556009539891e-06</v>
+        <v>3.089556008818891e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0513325223249026</v>
+        <v>-5.133252232494804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07403018209578853</v>
+        <v>0.07403018209550165</v>
       </c>
     </row>
     <row r="6">
@@ -5608,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.416532410649173e-05</v>
+        <v>84.165324134907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0407333480121236</v>
+        <v>0.04073334794684124</v>
       </c>
     </row>
     <row r="7">
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.559379330707282</v>
+        <v>-9.559379330707287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06978115741681699</v>
+        <v>0.06978115741681683</v>
       </c>
     </row>
     <row r="8">
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1945.202884000473</v>
+        <v>-19.45202884000467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02332864716264565</v>
+        <v>0.02332864716264617</v>
       </c>
     </row>
     <row r="9">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2829.826904204059</v>
+        <v>28.29826904204067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03574974265679173</v>
+        <v>0.03574974265679141</v>
       </c>
     </row>
     <row r="10">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.00196335585908</v>
+        <v>21.00196335585892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1224487378954269</v>
+        <v>0.12244873789543</v>
       </c>
     </row>
   </sheetData>
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.974174367977</v>
+        <v>1995.974174379623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04689952640745783</v>
+        <v>0.04689952640559113</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.2476731115525</v>
+        <v>44.24767310674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4629295345639619</v>
+        <v>0.4629295345639978</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3307690002193</v>
+        <v>183.3307689996984</v>
       </c>
       <c r="C4" t="n">
-        <v>5.371860806299042e-06</v>
+        <v>5.371860806911859e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0006011054785984571</v>
+        <v>-0.06011054784304104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9850012960051052</v>
+        <v>0.9850012960093109</v>
       </c>
     </row>
     <row r="6">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.535558930188372e-05</v>
+        <v>35.3555892987668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3682128094691124</v>
+        <v>0.3682128095136384</v>
       </c>
     </row>
     <row r="7">
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.234686277078362</v>
+        <v>4.23468627707838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3977951133109969</v>
+        <v>0.3977951133109948</v>
       </c>
     </row>
     <row r="8">
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1416.64748670679</v>
+        <v>-14.16647486706791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1062387403501807</v>
+        <v>0.1062387403501798</v>
       </c>
     </row>
     <row r="9">
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3162.325310371937</v>
+        <v>31.62325310371942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008549858697732948</v>
+        <v>0.008549858697732849</v>
       </c>
     </row>
     <row r="10">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.46930447308194</v>
+        <v>22.46930447308212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09273831188917742</v>
+        <v>0.09273831188917514</v>
       </c>
     </row>
   </sheetData>
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2951.025906926443</v>
+        <v>2951.025906888441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00649264882450945</v>
+        <v>0.006492648825686864</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.14563146266892</v>
+        <v>28.14563146655826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6781404151393213</v>
+        <v>0.6781404151394694</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.8279754765892</v>
+        <v>177.8279754760326</v>
       </c>
       <c r="C4" t="n">
-        <v>6.236266661307032e-05</v>
+        <v>6.236266661883447e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03460485208078815</v>
+        <v>-3.460485208155125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2801216712227791</v>
+        <v>0.2801216712114759</v>
       </c>
     </row>
     <row r="6">
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.076609183108952e-05</v>
+        <v>80.76609182244425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06227603380103953</v>
+        <v>0.06227603383892041</v>
       </c>
     </row>
     <row r="7">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.229118781039146</v>
+        <v>0.229118781039066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9683677645972992</v>
+        <v>0.9683677645973102</v>
       </c>
     </row>
     <row r="8">
@@ -5940,10 +5940,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2406.939220702221</v>
+        <v>-24.0693922070222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02629707807233029</v>
+        <v>0.02629707807233047</v>
       </c>
     </row>
     <row r="9">
@@ -5953,10 +5953,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3091.961939336222</v>
+        <v>30.91961939336219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02119712098164845</v>
+        <v>0.02119712098164857</v>
       </c>
     </row>
     <row r="10">
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.65141228210847</v>
+        <v>18.65141228210838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2011069795517947</v>
+        <v>0.2011069795517968</v>
       </c>
     </row>
   </sheetData>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3101.919219242072</v>
+        <v>3101.919219193795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002405053460806297</v>
+        <v>0.002405053461359752</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.27520766082009</v>
+        <v>71.27520766587338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2595062696046502</v>
+        <v>0.259506269604787</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1799651617079</v>
+        <v>158.1799651580176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002011909832609622</v>
+        <v>0.0002011909833497772</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02957660690415936</v>
+        <v>-2.957660690498212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3161776159374761</v>
+        <v>0.3161776159230073</v>
       </c>
     </row>
     <row r="6">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.271292689541832e-05</v>
+        <v>62.71292692165854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1103252155954388</v>
+        <v>0.1103252154710264</v>
       </c>
     </row>
     <row r="7">
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.703183119452616</v>
+        <v>-1.703183119452593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7375079295907152</v>
+        <v>0.7375079295907185</v>
       </c>
     </row>
     <row r="8">
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2529.729229140592</v>
+        <v>-25.29729229140597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007241701330430789</v>
+        <v>0.007241701330430775</v>
       </c>
     </row>
     <row r="9">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4090.528485560071</v>
+        <v>40.90528485560078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004026744961565785</v>
+        <v>0.004026744961565708</v>
       </c>
     </row>
     <row r="10">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.28943429363349</v>
+        <v>16.28943429363334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2282423353092239</v>
+        <v>0.2282423353092282</v>
       </c>
     </row>
   </sheetData>
@@ -6168,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3614.079206336991</v>
+        <v>3614.079206365067</v>
       </c>
       <c r="C2" t="n">
-        <v>6.869886970198667e-05</v>
+        <v>6.869886968707454e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.57006491541977</v>
+        <v>47.57006491124641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4146481241366309</v>
+        <v>0.4146481241366818</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.6735457955311</v>
+        <v>206.67354579462</v>
       </c>
       <c r="C4" t="n">
-        <v>9.22429986735549e-08</v>
+        <v>9.224299869731415e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01717929002425241</v>
+        <v>-1.71792900237652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5541509319052751</v>
+        <v>0.5541509319162757</v>
       </c>
     </row>
     <row r="6">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.738707653185732e-05</v>
+        <v>27.38707654277351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5040122037305417</v>
+        <v>0.5040122035478768</v>
       </c>
     </row>
     <row r="7">
@@ -6233,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.018083974468755</v>
+        <v>-5.018083974468748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3302233789964201</v>
+        <v>0.3302233789964207</v>
       </c>
     </row>
     <row r="8">
@@ -6246,10 +6246,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1312.540441413807</v>
+        <v>-13.12540441413812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1139555308220118</v>
+        <v>0.1139555308220105</v>
       </c>
     </row>
     <row r="9">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2033.495257028956</v>
+        <v>20.33495257028964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06878682382605314</v>
+        <v>0.06878682382605196</v>
       </c>
     </row>
     <row r="10">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.29020188640634</v>
+        <v>13.29020188640625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2841821127341537</v>
+        <v>0.2841821127341573</v>
       </c>
     </row>
   </sheetData>
@@ -6321,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2348.205004130599</v>
+        <v>2348.205004037645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01877441940244671</v>
+        <v>0.0187744194081915</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.8695291972189</v>
+        <v>109.8695292161218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07315350342671484</v>
+        <v>0.07315350342669449</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.9232573713994</v>
+        <v>185.9232573682278</v>
       </c>
       <c r="C4" t="n">
-        <v>2.464607188111033e-06</v>
+        <v>2.464607189348156e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.028595945785352</v>
+        <v>-2.859594578454454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3006323228262215</v>
+        <v>0.3006323228402566</v>
       </c>
     </row>
     <row r="6">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.61167983463907e-05</v>
+        <v>86.11679835082259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02848467274272403</v>
+        <v>0.02848467273895305</v>
       </c>
     </row>
     <row r="7">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.032999182628666</v>
+        <v>-4.032999182628732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3926471211763783</v>
+        <v>0.3926471211763712</v>
       </c>
     </row>
     <row r="8">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2015.632140915188</v>
+        <v>-20.15632140915192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01425000808792048</v>
+        <v>0.01425000808792019</v>
       </c>
     </row>
     <row r="9">
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6092.149570724387</v>
+        <v>60.92149570724366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001433617375252897</v>
+        <v>0.0001433617375252978</v>
       </c>
     </row>
     <row r="10">
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09670443284597</v>
+        <v>22.0967044328461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08277932935248673</v>
+        <v>0.08277932935248523</v>
       </c>
     </row>
   </sheetData>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2409.495021191809</v>
+        <v>2409.495021190793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02440557277402185</v>
+        <v>0.02440557277411265</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.04471735794991</v>
+        <v>60.04471735891195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3464380365660776</v>
+        <v>0.3464380365662911</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.0783228395899</v>
+        <v>198.0783228336226</v>
       </c>
       <c r="C4" t="n">
-        <v>2.099343796445457e-06</v>
+        <v>2.09934379887454e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03286887337966194</v>
+        <v>-3.286887337917486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3173020834111454</v>
+        <v>0.3173020834190664</v>
       </c>
     </row>
     <row r="6">
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.116576487182607e-05</v>
+        <v>61.16576487012277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1119081009337426</v>
+        <v>0.1119081009344352</v>
       </c>
     </row>
     <row r="7">
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9011520079089337</v>
+        <v>0.9011520079090261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8642905682888751</v>
+        <v>0.8642905682888613</v>
       </c>
     </row>
     <row r="8">
@@ -6552,10 +6552,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1467.139103867567</v>
+        <v>-14.67139103867585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09783684523530967</v>
+        <v>0.09783684523530618</v>
       </c>
     </row>
     <row r="9">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2871.32767697631</v>
+        <v>28.71327676976318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02122325695848293</v>
+        <v>0.02122325695848275</v>
       </c>
     </row>
     <row r="10">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.28902777488209</v>
+        <v>25.28902777488207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07923535627227203</v>
+        <v>0.07923535627227254</v>
       </c>
     </row>
   </sheetData>
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2550.622630842167</v>
+        <v>2550.622630813243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01846249659977768</v>
+        <v>0.01846249660165518</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.40465097372186</v>
+        <v>56.40465096503152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3921472241450497</v>
+        <v>0.3921472241446518</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.7451488597657</v>
+        <v>222.7451488594358</v>
       </c>
       <c r="C4" t="n">
-        <v>5.702836436878639e-07</v>
+        <v>5.702836437346262e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03437283411924946</v>
+        <v>-3.437283411944074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2372957678348935</v>
+        <v>0.2372957678319333</v>
       </c>
     </row>
     <row r="6">
@@ -6679,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.908224447376573e-05</v>
+        <v>99.08224445914601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0148603284271764</v>
+        <v>0.01486032843511702</v>
       </c>
     </row>
     <row r="7">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2819650249335606</v>
+        <v>-0.2819650249337453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9591625868658873</v>
+        <v>0.9591625868658608</v>
       </c>
     </row>
     <row r="8">
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1746.88874880886</v>
+        <v>-17.46888748808852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05712249700016968</v>
+        <v>0.0571224970001709</v>
       </c>
     </row>
     <row r="9">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3539.595376627289</v>
+        <v>35.3959537662725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00853680097381317</v>
+        <v>0.008536800973813723</v>
       </c>
     </row>
     <row r="10">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.63708318563991</v>
+        <v>15.6370831856407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2685883209166477</v>
+        <v>0.2685883209166244</v>
       </c>
     </row>
   </sheetData>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2239.997843248731</v>
+        <v>2239.997843280617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03155433931215348</v>
+        <v>0.03155433930909537</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.53445669090667</v>
+        <v>94.53445668884643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1558649853658894</v>
+        <v>0.1558649853659002</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.20675528393</v>
+        <v>181.2067552863412</v>
       </c>
       <c r="C4" t="n">
-        <v>2.585266391599366e-05</v>
+        <v>2.585266390996908e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01913092041507578</v>
+        <v>-1.913092041504221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5251486125448588</v>
+        <v>0.5251486125456097</v>
       </c>
     </row>
     <row r="6">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.810750763832967e-05</v>
+        <v>58.10750764124827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1834396255297143</v>
+        <v>0.1834396254936128</v>
       </c>
     </row>
     <row r="7">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01449514866437074</v>
+        <v>0.01449514866438584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9978322230667144</v>
+        <v>0.9978322230667122</v>
       </c>
     </row>
     <row r="8">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1880.310200872131</v>
+        <v>-18.8031020087212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06291937898374211</v>
+        <v>0.06291937898374338</v>
       </c>
     </row>
     <row r="9">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3326.110403109457</v>
+        <v>33.26110403109453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009006828487715939</v>
+        <v>0.009006828487716063</v>
       </c>
     </row>
     <row r="10">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.40188728494675</v>
+        <v>27.40188728494665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05634655241329555</v>
+        <v>0.05634655241329655</v>
       </c>
     </row>
   </sheetData>
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2442.773662918606</v>
+        <v>2442.773662881323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01407248492831003</v>
+        <v>0.01407248493027237</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.16272579116749</v>
+        <v>63.1627257882391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3178729177473723</v>
+        <v>0.3178729177472449</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.1231123737691</v>
+        <v>177.123112374575</v>
       </c>
       <c r="C4" t="n">
-        <v>1.771099828728811e-05</v>
+        <v>1.771099828478669e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01195570209411458</v>
+        <v>1.195570209509412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7086813117522804</v>
+        <v>0.7086813117296051</v>
       </c>
     </row>
     <row r="6">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.455860657810584e-05</v>
+        <v>14.55860658016852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7176080412456557</v>
+        <v>0.7176080412062202</v>
       </c>
     </row>
     <row r="7">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.578864256185376</v>
+        <v>2.578864256185419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6085626847938581</v>
+        <v>0.6085626847938521</v>
       </c>
     </row>
     <row r="8">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1516.557935596482</v>
+        <v>-15.16557935596475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09174911481623341</v>
+        <v>0.09174911481623542</v>
       </c>
     </row>
     <row r="9">
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3922.223665962533</v>
+        <v>39.2222366596253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004244868676891857</v>
+        <v>0.004244868676891866</v>
       </c>
     </row>
     <row r="10">
@@ -7037,10 +7037,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.8796684544341</v>
+        <v>14.87966845443393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275704814270816</v>
+        <v>0.2757048142708215</v>
       </c>
     </row>
   </sheetData>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3815.809323228591</v>
+        <v>3815.809323134075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001128447362693088</v>
+        <v>0.0001128447363295981</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.8764203761442</v>
+        <v>90.87642038194373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.134973574303874</v>
+        <v>0.1349735743040286</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.3823300070408</v>
+        <v>182.3823300070854</v>
       </c>
       <c r="C4" t="n">
-        <v>3.837336120736067e-06</v>
+        <v>3.837336120699455e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05186360477981861</v>
+        <v>-5.186360477881957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09571733176903688</v>
+        <v>0.09571733177543913</v>
       </c>
     </row>
     <row r="6">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001185637530552019</v>
+        <v>118.5637530678117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005538610569689026</v>
+        <v>0.005538610564890149</v>
       </c>
     </row>
     <row r="7">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.133264980050781</v>
+        <v>-2.133264980050751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6686019218304222</v>
+        <v>0.6686019218304262</v>
       </c>
     </row>
     <row r="8">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3041.21212018967</v>
+        <v>-30.41212120189678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000690371174512392</v>
+        <v>0.0006903711745123743</v>
       </c>
     </row>
     <row r="9">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1260.818968632278</v>
+        <v>12.60818968632275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3210729755071848</v>
+        <v>0.3210729755071861</v>
       </c>
     </row>
     <row r="10">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.76541831334514</v>
+        <v>10.7654183133452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4081433404845406</v>
+        <v>0.4081433404845375</v>
       </c>
     </row>
   </sheetData>
@@ -7239,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2985.873222392625</v>
+        <v>2985.873222274652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004826591246585248</v>
+        <v>0.004826591248757538</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.31251497818334</v>
+        <v>96.3125149865113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1220824893276628</v>
+        <v>0.122082489327718</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.7812392001158</v>
+        <v>193.7812392037046</v>
       </c>
       <c r="C4" t="n">
-        <v>7.943482688942257e-06</v>
+        <v>7.94348268468521e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01819945365569919</v>
+        <v>-1.819945365700161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.595672130262191</v>
+        <v>0.5956721302360249</v>
       </c>
     </row>
     <row r="6">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.021279143468176e-05</v>
+        <v>80.2127914511024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04670569020225394</v>
+        <v>0.04670569017002989</v>
       </c>
     </row>
     <row r="7">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.097028726912283</v>
+        <v>-2.097028726912247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6948015067059661</v>
+        <v>0.694801506705971</v>
       </c>
     </row>
     <row r="8">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1784.043445379167</v>
+        <v>-17.84043445379162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05109683375072296</v>
+        <v>0.05109683375072355</v>
       </c>
     </row>
     <row r="9">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2745.727749677385</v>
+        <v>27.45727749677373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04107242558230197</v>
+        <v>0.04107242558230272</v>
       </c>
     </row>
     <row r="10">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.812916414719</v>
+        <v>14.81291641471898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2763972121111815</v>
+        <v>0.276397212111182</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4140.956890024838</v>
+        <v>4140.956889985699</v>
       </c>
       <c r="C2" t="n">
-        <v>2.036995561374601e-05</v>
+        <v>2.0369955623838e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.66262967968177</v>
+        <v>25.66262968211186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6573174958100676</v>
+        <v>0.6573174958101144</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8949603684697</v>
+        <v>159.8949603685741</v>
       </c>
       <c r="C4" t="n">
-        <v>2.836224285818103e-05</v>
+        <v>2.836224285750006e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05643148947124287</v>
+        <v>-5.643148947128751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04926748463503448</v>
+        <v>0.04926748463482088</v>
       </c>
     </row>
     <row r="6">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.018808798975117e-05</v>
+        <v>50.18808801027522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1383586743611083</v>
+        <v>0.1383586742179664</v>
       </c>
     </row>
     <row r="7">
@@ -7457,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.20273240564491</v>
+        <v>-11.20273240564493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02457071288345467</v>
+        <v>0.02457071288345456</v>
       </c>
     </row>
     <row r="8">
@@ -7470,10 +7470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1795.899395228293</v>
+        <v>-17.95899395228298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0276991650788575</v>
+        <v>0.02769916507885735</v>
       </c>
     </row>
     <row r="9">
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4566.894409539724</v>
+        <v>45.66894409539715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008232555277583553</v>
+        <v>0.0008232555277583707</v>
       </c>
     </row>
     <row r="10">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.51034267259989</v>
+        <v>19.51034267259996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1041813587559109</v>
+        <v>0.1041813587559096</v>
       </c>
     </row>
   </sheetData>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1786.133587012392</v>
+        <v>1786.133587010411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08783409090626472</v>
+        <v>0.08783409090671307</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.29522842569676</v>
+        <v>72.29522844253684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2603010635554999</v>
+        <v>0.2603010635553947</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.3487989391485</v>
+        <v>204.3487989377187</v>
       </c>
       <c r="C4" t="n">
-        <v>1.120006585977871e-06</v>
+        <v>1.120006586289972e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0002608176923735855</v>
+        <v>-0.02608176946631735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9929642092767854</v>
+        <v>0.992964209214974</v>
       </c>
     </row>
     <row r="6">
@@ -7597,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.375340404098443e-05</v>
+        <v>53.75340405191166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1899213831936233</v>
+        <v>0.1899213831204543</v>
       </c>
     </row>
     <row r="7">
@@ -7610,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.151945702547136</v>
+        <v>3.151945702547057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5435986726562112</v>
+        <v>0.5435986726562216</v>
       </c>
     </row>
     <row r="8">
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1172.992296696499</v>
+        <v>-11.72992296696514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1932795763695856</v>
+        <v>0.1932795763695808</v>
       </c>
     </row>
     <row r="9">
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3398.107310340137</v>
+        <v>33.98107310340144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01948447559648879</v>
+        <v>0.01948447559648861</v>
       </c>
     </row>
     <row r="10">
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.70740407185388</v>
+        <v>23.70740407185374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07861685447718472</v>
+        <v>0.0786168544771863</v>
       </c>
     </row>
   </sheetData>
@@ -7698,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3117.233635254945</v>
+        <v>3117.233635184219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002900883691976475</v>
+        <v>0.002900883692806305</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.19703682676688</v>
+        <v>77.19703683295495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2298171662969783</v>
+        <v>0.2298171662968652</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.7583205355599</v>
+        <v>178.7583205376751</v>
       </c>
       <c r="C4" t="n">
-        <v>2.142452369779179e-05</v>
+        <v>2.142452369106236e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03272096172076344</v>
+        <v>-3.272096172119934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3156218165359053</v>
+        <v>0.3156218165290944</v>
       </c>
     </row>
     <row r="6">
@@ -7750,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.068113082269223e-05</v>
+        <v>60.68113084986755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.138759441452638</v>
+        <v>0.1387594413261506</v>
       </c>
     </row>
     <row r="7">
@@ -7763,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3193764625164377</v>
+        <v>-0.3193764625165141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9538312703115247</v>
+        <v>0.9538312703115137</v>
       </c>
     </row>
     <row r="8">
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1900.383530423866</v>
+        <v>-19.0038353042387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03582091886102015</v>
+        <v>0.03582091886101998</v>
       </c>
     </row>
     <row r="9">
@@ -7789,10 +7789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3107.129490574909</v>
+        <v>31.07129490574903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01665678859088753</v>
+        <v>0.01665678859088782</v>
       </c>
     </row>
     <row r="10">
@@ -7802,10 +7802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.88712854211193</v>
+        <v>12.88712854211188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3454672015311033</v>
+        <v>0.3454672015311053</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2975.146083687207</v>
+        <v>2975.146083622547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003444650709893843</v>
+        <v>0.003444650711147783</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.12022847299628</v>
+        <v>37.12022847637999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5537033983119224</v>
+        <v>0.5537033983116265</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7658234375089</v>
+        <v>180.7658234390381</v>
       </c>
       <c r="C4" t="n">
-        <v>3.259410276963278e-05</v>
+        <v>3.259410276121655e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02470577131154904</v>
+        <v>-2.470577131186383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4306142923258821</v>
+        <v>0.4306142923200067</v>
       </c>
     </row>
     <row r="6">
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.874685981001141e-05</v>
+        <v>58.74685981276444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1688449744015996</v>
+        <v>0.1688449743966769</v>
       </c>
     </row>
     <row r="7">
@@ -7916,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.191917389432299</v>
+        <v>-1.191917389432274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8105427656991184</v>
+        <v>0.8105427656991225</v>
       </c>
     </row>
     <row r="8">
@@ -7929,10 +7929,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2264.533282196137</v>
+        <v>-22.64533282196135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02147318274591618</v>
+        <v>0.02147318274591611</v>
       </c>
     </row>
     <row r="9">
@@ -7942,10 +7942,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3105.139121331958</v>
+        <v>31.05139121331941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01334270603660599</v>
+        <v>0.01334270603660631</v>
       </c>
     </row>
     <row r="10">
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.61931782628075</v>
+        <v>19.61931782628105</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1627577890408092</v>
+        <v>0.1627577890408034</v>
       </c>
     </row>
   </sheetData>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4501.902767146629</v>
+        <v>4501.902767159716</v>
       </c>
       <c r="C2" t="n">
-        <v>1.582818074746033e-05</v>
+        <v>1.582818074567269e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.87236129142875</v>
+        <v>53.8723612867222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3972536797498483</v>
+        <v>0.3972536797500228</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.0568525816937</v>
+        <v>183.0568525773508</v>
       </c>
       <c r="C4" t="n">
-        <v>1.887403388746113e-05</v>
+        <v>1.88740339029153e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.051418658348704</v>
+        <v>-5.141865834839312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08496208523827277</v>
+        <v>0.0849620852405427</v>
       </c>
     </row>
     <row r="6">
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000109298203784228</v>
+        <v>109.2982037700263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008203220502958027</v>
+        <v>0.008203220510624134</v>
       </c>
     </row>
     <row r="7">
@@ -8069,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.5147148401997</v>
+        <v>-10.51471484019968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05934484171905478</v>
+        <v>0.05934484171905505</v>
       </c>
     </row>
     <row r="8">
@@ -8082,10 +8082,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2529.358833673139</v>
+        <v>-25.29358833673135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007022012313265571</v>
+        <v>0.00702201231326569</v>
       </c>
     </row>
     <row r="9">
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1532.54099187953</v>
+        <v>15.32540991879531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2255181070871409</v>
+        <v>0.2255181070871405</v>
       </c>
     </row>
     <row r="10">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.84317935926646</v>
+        <v>14.84317935926627</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2757808219328287</v>
+        <v>0.2757808219328352</v>
       </c>
     </row>
   </sheetData>
